--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9FDFC-726E-1A46-B119-669BE76A1A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536FE39B-0D7A-8343-AC89-DD75E9267BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="760" windowWidth="30340" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1033">
   <si>
     <t>ID</t>
   </si>
@@ -2702,9 +2715,6 @@
     <t>BCT1.4 Action planning</t>
   </si>
   <si>
-    <t>implementation intentions</t>
-  </si>
-  <si>
     <t>BCT12.5 Adding objects to the environment</t>
   </si>
   <si>
@@ -2948,39 +2958,24 @@
     <t>BCT14.8 Reward alternative behaviour</t>
   </si>
   <si>
-    <t>differential reinforcement</t>
-  </si>
-  <si>
     <t>BCT14.4 Reward approximation</t>
   </si>
   <si>
-    <t>shaping</t>
-  </si>
-  <si>
     <t>BCT10.3 Non-specific reward; BCT10.9 Self-reward</t>
   </si>
   <si>
     <t>BCT14.5 Rewarding completion</t>
   </si>
   <si>
-    <t>backward chaining</t>
-  </si>
-  <si>
     <t>BCT14.7 Reward incompatible behaviour</t>
   </si>
   <si>
-    <t>counter-conditioning</t>
-  </si>
-  <si>
     <t>BCT10.10 Reward (outcome)</t>
   </si>
   <si>
     <t>BCT14.6 Situation-specific reward</t>
   </si>
   <si>
-    <t>discrimination training</t>
-  </si>
-  <si>
     <t>BCT10.2 Material reward (behaviour)</t>
   </si>
   <si>
@@ -3047,9 +3042,6 @@
     <t>BCT2.4 Self-monitoring of outcome(s) of behaviour</t>
   </si>
   <si>
-    <t>BCT1.1 Goal setting (behaviour); BCT1.3 Goal setting (outcome)</t>
-  </si>
-  <si>
     <t>BCT8.7 Graded tasks</t>
   </si>
   <si>
@@ -3066,9 +3058,6 @@
   </si>
   <si>
     <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person.</t>
-  </si>
-  <si>
-    <t>A behavioural goal might be set in general terms e.g. "to do more physical activity" or in measurable terms e.g. "to do 30 minutes of physical activity five times a week" or "to walk 8000 steps a day." Use this class for measurable behaviour goals</t>
   </si>
   <si>
     <t>the person witnessing the agreement can be the intervention source or another person who is present at the time</t>
@@ -3113,6 +3102,39 @@
     <t>Example 1: Changing meal portion size to reduce the amount people eat at a sitting.
 Example 2: Removing unhealthy snacks from the till area in supermarkets to reduce impulse buying of these items.
 Example 3: Organisation wide use of ‘red time’ notices that people can put on their door or desk to signal that they are not to be interrupted in order to increase productivity.</t>
+  </si>
+  <si>
+    <t>BCT1.1 Goal setting (behaviour)</t>
+  </si>
+  <si>
+    <t>BCT1.3 Goal setting (outcome)</t>
+  </si>
+  <si>
+    <t>punishment</t>
+  </si>
+  <si>
+    <t>differential reinforcement, reward for alternative behaviour</t>
+  </si>
+  <si>
+    <t>shaping, reward for approximating behaviour</t>
+  </si>
+  <si>
+    <t>positive reinforcement, reward</t>
+  </si>
+  <si>
+    <t>backward chaining, reward for behavoural sequence</t>
+  </si>
+  <si>
+    <t>counter-conditioning, reward for incompatible behaviour</t>
+  </si>
+  <si>
+    <t>positive reinforcement, reward for outcome of behaviour</t>
+  </si>
+  <si>
+    <t>discrimination training, reward for situation specific behaviour</t>
+  </si>
+  <si>
+    <t>A behaviour goal might be set in general terms e.g. "to do more physical activity" or in measurable terms e.g. "to do 30 minutes of physical activity five times a week" or "to walk 8000 steps a day." Use this class for measurable behaviour goals</t>
   </si>
 </sst>
 </file>
@@ -3159,11 +3181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3468,16 +3489,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I268" sqref="I268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="8" width="8.83203125" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -3563,9 +3587,7 @@
       <c r="G2" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>893</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
@@ -3623,7 +3645,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3683,7 +3705,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -4035,7 +4057,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -4184,10 +4206,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4246,14 +4268,14 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>76</v>
@@ -4283,7 +4305,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
@@ -4575,7 +4597,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4635,7 +4657,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4697,7 +4719,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -4728,10 +4750,10 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>905</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4760,7 +4782,9 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>1022</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
         <v>891</v>
@@ -4820,7 +4844,9 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>1023</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
         <v>891</v>
@@ -4910,7 +4936,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -4970,7 +4996,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -5001,7 +5027,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -5034,7 +5060,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
@@ -5063,10 +5089,10 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -5154,7 +5180,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -5272,12 +5298,12 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>76</v>
@@ -5305,7 +5331,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -5336,12 +5362,12 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>76</v>
@@ -5369,10 +5395,10 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -5433,10 +5459,10 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>289</v>
@@ -5468,10 +5494,10 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>289</v>
@@ -5503,11 +5529,11 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2" t="s">
@@ -5536,7 +5562,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -5567,10 +5593,10 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -5629,7 +5655,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -5689,7 +5715,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -5749,10 +5775,10 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -5784,8 +5810,8 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-      <c r="J75" s="3" t="s">
-        <v>1029</v>
+      <c r="J75" s="2" t="s">
+        <v>1021</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>76</v>
@@ -5842,10 +5868,10 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -5880,7 +5906,7 @@
         <v>238</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>76</v>
@@ -5938,7 +5964,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -5968,10 +5994,10 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -6030,7 +6056,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -6094,7 +6120,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2" t="s">
@@ -6123,10 +6149,10 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>932</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -6156,10 +6182,10 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -6218,7 +6244,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -6249,10 +6275,10 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -6282,10 +6308,10 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>938</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -6315,7 +6341,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -6348,7 +6374,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2" t="s">
@@ -6437,7 +6463,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -6497,11 +6523,11 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2" t="s">
@@ -6532,7 +6558,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="2" t="s">
         <v>326</v>
       </c>
       <c r="K99" s="2" t="s">
@@ -6590,7 +6616,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -6621,7 +6647,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -6652,7 +6678,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -6683,7 +6709,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -6714,7 +6740,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -6977,7 +7003,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -7008,10 +7034,10 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>947</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>948</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -7101,7 +7127,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -7161,7 +7187,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -7192,7 +7218,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -7252,10 +7278,10 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -7285,12 +7311,12 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>76</v>
@@ -7347,7 +7373,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -7378,7 +7404,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -7471,10 +7497,10 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>612</v>
@@ -7506,7 +7532,9 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="H131" s="2" t="s">
+        <v>957</v>
+      </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2" t="s">
@@ -7802,10 +7830,10 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>523</v>
@@ -7895,10 +7923,10 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -8015,10 +8043,10 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -8226,10 +8254,10 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>527</v>
@@ -8977,7 +9005,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -9008,7 +9036,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -9039,7 +9067,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -9099,7 +9127,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -9130,7 +9158,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -9161,7 +9189,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
@@ -9194,7 +9222,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -9254,7 +9282,7 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -9345,7 +9373,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -9407,7 +9435,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -9438,7 +9466,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -9469,9 +9497,11 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="H196" s="2"/>
+        <v>972</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>1024</v>
+      </c>
       <c r="I196" s="2" t="s">
         <v>612</v>
       </c>
@@ -9502,7 +9532,9 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
+      <c r="H197" s="2" t="s">
+        <v>1024</v>
+      </c>
       <c r="I197" s="2" t="s">
         <v>612</v>
       </c>
@@ -9771,10 +9803,10 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>975</v>
+        <v>1025</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
@@ -9804,10 +9836,10 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>977</v>
+        <v>1026</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
@@ -9837,10 +9869,10 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>960</v>
+        <v>1027</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>523</v>
@@ -9872,10 +9904,10 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>980</v>
+        <v>1028</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -9905,10 +9937,10 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>982</v>
+        <v>1029</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -9938,10 +9970,10 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>960</v>
+        <v>1030</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>523</v>
@@ -9973,10 +10005,10 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>985</v>
+        <v>1031</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
@@ -10064,10 +10096,10 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -10275,10 +10307,10 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>527</v>
@@ -10641,10 +10673,10 @@
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
@@ -10794,7 +10826,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
@@ -10825,7 +10857,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
@@ -10856,7 +10888,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
@@ -10887,10 +10919,10 @@
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="I242" s="2" t="s">
         <v>454</v>
@@ -10953,7 +10985,7 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2" t="s">
@@ -10986,10 +11018,10 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
@@ -11048,10 +11080,10 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
@@ -11139,10 +11171,10 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>608</v>
@@ -11325,10 +11357,10 @@
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>642</v>
@@ -11540,7 +11572,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
@@ -11571,12 +11603,12 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="K264" s="2" t="s">
         <v>76</v>
@@ -11604,10 +11636,12 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
+      <c r="I265" s="2" t="s">
+        <v>891</v>
+      </c>
       <c r="J265" s="2"/>
       <c r="K265" s="2" t="s">
         <v>76</v>
@@ -11636,7 +11670,9 @@
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
+      <c r="I266" s="2" t="s">
+        <v>891</v>
+      </c>
       <c r="J266" s="2"/>
       <c r="K266" s="2" t="s">
         <v>76</v>
@@ -11664,10 +11700,12 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
+      <c r="I267" s="2" t="s">
+        <v>891</v>
+      </c>
       <c r="J267" s="2"/>
       <c r="K267" s="2" t="s">
         <v>76</v>
@@ -11695,7 +11733,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
@@ -11726,7 +11764,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
@@ -11757,11 +11795,11 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="H270" s="2"/>
       <c r="I270" s="2" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="J270" s="2"/>
       <c r="K270" s="2" t="s">
@@ -11790,7 +11828,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
@@ -11823,7 +11861,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
       <c r="J272" s="2"/>
       <c r="K272" s="2" t="s">
@@ -11882,10 +11920,12 @@
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
+      <c r="G274" s="2" t="s">
+        <v>1023</v>
+      </c>
       <c r="H274" s="2"/>
       <c r="I274" s="2" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="J274" s="2"/>
       <c r="K274" s="2" t="s">
@@ -11914,7 +11954,7 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
@@ -11945,7 +11985,7 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
@@ -12034,13 +12074,13 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H279" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I279" s="2" t="s">
         <v>1012</v>
-      </c>
-      <c r="I279" s="2" t="s">
-        <v>1020</v>
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="2" t="s">
@@ -12098,11 +12138,11 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2" t="s">
@@ -12131,7 +12171,7 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
@@ -12162,7 +12202,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisazhang/Documents/GitHub/ontologies/BehaviourChangeTechniques/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628539B-8781-A94A-BF6A-AAE42B290D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E174EDB-9C73-0E4E-8CD3-8F4E3EDA425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="760" windowWidth="30340" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1096">
   <si>
     <t>ID</t>
   </si>
@@ -2182,9 +2182,6 @@
   </si>
   <si>
     <t>BCIO:007272</t>
-  </si>
-  <si>
-    <t>provide reduced frequency of material consequence for outcome of behaviour BCT</t>
   </si>
   <si>
     <t>provide reduced frequency of positive consequence for outcome of behaviour BCT</t>
@@ -3107,9 +3104,6 @@
     <t>counter-conditioning, reward for incompatible behaviour</t>
   </si>
   <si>
-    <t>positive reinforcement, reward for outcome of behaviour</t>
-  </si>
-  <si>
     <t>discrimination training, reward for situation specific behaviour</t>
   </si>
   <si>
@@ -3213,6 +3207,123 @@
   </si>
   <si>
     <t>remove material punishment</t>
+  </si>
+  <si>
+    <t>positive reinforcement, incentive</t>
+  </si>
+  <si>
+    <t>positive reinforcement, social incentive</t>
+  </si>
+  <si>
+    <t>positive reinforcement, material incentive</t>
+  </si>
+  <si>
+    <t>incentive for approximating behaviour</t>
+  </si>
+  <si>
+    <t>material incentive for approximating behaviour</t>
+  </si>
+  <si>
+    <t>social incentive for approximating behaviour</t>
+  </si>
+  <si>
+    <t>incentive for completion of behavioural sequence</t>
+  </si>
+  <si>
+    <t>material incentive for completion of behavioural sequence</t>
+  </si>
+  <si>
+    <t>social incentive for completion of behavioural sequence</t>
+  </si>
+  <si>
+    <t>incentive for situation specific behaviour</t>
+  </si>
+  <si>
+    <t>material incentive for situation specific behaviour</t>
+  </si>
+  <si>
+    <t>social incentive for situation specific behaviour</t>
+  </si>
+  <si>
+    <t>incentive for incompatible behaviour</t>
+  </si>
+  <si>
+    <t>material incentive for incompatible behaviour</t>
+  </si>
+  <si>
+    <t>social incentive for incompatible behaviour</t>
+  </si>
+  <si>
+    <t>incentive for alternative behaviour</t>
+  </si>
+  <si>
+    <t>material incentive for alternative behaviour</t>
+  </si>
+  <si>
+    <t>social incentive for alternative behaviour</t>
+  </si>
+  <si>
+    <t>reduce incentive frequency</t>
+  </si>
+  <si>
+    <t>reduce material incentive frequency</t>
+  </si>
+  <si>
+    <t>reduce social incentive frequency</t>
+  </si>
+  <si>
+    <t>social threat</t>
+  </si>
+  <si>
+    <t>material threat</t>
+  </si>
+  <si>
+    <t>reduce threat frequency</t>
+  </si>
+  <si>
+    <t>reduce material threat frequency</t>
+  </si>
+  <si>
+    <t>reduce social threat frequency</t>
+  </si>
+  <si>
+    <t>threat for situation specific behaviour</t>
+  </si>
+  <si>
+    <t>material threat for situation specific behaviour</t>
+  </si>
+  <si>
+    <t>social threat for situation specific behaviour</t>
+  </si>
+  <si>
+    <t>threaten to remove reward</t>
+  </si>
+  <si>
+    <t>threaten to remove social reward</t>
+  </si>
+  <si>
+    <t>threaten to remove material reward</t>
+  </si>
+  <si>
+    <t>incentive to remove punishment</t>
+  </si>
+  <si>
+    <t>incentive to remove material punishment</t>
+  </si>
+  <si>
+    <t>incentive to remove social punishment</t>
+  </si>
+  <si>
+    <t>material reward</t>
+  </si>
+  <si>
+    <t>social reward</t>
+  </si>
+  <si>
+    <t>provide reduced frequency of positive material consequence for outcome of behaviour BCT</t>
+  </si>
+  <si>
+    <t>remove reward</t>
   </si>
 </sst>
 </file>
@@ -3567,14 +3678,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="H253" sqref="H253"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="6" width="8.83203125" customWidth="1"/>
@@ -3611,13 +3722,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -3632,19 +3743,19 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -3663,7 +3774,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -3723,7 +3834,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3783,7 +3894,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3844,7 +3955,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -4137,7 +4248,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -4286,10 +4397,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -4348,14 +4459,14 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>75</v>
@@ -4385,7 +4496,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
@@ -4677,7 +4788,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4737,7 +4848,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4768,11 +4879,11 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
@@ -4801,7 +4912,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -4832,10 +4943,10 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>903</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -4865,11 +4976,11 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
@@ -4927,11 +5038,11 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
@@ -5018,7 +5129,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -5078,7 +5189,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -5109,7 +5220,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -5140,11 +5251,11 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
@@ -5173,10 +5284,10 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -5264,7 +5375,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -5382,12 +5493,12 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>75</v>
@@ -5415,7 +5526,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -5446,12 +5557,12 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>75</v>
@@ -5479,10 +5590,10 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -5543,10 +5654,10 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>288</v>
@@ -5578,10 +5689,10 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>288</v>
@@ -5613,11 +5724,11 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2" t="s">
@@ -5646,7 +5757,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -5677,10 +5788,10 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>919</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>920</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -5739,7 +5850,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -5799,7 +5910,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -5830,7 +5941,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -5861,10 +5972,10 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -5897,7 +6008,7 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>75</v>
@@ -5954,10 +6065,10 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -5992,7 +6103,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>75</v>
@@ -6020,7 +6131,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -6051,10 +6162,10 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -6084,10 +6195,10 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -6146,7 +6257,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -6179,7 +6290,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
@@ -6210,7 +6321,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2" t="s">
@@ -6239,10 +6350,10 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -6272,10 +6383,10 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -6334,7 +6445,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -6365,10 +6476,10 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>934</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -6398,10 +6509,10 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -6431,7 +6542,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -6464,7 +6575,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2" t="s">
@@ -6553,7 +6664,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -6613,11 +6724,11 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2" t="s">
@@ -6641,7 +6752,7 @@
         <v>23</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -6706,7 +6817,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -6737,7 +6848,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -6768,7 +6879,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -6799,7 +6910,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -6830,7 +6941,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -7093,7 +7204,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -7124,10 +7235,10 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -7217,7 +7328,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -7277,7 +7388,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -7308,7 +7419,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -7368,10 +7479,10 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -7401,12 +7512,12 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>75</v>
@@ -7463,7 +7574,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -7494,7 +7605,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -7587,10 +7698,10 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>954</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>955</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>611</v>
@@ -7623,7 +7734,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -7653,7 +7764,9 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="H132" s="2" t="s">
+        <v>1083</v>
+      </c>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2" t="s">
@@ -7682,7 +7795,9 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="H133" s="2" t="s">
+        <v>1079</v>
+      </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
@@ -7740,7 +7855,9 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
+      <c r="H135" s="2" t="s">
+        <v>1084</v>
+      </c>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2" t="s">
@@ -7769,7 +7886,9 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
+      <c r="H136" s="2" t="s">
+        <v>1078</v>
+      </c>
       <c r="I136" s="2" t="s">
         <v>526</v>
       </c>
@@ -7831,7 +7950,9 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+      <c r="H138" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="I138" s="2" t="s">
         <v>526</v>
       </c>
@@ -7862,7 +7983,9 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>1072</v>
+      </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2" t="s">
@@ -7891,7 +8014,9 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+      <c r="H140" s="2" t="s">
+        <v>1060</v>
+      </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2" t="s">
@@ -7920,10 +8045,10 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>957</v>
+        <v>1057</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>522</v>
@@ -7955,7 +8080,9 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="H142" s="2" t="s">
+        <v>1063</v>
+      </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2" t="s">
@@ -7984,7 +8111,9 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
+      <c r="H143" s="2" t="s">
+        <v>1069</v>
+      </c>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2" t="s">
@@ -8013,10 +8142,10 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>957</v>
+        <v>1057</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -8046,7 +8175,9 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
+      <c r="H145" s="2" t="s">
+        <v>1066</v>
+      </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2" t="s">
@@ -8075,7 +8206,9 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="H146" s="2" t="s">
+        <v>1073</v>
+      </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2" t="s">
@@ -8104,7 +8237,9 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
+      <c r="H147" s="2" t="s">
+        <v>1061</v>
+      </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2" t="s">
@@ -8133,10 +8268,10 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>957</v>
+        <v>1059</v>
       </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -8166,7 +8301,9 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
+      <c r="H149" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2" t="s">
@@ -8195,7 +8332,9 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
+      <c r="H150" s="2" t="s">
+        <v>1070</v>
+      </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2" t="s">
@@ -8253,7 +8392,9 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="H152" s="2" t="s">
+        <v>1067</v>
+      </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2" t="s">
@@ -8282,7 +8423,9 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="H153" s="2" t="s">
+        <v>1074</v>
+      </c>
       <c r="I153" s="2" t="s">
         <v>526</v>
       </c>
@@ -8313,7 +8456,9 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+      <c r="H154" s="2" t="s">
+        <v>1062</v>
+      </c>
       <c r="I154" s="2" t="s">
         <v>526</v>
       </c>
@@ -8344,10 +8489,10 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>957</v>
+        <v>1058</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>526</v>
@@ -8379,7 +8524,9 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="H156" s="2" t="s">
+        <v>1065</v>
+      </c>
       <c r="I156" s="2" t="s">
         <v>526</v>
       </c>
@@ -8410,7 +8557,9 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
+      <c r="H157" s="2" t="s">
+        <v>1071</v>
+      </c>
       <c r="I157" s="2" t="s">
         <v>526</v>
       </c>
@@ -8472,7 +8621,9 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>1068</v>
+      </c>
       <c r="I159" s="2" t="s">
         <v>526</v>
       </c>
@@ -8503,7 +8654,9 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
+      <c r="H160" s="2" t="s">
+        <v>1080</v>
+      </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2" t="s">
@@ -8532,7 +8685,9 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
+      <c r="H161" s="2" t="s">
+        <v>1081</v>
+      </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2" t="s">
@@ -8561,7 +8716,9 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
+      <c r="H162" s="2" t="s">
+        <v>1082</v>
+      </c>
       <c r="I162" s="2" t="s">
         <v>526</v>
       </c>
@@ -8592,7 +8749,9 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
+      <c r="H163" s="2" t="s">
+        <v>1075</v>
+      </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2" t="s">
@@ -8621,7 +8780,9 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
+      <c r="H164" s="2" t="s">
+        <v>1076</v>
+      </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
@@ -8650,7 +8811,9 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
+      <c r="H165" s="2" t="s">
+        <v>1077</v>
+      </c>
       <c r="I165" s="2" t="s">
         <v>526</v>
       </c>
@@ -8739,7 +8902,9 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
+      <c r="H168" s="2" t="s">
+        <v>1089</v>
+      </c>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2" t="s">
@@ -8768,7 +8933,9 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
+      <c r="H169" s="2" t="s">
+        <v>1089</v>
+      </c>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2" t="s">
@@ -8797,7 +8964,9 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
+      <c r="H170" s="2" t="s">
+        <v>1090</v>
+      </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2" t="s">
@@ -8826,7 +8995,9 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="H171" s="2" t="s">
+        <v>1090</v>
+      </c>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2" t="s">
@@ -8855,7 +9026,9 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="H172" s="2" t="s">
+        <v>1091</v>
+      </c>
       <c r="I172" s="2" t="s">
         <v>526</v>
       </c>
@@ -8886,7 +9059,9 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="H173" s="2" t="s">
+        <v>1091</v>
+      </c>
       <c r="I173" s="2" t="s">
         <v>526</v>
       </c>
@@ -8916,8 +9091,12 @@
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="G174" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>1086</v>
+      </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
@@ -8946,7 +9125,9 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="H175" s="2" t="s">
+        <v>1086</v>
+      </c>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2" t="s">
@@ -8975,7 +9156,9 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="H176" s="2" t="s">
+        <v>1088</v>
+      </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2" t="s">
@@ -9004,7 +9187,9 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
+      <c r="H177" s="2" t="s">
+        <v>1088</v>
+      </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2" t="s">
@@ -9033,7 +9218,9 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="H178" s="2" t="s">
+        <v>1087</v>
+      </c>
       <c r="I178" s="2" t="s">
         <v>526</v>
       </c>
@@ -9064,7 +9251,9 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="H179" s="2" t="s">
+        <v>1087</v>
+      </c>
       <c r="I179" s="2" t="s">
         <v>526</v>
       </c>
@@ -9095,7 +9284,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -9126,7 +9315,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -9157,7 +9346,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -9217,7 +9406,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -9248,7 +9437,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -9279,7 +9468,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2" t="s">
@@ -9312,7 +9501,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -9372,7 +9561,7 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -9463,7 +9652,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -9496,7 +9685,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J193" s="2"/>
       <c r="K193" s="2" t="s">
@@ -9525,7 +9714,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -9556,7 +9745,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -9587,10 +9776,10 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I196" s="2" t="s">
         <v>611</v>
@@ -9623,7 +9812,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I197" s="2" t="s">
         <v>611</v>
@@ -9656,7 +9845,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -9687,7 +9876,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
@@ -9717,7 +9906,9 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="H200" s="2" t="s">
+        <v>1044</v>
+      </c>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2" t="s">
@@ -9747,7 +9938,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
@@ -9778,7 +9969,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>526</v>
@@ -9810,7 +10001,9 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="H203" s="2" t="s">
+        <v>1043</v>
+      </c>
       <c r="I203" s="2" t="s">
         <v>526</v>
       </c>
@@ -9842,7 +10035,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>526</v>
@@ -9874,7 +10067,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -9905,10 +10098,10 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
@@ -9938,10 +10131,10 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
@@ -9971,10 +10164,10 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>522</v>
@@ -10006,10 +10199,10 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
@@ -10039,10 +10232,10 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -10072,10 +10265,10 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>522</v>
@@ -10107,10 +10300,10 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
@@ -10141,7 +10334,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
@@ -10172,7 +10365,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -10202,10 +10395,10 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -10236,7 +10429,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
@@ -10267,7 +10460,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
@@ -10297,7 +10490,9 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
+      <c r="H218" s="2" t="s">
+        <v>1092</v>
+      </c>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2" t="s">
@@ -10327,7 +10522,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
@@ -10358,7 +10553,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>526</v>
@@ -10391,7 +10586,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>526</v>
@@ -10423,10 +10618,10 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>526</v>
@@ -10459,7 +10654,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>526</v>
@@ -10492,7 +10687,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>526</v>
@@ -10524,7 +10719,9 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
+      <c r="H225" s="2" t="s">
+        <v>1093</v>
+      </c>
       <c r="I225" s="2" t="s">
         <v>526</v>
       </c>
@@ -10556,7 +10753,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>526</v>
@@ -10577,18 +10774,20 @@
         <v>715</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
+      <c r="H227" s="2" t="s">
+        <v>1042</v>
+      </c>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2" t="s">
@@ -10603,22 +10802,22 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>621</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
@@ -10634,21 +10833,23 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>624</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
+      <c r="H229" s="2" t="s">
+        <v>1048</v>
+      </c>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2" t="s">
@@ -10663,22 +10864,22 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="C230" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
@@ -10694,21 +10895,23 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="C231" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
+      <c r="H231" s="2" t="s">
+        <v>1049</v>
+      </c>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2" t="s">
@@ -10723,22 +10926,22 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C232" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>526</v>
@@ -10756,21 +10959,23 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="C233" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
+      <c r="H233" s="2" t="s">
+        <v>1050</v>
+      </c>
       <c r="I233" s="2" t="s">
         <v>526</v>
       </c>
@@ -10787,24 +10992,24 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>653</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
@@ -10820,21 +11025,23 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>668</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
+      <c r="H235" s="2" t="s">
+        <v>1040</v>
+      </c>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2" t="s">
@@ -10849,22 +11056,22 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="C236" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
@@ -10880,22 +11087,22 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I237" s="2" t="s">
         <v>526</v>
@@ -10913,21 +11120,23 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
+      <c r="H238" s="2" t="s">
+        <v>1041</v>
+      </c>
       <c r="I238" s="2" t="s">
         <v>526</v>
       </c>
@@ -10944,21 +11153,21 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
@@ -10975,21 +11184,21 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
@@ -11006,21 +11215,21 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
@@ -11037,24 +11246,24 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="H242" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>983</v>
       </c>
       <c r="I242" s="2" t="s">
         <v>453</v>
@@ -11072,16 +11281,16 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -11103,21 +11312,21 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2" t="s">
@@ -11136,24 +11345,24 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="H245" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
@@ -11169,16 +11378,16 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -11198,24 +11407,24 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="H247" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="H247" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
@@ -11231,16 +11440,16 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -11260,16 +11469,16 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>393</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -11289,24 +11498,24 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>607</v>
@@ -11324,21 +11533,23 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
+      <c r="H251" s="2" t="s">
+        <v>1054</v>
+      </c>
       <c r="I251" s="2" t="s">
         <v>607</v>
       </c>
@@ -11355,22 +11566,22 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="C252" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
@@ -11386,21 +11597,23 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
+      <c r="H253" s="2" t="s">
+        <v>1056</v>
+      </c>
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2" t="s">
@@ -11415,22 +11628,22 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>526</v>
@@ -11448,21 +11661,23 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="C255" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
+      <c r="H255" s="2" t="s">
+        <v>1055</v>
+      </c>
       <c r="I255" s="2" t="s">
         <v>526</v>
       </c>
@@ -11479,24 +11694,24 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="C256" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
       <c r="G256" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>641</v>
@@ -11514,21 +11729,23 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="C257" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
+      <c r="H257" s="2" t="s">
+        <v>1095</v>
+      </c>
       <c r="I257" s="2" t="s">
         <v>641</v>
       </c>
@@ -11545,22 +11762,22 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="C258" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
@@ -11576,21 +11793,23 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="C259" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
+      <c r="H259" s="2" t="s">
+        <v>1053</v>
+      </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2" t="s">
@@ -11605,22 +11824,22 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="C260" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I260" s="2" t="s">
         <v>526</v>
@@ -11638,21 +11857,23 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="C261" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
+      <c r="H261" s="2" t="s">
+        <v>1052</v>
+      </c>
       <c r="I261" s="2" t="s">
         <v>526</v>
       </c>
@@ -11669,7 +11890,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>324</v>
@@ -11678,7 +11899,7 @@
         <v>75</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -11698,7 +11919,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>23</v>
@@ -11707,12 +11928,12 @@
         <v>324</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
@@ -11729,7 +11950,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>254</v>
@@ -11738,17 +11959,17 @@
         <v>324</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K264" s="2" t="s">
         <v>75</v>
@@ -11762,25 +11983,25 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H265" s="2"/>
       <c r="I265" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J265" s="2"/>
       <c r="K265" s="2" t="s">
@@ -11795,23 +12016,23 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J266" s="2"/>
       <c r="K266" s="2" t="s">
@@ -11826,25 +12047,25 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H267" s="2"/>
       <c r="I267" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J267" s="2"/>
       <c r="K267" s="2" t="s">
@@ -11859,21 +12080,21 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
@@ -11890,21 +12111,21 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
@@ -11921,25 +12142,25 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H270" s="2"/>
       <c r="I270" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J270" s="2"/>
       <c r="K270" s="2" t="s">
@@ -11954,21 +12175,21 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
@@ -11985,23 +12206,23 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="C272" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J272" s="2"/>
       <c r="K272" s="2" t="s">
@@ -12016,16 +12237,16 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="D273" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -12047,25 +12268,25 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H274" s="2"/>
       <c r="I274" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J274" s="2"/>
       <c r="K274" s="2" t="s">
@@ -12080,7 +12301,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>134</v>
@@ -12089,12 +12310,12 @@
         <v>75</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
@@ -12111,21 +12332,21 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
@@ -12142,7 +12363,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>258</v>
@@ -12151,7 +12372,7 @@
         <v>75</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -12171,16 +12392,16 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>865</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -12200,27 +12421,27 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="2" t="s">
@@ -12235,16 +12456,16 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>871</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -12264,25 +12485,25 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
       <c r="G281" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J281" s="2"/>
       <c r="K281" s="2" t="s">
@@ -12297,21 +12518,21 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
@@ -12328,21 +12549,21 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -581,8 +581,10 @@
       <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="n">
-        <v>0</v>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T2" s="2" t="inlineStr"/>
     </row>
@@ -629,8 +631,10 @@
       <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="n">
-        <v>0</v>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T3" s="2" t="inlineStr"/>
     </row>
@@ -681,8 +685,10 @@
       <c r="P4" s="2" t="inlineStr"/>
       <c r="Q4" s="2" t="inlineStr"/>
       <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T4" s="2" t="inlineStr"/>
     </row>
@@ -729,8 +735,10 @@
       <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T5" s="2" t="inlineStr"/>
     </row>
@@ -781,8 +789,10 @@
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="n">
-        <v>0</v>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T6" s="2" t="inlineStr"/>
     </row>
@@ -829,8 +839,10 @@
       <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr"/>
       <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="n">
-        <v>0</v>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T7" s="2" t="inlineStr"/>
     </row>
@@ -881,8 +893,10 @@
       <c r="P8" s="2" t="inlineStr"/>
       <c r="Q8" s="2" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="n">
-        <v>0</v>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T8" s="2" t="inlineStr"/>
     </row>
@@ -929,8 +943,10 @@
       <c r="P9" s="2" t="inlineStr"/>
       <c r="Q9" s="2" t="inlineStr"/>
       <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T9" s="2" t="inlineStr"/>
     </row>
@@ -977,8 +993,10 @@
       <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr"/>
       <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="n">
-        <v>0</v>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T10" s="2" t="inlineStr"/>
     </row>
@@ -1025,8 +1043,10 @@
       <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr"/>
       <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="n">
-        <v>0</v>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T11" s="2" t="inlineStr"/>
     </row>
@@ -1073,8 +1093,10 @@
       <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr"/>
       <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="n">
-        <v>0</v>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T12" s="2" t="inlineStr"/>
     </row>
@@ -1105,7 +1127,7 @@
       <c r="H13" s="2" t="inlineStr"/>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>The target of the mental process advised by this BCT will be an emotion. If a BCT suggests adopting a different cognitive perspective on behaviour, which then changes emotions, use "suggest different perspective on behaviour BCT" or one of its child classes.</t>
+          <t>The target of the mental process advised by this BCT will be an emotion. If a BCT suggests adopting a different cognitive perspective on behaviour, which then changes emotions, use "suggest different perspective on behaviour BCT" or one of its child classes. A mental process is something that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr"/>
@@ -1124,9 +1146,15 @@
       <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="n">
-        <v>0</v>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T13" s="2" t="inlineStr"/>
     </row>
@@ -1173,8 +1201,10 @@
       <c r="P14" s="2" t="inlineStr"/>
       <c r="Q14" s="2" t="inlineStr"/>
       <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="n">
-        <v>0</v>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T14" s="2" t="inlineStr"/>
     </row>
@@ -1221,8 +1251,10 @@
       <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr"/>
       <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="n">
-        <v>0</v>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T15" s="2" t="inlineStr"/>
     </row>
@@ -1269,8 +1301,10 @@
       <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr"/>
       <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="n">
-        <v>0</v>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T16" s="2" t="inlineStr"/>
     </row>
@@ -1317,8 +1351,10 @@
       <c r="P17" s="2" t="inlineStr"/>
       <c r="Q17" s="2" t="inlineStr"/>
       <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="n">
-        <v>0</v>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T17" s="2" t="inlineStr"/>
     </row>
@@ -1369,8 +1405,10 @@
       <c r="P18" s="2" t="inlineStr"/>
       <c r="Q18" s="2" t="inlineStr"/>
       <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="n">
-        <v>0</v>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T18" s="2" t="inlineStr"/>
     </row>
@@ -1425,8 +1463,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
-        <v>0</v>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T19" s="2" t="inlineStr"/>
     </row>
@@ -1477,8 +1517,10 @@
       <c r="P20" s="2" t="inlineStr"/>
       <c r="Q20" s="2" t="inlineStr"/>
       <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="n">
-        <v>0</v>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T20" s="2" t="inlineStr"/>
     </row>
@@ -1525,8 +1567,10 @@
       <c r="P21" s="2" t="inlineStr"/>
       <c r="Q21" s="2" t="inlineStr"/>
       <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="n">
-        <v>0</v>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T21" s="2" t="inlineStr"/>
     </row>
@@ -1573,8 +1617,10 @@
       <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="n">
-        <v>0</v>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T22" s="2" t="inlineStr"/>
     </row>
@@ -1629,8 +1675,10 @@
       <c r="P23" s="2" t="inlineStr"/>
       <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="n">
-        <v>0</v>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T23" s="2" t="inlineStr"/>
     </row>
@@ -1677,8 +1725,10 @@
       <c r="P24" s="2" t="inlineStr"/>
       <c r="Q24" s="2" t="inlineStr"/>
       <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="n">
-        <v>0</v>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T24" s="2" t="inlineStr"/>
     </row>
@@ -1737,8 +1787,10 @@
       <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr"/>
       <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="n">
-        <v>0</v>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T25" s="2" t="inlineStr"/>
     </row>
@@ -1789,8 +1841,10 @@
       <c r="P26" s="2" t="inlineStr"/>
       <c r="Q26" s="2" t="inlineStr"/>
       <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="n">
-        <v>0</v>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T26" s="2" t="inlineStr"/>
     </row>
@@ -1837,8 +1891,10 @@
       <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr"/>
       <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="n">
-        <v>0</v>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T27" s="2" t="inlineStr"/>
     </row>
@@ -1885,8 +1941,10 @@
       <c r="P28" s="2" t="inlineStr"/>
       <c r="Q28" s="2" t="inlineStr"/>
       <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="n">
-        <v>0</v>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
     </row>
@@ -1933,8 +1991,10 @@
       <c r="P29" s="2" t="inlineStr"/>
       <c r="Q29" s="2" t="inlineStr"/>
       <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="n">
-        <v>0</v>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T29" s="2" t="inlineStr"/>
     </row>
@@ -1981,8 +2041,10 @@
       <c r="P30" s="2" t="inlineStr"/>
       <c r="Q30" s="2" t="inlineStr"/>
       <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="n">
-        <v>0</v>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T30" s="2" t="inlineStr"/>
     </row>
@@ -2033,8 +2095,10 @@
       <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr"/>
       <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="n">
-        <v>0</v>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T31" s="2" t="inlineStr"/>
     </row>
@@ -2081,8 +2145,10 @@
       <c r="P32" s="2" t="inlineStr"/>
       <c r="Q32" s="2" t="inlineStr"/>
       <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="n">
-        <v>0</v>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T32" s="2" t="inlineStr"/>
     </row>
@@ -2129,8 +2195,10 @@
       <c r="P33" s="2" t="inlineStr"/>
       <c r="Q33" s="2" t="inlineStr"/>
       <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="n">
-        <v>0</v>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T33" s="2" t="inlineStr"/>
     </row>
@@ -2177,8 +2245,10 @@
       <c r="P34" s="2" t="inlineStr"/>
       <c r="Q34" s="2" t="inlineStr"/>
       <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="n">
-        <v>0</v>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T34" s="2" t="inlineStr"/>
     </row>
@@ -2229,8 +2299,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n">
-        <v>0</v>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T35" s="2" t="inlineStr"/>
     </row>
@@ -2281,8 +2353,10 @@
       <c r="P36" s="2" t="inlineStr"/>
       <c r="Q36" s="2" t="inlineStr"/>
       <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="n">
-        <v>0</v>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T36" s="2" t="inlineStr"/>
     </row>
@@ -2329,8 +2403,10 @@
       <c r="P37" s="2" t="inlineStr"/>
       <c r="Q37" s="2" t="inlineStr"/>
       <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="n">
-        <v>0</v>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T37" s="2" t="inlineStr"/>
     </row>
@@ -2381,8 +2457,10 @@
       <c r="P38" s="2" t="inlineStr"/>
       <c r="Q38" s="2" t="inlineStr"/>
       <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="n">
-        <v>0</v>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T38" s="2" t="inlineStr"/>
     </row>
@@ -2437,8 +2515,10 @@
       <c r="P39" s="2" t="inlineStr"/>
       <c r="Q39" s="2" t="inlineStr"/>
       <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="n">
-        <v>0</v>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T39" s="2" t="inlineStr"/>
     </row>
@@ -2497,8 +2577,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S40" s="2" t="n">
-        <v>0</v>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T40" s="2" t="inlineStr"/>
     </row>
@@ -2553,8 +2635,10 @@
       <c r="P41" s="2" t="inlineStr"/>
       <c r="Q41" s="2" t="inlineStr"/>
       <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="n">
-        <v>0</v>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T41" s="2" t="inlineStr"/>
     </row>
@@ -2609,8 +2693,10 @@
       <c r="P42" s="2" t="inlineStr"/>
       <c r="Q42" s="2" t="inlineStr"/>
       <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="n">
-        <v>0</v>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T42" s="2" t="inlineStr"/>
     </row>
@@ -2665,8 +2751,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S43" s="2" t="n">
-        <v>0</v>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T43" s="2" t="inlineStr"/>
     </row>
@@ -2721,8 +2809,10 @@
       <c r="P44" s="2" t="inlineStr"/>
       <c r="Q44" s="2" t="inlineStr"/>
       <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="n">
-        <v>0</v>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T44" s="2" t="inlineStr"/>
     </row>
@@ -2769,8 +2859,10 @@
       <c r="P45" s="2" t="inlineStr"/>
       <c r="Q45" s="2" t="inlineStr"/>
       <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="n">
-        <v>0</v>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T45" s="2" t="inlineStr"/>
     </row>
@@ -2821,8 +2913,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S46" s="2" t="n">
-        <v>0</v>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T46" s="2" t="inlineStr"/>
     </row>
@@ -2873,8 +2967,10 @@
       <c r="P47" s="2" t="inlineStr"/>
       <c r="Q47" s="2" t="inlineStr"/>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="n">
-        <v>0</v>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T47" s="2" t="inlineStr"/>
     </row>
@@ -2921,8 +3017,10 @@
       <c r="P48" s="2" t="inlineStr"/>
       <c r="Q48" s="2" t="inlineStr"/>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="n">
-        <v>0</v>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T48" s="2" t="inlineStr"/>
     </row>
@@ -2973,8 +3071,10 @@
       <c r="P49" s="2" t="inlineStr"/>
       <c r="Q49" s="2" t="inlineStr"/>
       <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="n">
-        <v>0</v>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T49" s="2" t="inlineStr"/>
     </row>
@@ -3025,8 +3125,10 @@
       <c r="P50" s="2" t="inlineStr"/>
       <c r="Q50" s="2" t="inlineStr"/>
       <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="n">
-        <v>0</v>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T50" s="2" t="inlineStr"/>
     </row>
@@ -3081,8 +3183,10 @@
       <c r="P51" s="2" t="inlineStr"/>
       <c r="Q51" s="2" t="inlineStr"/>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="n">
-        <v>0</v>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T51" s="2" t="inlineStr"/>
     </row>
@@ -3116,7 +3220,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>classical/pavlovian conditioning</t>
+          <t>Classical/Pavlovian conditioning</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr"/>
@@ -3136,9 +3240,15 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr"/>
       <c r="Q52" s="2" t="inlineStr"/>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="n">
-        <v>0</v>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T52" s="2" t="inlineStr"/>
     </row>
@@ -3166,7 +3276,11 @@
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Classical conditioning</t>
+        </is>
+      </c>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr">
@@ -3184,9 +3298,15 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr"/>
       <c r="Q53" s="2" t="inlineStr"/>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="n">
-        <v>0</v>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T53" s="2" t="inlineStr"/>
     </row>
@@ -3214,7 +3334,11 @@
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>extinction</t>
+        </is>
+      </c>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr">
@@ -3232,9 +3356,15 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr"/>
       <c r="Q54" s="2" t="inlineStr"/>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="n">
-        <v>0</v>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T54" s="2" t="inlineStr"/>
     </row>
@@ -3285,8 +3415,10 @@
       <c r="P55" s="2" t="inlineStr"/>
       <c r="Q55" s="2" t="inlineStr"/>
       <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="n">
-        <v>0</v>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T55" s="2" t="inlineStr"/>
     </row>
@@ -3333,8 +3465,10 @@
       <c r="P56" s="2" t="inlineStr"/>
       <c r="Q56" s="2" t="inlineStr"/>
       <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="n">
-        <v>0</v>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T56" s="2" t="inlineStr"/>
     </row>
@@ -3381,8 +3515,10 @@
       <c r="P57" s="2" t="inlineStr"/>
       <c r="Q57" s="2" t="inlineStr"/>
       <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="n">
-        <v>0</v>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T57" s="2" t="inlineStr"/>
     </row>
@@ -3429,8 +3565,10 @@
       <c r="P58" s="2" t="inlineStr"/>
       <c r="Q58" s="2" t="inlineStr"/>
       <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="n">
-        <v>0</v>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T58" s="2" t="inlineStr"/>
     </row>
@@ -3485,8 +3623,10 @@
       <c r="P59" s="2" t="inlineStr"/>
       <c r="Q59" s="2" t="inlineStr"/>
       <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="n">
-        <v>0</v>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T59" s="2" t="inlineStr"/>
     </row>
@@ -3545,8 +3685,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S60" s="2" t="n">
-        <v>0</v>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T60" s="2" t="inlineStr"/>
     </row>
@@ -3601,8 +3743,10 @@
       <c r="P61" s="2" t="inlineStr"/>
       <c r="Q61" s="2" t="inlineStr"/>
       <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="n">
-        <v>0</v>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T61" s="2" t="inlineStr"/>
     </row>
@@ -3661,8 +3805,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S62" s="2" t="n">
-        <v>0</v>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T62" s="2" t="inlineStr"/>
     </row>
@@ -3713,8 +3859,10 @@
       <c r="P63" s="2" t="inlineStr"/>
       <c r="Q63" s="2" t="inlineStr"/>
       <c r="R63" s="2" t="inlineStr"/>
-      <c r="S63" s="2" t="n">
-        <v>0</v>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T63" s="2" t="inlineStr"/>
     </row>
@@ -3773,8 +3921,10 @@
       <c r="P64" s="2" t="inlineStr"/>
       <c r="Q64" s="2" t="inlineStr"/>
       <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="n">
-        <v>0</v>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T64" s="2" t="inlineStr"/>
     </row>
@@ -3833,8 +3983,10 @@
       <c r="P65" s="2" t="inlineStr"/>
       <c r="Q65" s="2" t="inlineStr"/>
       <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="n">
-        <v>0</v>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T65" s="2" t="inlineStr"/>
     </row>
@@ -3897,8 +4049,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S66" s="2" t="n">
-        <v>0</v>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T66" s="2" t="inlineStr"/>
     </row>
@@ -3949,8 +4103,10 @@
       <c r="P67" s="2" t="inlineStr"/>
       <c r="Q67" s="2" t="inlineStr"/>
       <c r="R67" s="2" t="inlineStr"/>
-      <c r="S67" s="2" t="n">
-        <v>0</v>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T67" s="2" t="inlineStr"/>
     </row>
@@ -3984,7 +4140,7 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>discriminative reward</t>
+          <t>discriminative stimulus for reward</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr"/>
@@ -4004,9 +4160,15 @@
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr"/>
       <c r="Q68" s="2" t="inlineStr"/>
-      <c r="R68" s="2" t="inlineStr"/>
-      <c r="S68" s="2" t="n">
-        <v>0</v>
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T68" s="2" t="inlineStr"/>
     </row>
@@ -4061,8 +4223,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S69" s="2" t="n">
-        <v>0</v>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T69" s="2" t="inlineStr"/>
     </row>
@@ -4121,8 +4285,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S70" s="2" t="n">
-        <v>0</v>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T70" s="2" t="inlineStr"/>
     </row>
@@ -4177,8 +4343,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S71" s="2" t="n">
-        <v>0</v>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T71" s="2" t="inlineStr"/>
     </row>
@@ -4237,8 +4405,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S72" s="2" t="n">
-        <v>0</v>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T72" s="2" t="inlineStr"/>
     </row>
@@ -4297,8 +4467,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S73" s="2" t="n">
-        <v>0</v>
+      <c r="S73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T73" s="2" t="inlineStr"/>
     </row>
@@ -4357,8 +4529,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S74" s="2" t="n">
-        <v>0</v>
+      <c r="S74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T74" s="2" t="inlineStr"/>
     </row>
@@ -4411,8 +4585,10 @@
       <c r="P75" s="2" t="inlineStr"/>
       <c r="Q75" s="2" t="inlineStr"/>
       <c r="R75" s="2" t="inlineStr"/>
-      <c r="S75" s="2" t="n">
-        <v>0</v>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T75" s="2" t="inlineStr"/>
     </row>
@@ -4459,8 +4635,10 @@
       <c r="P76" s="2" t="inlineStr"/>
       <c r="Q76" s="2" t="inlineStr"/>
       <c r="R76" s="2" t="inlineStr"/>
-      <c r="S76" s="2" t="n">
-        <v>0</v>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T76" s="2" t="inlineStr"/>
     </row>
@@ -4515,8 +4693,10 @@
       <c r="P77" s="2" t="inlineStr"/>
       <c r="Q77" s="2" t="inlineStr"/>
       <c r="R77" s="2" t="inlineStr"/>
-      <c r="S77" s="2" t="n">
-        <v>0</v>
+      <c r="S77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T77" s="2" t="inlineStr"/>
     </row>
@@ -4571,8 +4751,10 @@
       <c r="P78" s="2" t="inlineStr"/>
       <c r="Q78" s="2" t="inlineStr"/>
       <c r="R78" s="2" t="inlineStr"/>
-      <c r="S78" s="2" t="n">
-        <v>0</v>
+      <c r="S78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T78" s="2" t="inlineStr"/>
     </row>
@@ -4623,8 +4805,10 @@
       <c r="P79" s="2" t="inlineStr"/>
       <c r="Q79" s="2" t="inlineStr"/>
       <c r="R79" s="2" t="inlineStr"/>
-      <c r="S79" s="2" t="n">
-        <v>0</v>
+      <c r="S79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T79" s="2" t="inlineStr"/>
     </row>
@@ -4679,8 +4863,10 @@
       <c r="P80" s="2" t="inlineStr"/>
       <c r="Q80" s="2" t="inlineStr"/>
       <c r="R80" s="2" t="inlineStr"/>
-      <c r="S80" s="2" t="n">
-        <v>0</v>
+      <c r="S80" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T80" s="2" t="inlineStr"/>
     </row>
@@ -4735,8 +4921,10 @@
       <c r="P81" s="2" t="inlineStr"/>
       <c r="Q81" s="2" t="inlineStr"/>
       <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="n">
-        <v>0</v>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T81" s="2" t="inlineStr"/>
     </row>
@@ -4783,8 +4971,10 @@
       <c r="P82" s="2" t="inlineStr"/>
       <c r="Q82" s="2" t="inlineStr"/>
       <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="n">
-        <v>0</v>
+      <c r="S82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T82" s="2" t="inlineStr"/>
     </row>
@@ -4835,8 +5025,10 @@
       <c r="P83" s="2" t="inlineStr"/>
       <c r="Q83" s="2" t="inlineStr"/>
       <c r="R83" s="2" t="inlineStr"/>
-      <c r="S83" s="2" t="n">
-        <v>0</v>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T83" s="2" t="inlineStr"/>
     </row>
@@ -4887,8 +5079,10 @@
       <c r="P84" s="2" t="inlineStr"/>
       <c r="Q84" s="2" t="inlineStr"/>
       <c r="R84" s="2" t="inlineStr"/>
-      <c r="S84" s="2" t="n">
-        <v>0</v>
+      <c r="S84" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T84" s="2" t="inlineStr"/>
     </row>
@@ -4939,8 +5133,10 @@
       <c r="P85" s="2" t="inlineStr"/>
       <c r="Q85" s="2" t="inlineStr"/>
       <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="n">
-        <v>0</v>
+      <c r="S85" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T85" s="2" t="inlineStr"/>
     </row>
@@ -4995,8 +5191,10 @@
       <c r="P86" s="2" t="inlineStr"/>
       <c r="Q86" s="2" t="inlineStr"/>
       <c r="R86" s="2" t="inlineStr"/>
-      <c r="S86" s="2" t="n">
-        <v>0</v>
+      <c r="S86" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T86" s="2" t="inlineStr"/>
     </row>
@@ -5051,8 +5249,10 @@
       <c r="P87" s="2" t="inlineStr"/>
       <c r="Q87" s="2" t="inlineStr"/>
       <c r="R87" s="2" t="inlineStr"/>
-      <c r="S87" s="2" t="n">
-        <v>0</v>
+      <c r="S87" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T87" s="2" t="inlineStr"/>
     </row>
@@ -5099,8 +5299,10 @@
       <c r="P88" s="2" t="inlineStr"/>
       <c r="Q88" s="2" t="inlineStr"/>
       <c r="R88" s="2" t="inlineStr"/>
-      <c r="S88" s="2" t="n">
-        <v>0</v>
+      <c r="S88" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T88" s="2" t="inlineStr"/>
     </row>
@@ -5151,8 +5353,10 @@
       <c r="P89" s="2" t="inlineStr"/>
       <c r="Q89" s="2" t="inlineStr"/>
       <c r="R89" s="2" t="inlineStr"/>
-      <c r="S89" s="2" t="n">
-        <v>0</v>
+      <c r="S89" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T89" s="2" t="inlineStr"/>
     </row>
@@ -5207,8 +5411,10 @@
       <c r="P90" s="2" t="inlineStr"/>
       <c r="Q90" s="2" t="inlineStr"/>
       <c r="R90" s="2" t="inlineStr"/>
-      <c r="S90" s="2" t="n">
-        <v>0</v>
+      <c r="S90" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T90" s="2" t="inlineStr"/>
     </row>
@@ -5263,8 +5469,10 @@
       <c r="P91" s="2" t="inlineStr"/>
       <c r="Q91" s="2" t="inlineStr"/>
       <c r="R91" s="2" t="inlineStr"/>
-      <c r="S91" s="2" t="n">
-        <v>0</v>
+      <c r="S91" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T91" s="2" t="inlineStr"/>
     </row>
@@ -5315,8 +5523,10 @@
       <c r="P92" s="2" t="inlineStr"/>
       <c r="Q92" s="2" t="inlineStr"/>
       <c r="R92" s="2" t="inlineStr"/>
-      <c r="S92" s="2" t="n">
-        <v>0</v>
+      <c r="S92" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T92" s="2" t="inlineStr"/>
     </row>
@@ -5367,8 +5577,10 @@
       <c r="P93" s="2" t="inlineStr"/>
       <c r="Q93" s="2" t="inlineStr"/>
       <c r="R93" s="2" t="inlineStr"/>
-      <c r="S93" s="2" t="n">
-        <v>0</v>
+      <c r="S93" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T93" s="2" t="inlineStr"/>
     </row>
@@ -5415,8 +5627,10 @@
       <c r="P94" s="2" t="inlineStr"/>
       <c r="Q94" s="2" t="inlineStr"/>
       <c r="R94" s="2" t="inlineStr"/>
-      <c r="S94" s="2" t="n">
-        <v>0</v>
+      <c r="S94" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T94" s="2" t="inlineStr"/>
     </row>
@@ -5467,8 +5681,10 @@
       <c r="P95" s="2" t="inlineStr"/>
       <c r="Q95" s="2" t="inlineStr"/>
       <c r="R95" s="2" t="inlineStr"/>
-      <c r="S95" s="2" t="n">
-        <v>0</v>
+      <c r="S95" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T95" s="2" t="inlineStr"/>
     </row>
@@ -5519,8 +5735,10 @@
       <c r="P96" s="2" t="inlineStr"/>
       <c r="Q96" s="2" t="inlineStr"/>
       <c r="R96" s="2" t="inlineStr"/>
-      <c r="S96" s="2" t="n">
-        <v>0</v>
+      <c r="S96" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T96" s="2" t="inlineStr"/>
     </row>
@@ -5579,8 +5797,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S97" s="2" t="n">
-        <v>0</v>
+      <c r="S97" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T97" s="2" t="inlineStr"/>
     </row>
@@ -5635,8 +5855,10 @@
       <c r="P98" s="2" t="inlineStr"/>
       <c r="Q98" s="2" t="inlineStr"/>
       <c r="R98" s="2" t="inlineStr"/>
-      <c r="S98" s="2" t="n">
-        <v>0</v>
+      <c r="S98" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T98" s="2" t="inlineStr"/>
     </row>
@@ -5688,8 +5910,10 @@
       <c r="P99" s="2" t="inlineStr"/>
       <c r="Q99" s="2" t="inlineStr"/>
       <c r="R99" s="2" t="inlineStr"/>
-      <c r="S99" s="2" t="n">
-        <v>0</v>
+      <c r="S99" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T99" s="2" t="inlineStr"/>
     </row>
@@ -5736,8 +5960,10 @@
       <c r="P100" s="2" t="inlineStr"/>
       <c r="Q100" s="2" t="inlineStr"/>
       <c r="R100" s="2" t="inlineStr"/>
-      <c r="S100" s="2" t="n">
-        <v>0</v>
+      <c r="S100" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T100" s="2" t="inlineStr"/>
     </row>
@@ -5788,8 +6014,10 @@
       <c r="P101" s="2" t="inlineStr"/>
       <c r="Q101" s="2" t="inlineStr"/>
       <c r="R101" s="2" t="inlineStr"/>
-      <c r="S101" s="2" t="n">
-        <v>0</v>
+      <c r="S101" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T101" s="2" t="inlineStr"/>
     </row>
@@ -5848,8 +6076,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S102" s="2" t="n">
-        <v>0</v>
+      <c r="S102" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T102" s="2" t="inlineStr"/>
     </row>
@@ -5904,8 +6134,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S103" s="2" t="n">
-        <v>0</v>
+      <c r="S103" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T103" s="2" t="inlineStr"/>
     </row>
@@ -5960,8 +6192,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S104" s="2" t="n">
-        <v>0</v>
+      <c r="S104" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T104" s="2" t="inlineStr"/>
     </row>
@@ -6016,8 +6250,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S105" s="2" t="n">
-        <v>0</v>
+      <c r="S105" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T105" s="2" t="inlineStr"/>
     </row>
@@ -6068,8 +6304,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S106" s="2" t="n">
-        <v>0</v>
+      <c r="S106" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T106" s="2" t="inlineStr"/>
     </row>
@@ -6120,8 +6358,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S107" s="2" t="n">
-        <v>0</v>
+      <c r="S107" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T107" s="2" t="inlineStr"/>
     </row>
@@ -6172,8 +6412,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S108" s="2" t="n">
-        <v>0</v>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T108" s="2" t="inlineStr"/>
     </row>
@@ -6224,8 +6466,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S109" s="2" t="n">
-        <v>0</v>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T109" s="2" t="inlineStr"/>
     </row>
@@ -6276,8 +6520,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S110" s="2" t="n">
-        <v>0</v>
+      <c r="S110" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T110" s="2" t="inlineStr"/>
     </row>
@@ -6328,8 +6574,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S111" s="2" t="n">
-        <v>0</v>
+      <c r="S111" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T111" s="2" t="inlineStr"/>
     </row>
@@ -6380,8 +6628,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S112" s="2" t="n">
-        <v>0</v>
+      <c r="S112" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T112" s="2" t="inlineStr"/>
     </row>
@@ -6432,8 +6682,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S113" s="2" t="n">
-        <v>0</v>
+      <c r="S113" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T113" s="2" t="inlineStr"/>
     </row>
@@ -6488,8 +6740,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S114" s="2" t="n">
-        <v>0</v>
+      <c r="S114" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T114" s="2" t="inlineStr"/>
     </row>
@@ -6548,8 +6802,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S115" s="2" t="n">
-        <v>0</v>
+      <c r="S115" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T115" s="2" t="inlineStr"/>
     </row>
@@ -6604,8 +6860,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S116" s="2" t="n">
-        <v>0</v>
+      <c r="S116" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T116" s="2" t="inlineStr"/>
     </row>
@@ -6634,7 +6892,11 @@
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>A mental process is something that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+        </is>
+      </c>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr">
         <is>
@@ -6651,9 +6913,15 @@
       <c r="O117" s="2" t="inlineStr"/>
       <c r="P117" s="2" t="inlineStr"/>
       <c r="Q117" s="2" t="inlineStr"/>
-      <c r="R117" s="2" t="inlineStr"/>
-      <c r="S117" s="2" t="n">
-        <v>0</v>
+      <c r="R117" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S117" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T117" s="2" t="inlineStr"/>
     </row>
@@ -6704,8 +6972,10 @@
       <c r="P118" s="2" t="inlineStr"/>
       <c r="Q118" s="2" t="inlineStr"/>
       <c r="R118" s="2" t="inlineStr"/>
-      <c r="S118" s="2" t="n">
-        <v>0</v>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T118" s="2" t="inlineStr"/>
     </row>
@@ -6752,8 +7022,10 @@
       <c r="P119" s="2" t="inlineStr"/>
       <c r="Q119" s="2" t="inlineStr"/>
       <c r="R119" s="2" t="inlineStr"/>
-      <c r="S119" s="2" t="n">
-        <v>0</v>
+      <c r="S119" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T119" s="2" t="inlineStr"/>
     </row>
@@ -6816,8 +7088,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S120" s="2" t="n">
-        <v>0</v>
+      <c r="S120" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T120" s="2" t="inlineStr"/>
     </row>
@@ -6876,8 +7150,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S121" s="2" t="n">
-        <v>0</v>
+      <c r="S121" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T121" s="2" t="inlineStr"/>
     </row>
@@ -6924,8 +7200,10 @@
       <c r="P122" s="2" t="inlineStr"/>
       <c r="Q122" s="2" t="inlineStr"/>
       <c r="R122" s="2" t="inlineStr"/>
-      <c r="S122" s="2" t="n">
-        <v>0</v>
+      <c r="S122" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T122" s="2" t="inlineStr"/>
     </row>
@@ -6980,8 +7258,10 @@
       <c r="P123" s="2" t="inlineStr"/>
       <c r="Q123" s="2" t="inlineStr"/>
       <c r="R123" s="2" t="inlineStr"/>
-      <c r="S123" s="2" t="n">
-        <v>0</v>
+      <c r="S123" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T123" s="2" t="inlineStr"/>
     </row>
@@ -7036,8 +7316,10 @@
       <c r="P124" s="2" t="inlineStr"/>
       <c r="Q124" s="2" t="inlineStr"/>
       <c r="R124" s="2" t="inlineStr"/>
-      <c r="S124" s="2" t="n">
-        <v>0</v>
+      <c r="S124" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T124" s="2" t="inlineStr"/>
     </row>
@@ -7084,8 +7366,10 @@
       <c r="P125" s="2" t="inlineStr"/>
       <c r="Q125" s="2" t="inlineStr"/>
       <c r="R125" s="2" t="inlineStr"/>
-      <c r="S125" s="2" t="n">
-        <v>0</v>
+      <c r="S125" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T125" s="2" t="inlineStr"/>
     </row>
@@ -7136,8 +7420,10 @@
       <c r="P126" s="2" t="inlineStr"/>
       <c r="Q126" s="2" t="inlineStr"/>
       <c r="R126" s="2" t="inlineStr"/>
-      <c r="S126" s="2" t="n">
-        <v>0</v>
+      <c r="S126" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T126" s="2" t="inlineStr"/>
     </row>
@@ -7188,8 +7474,10 @@
       <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr"/>
       <c r="R127" s="2" t="inlineStr"/>
-      <c r="S127" s="2" t="n">
-        <v>0</v>
+      <c r="S127" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T127" s="2" t="inlineStr"/>
     </row>
@@ -7240,8 +7528,10 @@
       <c r="P128" s="2" t="inlineStr"/>
       <c r="Q128" s="2" t="inlineStr"/>
       <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="n">
-        <v>0</v>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T128" s="2" t="inlineStr"/>
     </row>
@@ -7292,8 +7582,10 @@
       <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr"/>
       <c r="R129" s="2" t="inlineStr"/>
-      <c r="S129" s="2" t="n">
-        <v>0</v>
+      <c r="S129" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T129" s="2" t="inlineStr"/>
     </row>
@@ -7352,8 +7644,10 @@
       <c r="P130" s="2" t="inlineStr"/>
       <c r="Q130" s="2" t="inlineStr"/>
       <c r="R130" s="2" t="inlineStr"/>
-      <c r="S130" s="2" t="n">
-        <v>0</v>
+      <c r="S130" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T130" s="2" t="inlineStr"/>
     </row>
@@ -7404,8 +7698,10 @@
       <c r="P131" s="2" t="inlineStr"/>
       <c r="Q131" s="2" t="inlineStr"/>
       <c r="R131" s="2" t="inlineStr"/>
-      <c r="S131" s="2" t="n">
-        <v>0</v>
+      <c r="S131" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T131" s="2" t="inlineStr"/>
     </row>
@@ -7456,8 +7752,10 @@
       <c r="P132" s="2" t="inlineStr"/>
       <c r="Q132" s="2" t="inlineStr"/>
       <c r="R132" s="2" t="inlineStr"/>
-      <c r="S132" s="2" t="n">
-        <v>0</v>
+      <c r="S132" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T132" s="2" t="inlineStr"/>
     </row>
@@ -7508,8 +7806,10 @@
       <c r="P133" s="2" t="inlineStr"/>
       <c r="Q133" s="2" t="inlineStr"/>
       <c r="R133" s="2" t="inlineStr"/>
-      <c r="S133" s="2" t="n">
-        <v>0</v>
+      <c r="S133" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T133" s="2" t="inlineStr"/>
     </row>
@@ -7556,8 +7856,10 @@
       <c r="P134" s="2" t="inlineStr"/>
       <c r="Q134" s="2" t="inlineStr"/>
       <c r="R134" s="2" t="inlineStr"/>
-      <c r="S134" s="2" t="n">
-        <v>0</v>
+      <c r="S134" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T134" s="2" t="inlineStr"/>
     </row>
@@ -7608,8 +7910,10 @@
       <c r="P135" s="2" t="inlineStr"/>
       <c r="Q135" s="2" t="inlineStr"/>
       <c r="R135" s="2" t="inlineStr"/>
-      <c r="S135" s="2" t="n">
-        <v>0</v>
+      <c r="S135" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T135" s="2" t="inlineStr"/>
     </row>
@@ -7664,8 +7968,10 @@
       <c r="P136" s="2" t="inlineStr"/>
       <c r="Q136" s="2" t="inlineStr"/>
       <c r="R136" s="2" t="inlineStr"/>
-      <c r="S136" s="2" t="n">
-        <v>0</v>
+      <c r="S136" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T136" s="2" t="inlineStr"/>
     </row>
@@ -7716,8 +8022,10 @@
       <c r="P137" s="2" t="inlineStr"/>
       <c r="Q137" s="2" t="inlineStr"/>
       <c r="R137" s="2" t="inlineStr"/>
-      <c r="S137" s="2" t="n">
-        <v>0</v>
+      <c r="S137" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T137" s="2" t="inlineStr"/>
     </row>
@@ -7772,8 +8080,10 @@
       <c r="P138" s="2" t="inlineStr"/>
       <c r="Q138" s="2" t="inlineStr"/>
       <c r="R138" s="2" t="inlineStr"/>
-      <c r="S138" s="2" t="n">
-        <v>0</v>
+      <c r="S138" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T138" s="2" t="inlineStr"/>
     </row>
@@ -7824,8 +8134,10 @@
       <c r="P139" s="2" t="inlineStr"/>
       <c r="Q139" s="2" t="inlineStr"/>
       <c r="R139" s="2" t="inlineStr"/>
-      <c r="S139" s="2" t="n">
-        <v>0</v>
+      <c r="S139" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T139" s="2" t="inlineStr"/>
     </row>
@@ -7876,8 +8188,10 @@
       <c r="P140" s="2" t="inlineStr"/>
       <c r="Q140" s="2" t="inlineStr"/>
       <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="n">
-        <v>0</v>
+      <c r="S140" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T140" s="2" t="inlineStr"/>
     </row>
@@ -7936,8 +8250,10 @@
       <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr"/>
       <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="n">
-        <v>0</v>
+      <c r="S141" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T141" s="2" t="inlineStr"/>
     </row>
@@ -7988,8 +8304,10 @@
       <c r="P142" s="2" t="inlineStr"/>
       <c r="Q142" s="2" t="inlineStr"/>
       <c r="R142" s="2" t="inlineStr"/>
-      <c r="S142" s="2" t="n">
-        <v>0</v>
+      <c r="S142" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T142" s="2" t="inlineStr"/>
     </row>
@@ -8040,8 +8358,10 @@
       <c r="P143" s="2" t="inlineStr"/>
       <c r="Q143" s="2" t="inlineStr"/>
       <c r="R143" s="2" t="inlineStr"/>
-      <c r="S143" s="2" t="n">
-        <v>0</v>
+      <c r="S143" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T143" s="2" t="inlineStr"/>
     </row>
@@ -8096,8 +8416,10 @@
       <c r="P144" s="2" t="inlineStr"/>
       <c r="Q144" s="2" t="inlineStr"/>
       <c r="R144" s="2" t="inlineStr"/>
-      <c r="S144" s="2" t="n">
-        <v>0</v>
+      <c r="S144" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T144" s="2" t="inlineStr"/>
     </row>
@@ -8148,8 +8470,10 @@
       <c r="P145" s="2" t="inlineStr"/>
       <c r="Q145" s="2" t="inlineStr"/>
       <c r="R145" s="2" t="inlineStr"/>
-      <c r="S145" s="2" t="n">
-        <v>0</v>
+      <c r="S145" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T145" s="2" t="inlineStr"/>
     </row>
@@ -8200,8 +8524,10 @@
       <c r="P146" s="2" t="inlineStr"/>
       <c r="Q146" s="2" t="inlineStr"/>
       <c r="R146" s="2" t="inlineStr"/>
-      <c r="S146" s="2" t="n">
-        <v>0</v>
+      <c r="S146" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T146" s="2" t="inlineStr"/>
     </row>
@@ -8252,8 +8578,10 @@
       <c r="P147" s="2" t="inlineStr"/>
       <c r="Q147" s="2" t="inlineStr"/>
       <c r="R147" s="2" t="inlineStr"/>
-      <c r="S147" s="2" t="n">
-        <v>0</v>
+      <c r="S147" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T147" s="2" t="inlineStr"/>
     </row>
@@ -8308,8 +8636,10 @@
       <c r="P148" s="2" t="inlineStr"/>
       <c r="Q148" s="2" t="inlineStr"/>
       <c r="R148" s="2" t="inlineStr"/>
-      <c r="S148" s="2" t="n">
-        <v>0</v>
+      <c r="S148" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T148" s="2" t="inlineStr"/>
     </row>
@@ -8360,8 +8690,10 @@
       <c r="P149" s="2" t="inlineStr"/>
       <c r="Q149" s="2" t="inlineStr"/>
       <c r="R149" s="2" t="inlineStr"/>
-      <c r="S149" s="2" t="n">
-        <v>0</v>
+      <c r="S149" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T149" s="2" t="inlineStr"/>
     </row>
@@ -8412,8 +8744,10 @@
       <c r="P150" s="2" t="inlineStr"/>
       <c r="Q150" s="2" t="inlineStr"/>
       <c r="R150" s="2" t="inlineStr"/>
-      <c r="S150" s="2" t="n">
-        <v>0</v>
+      <c r="S150" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T150" s="2" t="inlineStr"/>
     </row>
@@ -8460,8 +8794,10 @@
       <c r="P151" s="2" t="inlineStr"/>
       <c r="Q151" s="2" t="inlineStr"/>
       <c r="R151" s="2" t="inlineStr"/>
-      <c r="S151" s="2" t="n">
-        <v>0</v>
+      <c r="S151" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T151" s="2" t="inlineStr"/>
     </row>
@@ -8512,8 +8848,10 @@
       <c r="P152" s="2" t="inlineStr"/>
       <c r="Q152" s="2" t="inlineStr"/>
       <c r="R152" s="2" t="inlineStr"/>
-      <c r="S152" s="2" t="n">
-        <v>0</v>
+      <c r="S152" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T152" s="2" t="inlineStr"/>
     </row>
@@ -8568,8 +8906,10 @@
       <c r="P153" s="2" t="inlineStr"/>
       <c r="Q153" s="2" t="inlineStr"/>
       <c r="R153" s="2" t="inlineStr"/>
-      <c r="S153" s="2" t="n">
-        <v>0</v>
+      <c r="S153" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T153" s="2" t="inlineStr"/>
     </row>
@@ -8624,8 +8964,10 @@
       <c r="P154" s="2" t="inlineStr"/>
       <c r="Q154" s="2" t="inlineStr"/>
       <c r="R154" s="2" t="inlineStr"/>
-      <c r="S154" s="2" t="n">
-        <v>0</v>
+      <c r="S154" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T154" s="2" t="inlineStr"/>
     </row>
@@ -8684,8 +9026,10 @@
       <c r="P155" s="2" t="inlineStr"/>
       <c r="Q155" s="2" t="inlineStr"/>
       <c r="R155" s="2" t="inlineStr"/>
-      <c r="S155" s="2" t="n">
-        <v>0</v>
+      <c r="S155" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T155" s="2" t="inlineStr"/>
     </row>
@@ -8740,8 +9084,10 @@
       <c r="P156" s="2" t="inlineStr"/>
       <c r="Q156" s="2" t="inlineStr"/>
       <c r="R156" s="2" t="inlineStr"/>
-      <c r="S156" s="2" t="n">
-        <v>0</v>
+      <c r="S156" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T156" s="2" t="inlineStr"/>
     </row>
@@ -8796,8 +9142,10 @@
       <c r="P157" s="2" t="inlineStr"/>
       <c r="Q157" s="2" t="inlineStr"/>
       <c r="R157" s="2" t="inlineStr"/>
-      <c r="S157" s="2" t="n">
-        <v>0</v>
+      <c r="S157" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T157" s="2" t="inlineStr"/>
     </row>
@@ -8848,8 +9196,10 @@
       <c r="P158" s="2" t="inlineStr"/>
       <c r="Q158" s="2" t="inlineStr"/>
       <c r="R158" s="2" t="inlineStr"/>
-      <c r="S158" s="2" t="n">
-        <v>0</v>
+      <c r="S158" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T158" s="2" t="inlineStr"/>
     </row>
@@ -8904,8 +9254,10 @@
       <c r="P159" s="2" t="inlineStr"/>
       <c r="Q159" s="2" t="inlineStr"/>
       <c r="R159" s="2" t="inlineStr"/>
-      <c r="S159" s="2" t="n">
-        <v>0</v>
+      <c r="S159" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T159" s="2" t="inlineStr"/>
     </row>
@@ -8956,8 +9308,10 @@
       <c r="P160" s="2" t="inlineStr"/>
       <c r="Q160" s="2" t="inlineStr"/>
       <c r="R160" s="2" t="inlineStr"/>
-      <c r="S160" s="2" t="n">
-        <v>0</v>
+      <c r="S160" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T160" s="2" t="inlineStr"/>
     </row>
@@ -9008,8 +9362,10 @@
       <c r="P161" s="2" t="inlineStr"/>
       <c r="Q161" s="2" t="inlineStr"/>
       <c r="R161" s="2" t="inlineStr"/>
-      <c r="S161" s="2" t="n">
-        <v>0</v>
+      <c r="S161" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T161" s="2" t="inlineStr"/>
     </row>
@@ -9064,8 +9420,10 @@
       <c r="P162" s="2" t="inlineStr"/>
       <c r="Q162" s="2" t="inlineStr"/>
       <c r="R162" s="2" t="inlineStr"/>
-      <c r="S162" s="2" t="n">
-        <v>0</v>
+      <c r="S162" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T162" s="2" t="inlineStr"/>
     </row>
@@ -9116,8 +9474,10 @@
       <c r="P163" s="2" t="inlineStr"/>
       <c r="Q163" s="2" t="inlineStr"/>
       <c r="R163" s="2" t="inlineStr"/>
-      <c r="S163" s="2" t="n">
-        <v>0</v>
+      <c r="S163" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T163" s="2" t="inlineStr"/>
     </row>
@@ -9168,8 +9528,10 @@
       <c r="P164" s="2" t="inlineStr"/>
       <c r="Q164" s="2" t="inlineStr"/>
       <c r="R164" s="2" t="inlineStr"/>
-      <c r="S164" s="2" t="n">
-        <v>0</v>
+      <c r="S164" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T164" s="2" t="inlineStr"/>
     </row>
@@ -9224,8 +9586,10 @@
       <c r="P165" s="2" t="inlineStr"/>
       <c r="Q165" s="2" t="inlineStr"/>
       <c r="R165" s="2" t="inlineStr"/>
-      <c r="S165" s="2" t="n">
-        <v>0</v>
+      <c r="S165" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T165" s="2" t="inlineStr"/>
     </row>
@@ -9272,8 +9636,10 @@
       <c r="P166" s="2" t="inlineStr"/>
       <c r="Q166" s="2" t="inlineStr"/>
       <c r="R166" s="2" t="inlineStr"/>
-      <c r="S166" s="2" t="n">
-        <v>0</v>
+      <c r="S166" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T166" s="2" t="inlineStr"/>
     </row>
@@ -9320,8 +9686,10 @@
       <c r="P167" s="2" t="inlineStr"/>
       <c r="Q167" s="2" t="inlineStr"/>
       <c r="R167" s="2" t="inlineStr"/>
-      <c r="S167" s="2" t="n">
-        <v>0</v>
+      <c r="S167" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T167" s="2" t="inlineStr"/>
     </row>
@@ -9372,8 +9740,10 @@
       <c r="P168" s="2" t="inlineStr"/>
       <c r="Q168" s="2" t="inlineStr"/>
       <c r="R168" s="2" t="inlineStr"/>
-      <c r="S168" s="2" t="n">
-        <v>0</v>
+      <c r="S168" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T168" s="2" t="inlineStr"/>
     </row>
@@ -9424,8 +9794,10 @@
       <c r="P169" s="2" t="inlineStr"/>
       <c r="Q169" s="2" t="inlineStr"/>
       <c r="R169" s="2" t="inlineStr"/>
-      <c r="S169" s="2" t="n">
-        <v>0</v>
+      <c r="S169" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T169" s="2" t="inlineStr"/>
     </row>
@@ -9476,8 +9848,10 @@
       <c r="P170" s="2" t="inlineStr"/>
       <c r="Q170" s="2" t="inlineStr"/>
       <c r="R170" s="2" t="inlineStr"/>
-      <c r="S170" s="2" t="n">
-        <v>0</v>
+      <c r="S170" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T170" s="2" t="inlineStr"/>
     </row>
@@ -9528,8 +9902,10 @@
       <c r="P171" s="2" t="inlineStr"/>
       <c r="Q171" s="2" t="inlineStr"/>
       <c r="R171" s="2" t="inlineStr"/>
-      <c r="S171" s="2" t="n">
-        <v>0</v>
+      <c r="S171" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T171" s="2" t="inlineStr"/>
     </row>
@@ -9584,8 +9960,10 @@
       <c r="P172" s="2" t="inlineStr"/>
       <c r="Q172" s="2" t="inlineStr"/>
       <c r="R172" s="2" t="inlineStr"/>
-      <c r="S172" s="2" t="n">
-        <v>0</v>
+      <c r="S172" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T172" s="2" t="inlineStr"/>
     </row>
@@ -9640,8 +10018,10 @@
       <c r="P173" s="2" t="inlineStr"/>
       <c r="Q173" s="2" t="inlineStr"/>
       <c r="R173" s="2" t="inlineStr"/>
-      <c r="S173" s="2" t="n">
-        <v>0</v>
+      <c r="S173" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T173" s="2" t="inlineStr"/>
     </row>
@@ -9696,8 +10076,10 @@
       <c r="P174" s="2" t="inlineStr"/>
       <c r="Q174" s="2" t="inlineStr"/>
       <c r="R174" s="2" t="inlineStr"/>
-      <c r="S174" s="2" t="n">
-        <v>0</v>
+      <c r="S174" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T174" s="2" t="inlineStr"/>
     </row>
@@ -9748,8 +10130,10 @@
       <c r="P175" s="2" t="inlineStr"/>
       <c r="Q175" s="2" t="inlineStr"/>
       <c r="R175" s="2" t="inlineStr"/>
-      <c r="S175" s="2" t="n">
-        <v>0</v>
+      <c r="S175" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T175" s="2" t="inlineStr"/>
     </row>
@@ -9800,8 +10184,10 @@
       <c r="P176" s="2" t="inlineStr"/>
       <c r="Q176" s="2" t="inlineStr"/>
       <c r="R176" s="2" t="inlineStr"/>
-      <c r="S176" s="2" t="n">
-        <v>0</v>
+      <c r="S176" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T176" s="2" t="inlineStr"/>
     </row>
@@ -9852,8 +10238,10 @@
       <c r="P177" s="2" t="inlineStr"/>
       <c r="Q177" s="2" t="inlineStr"/>
       <c r="R177" s="2" t="inlineStr"/>
-      <c r="S177" s="2" t="n">
-        <v>0</v>
+      <c r="S177" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T177" s="2" t="inlineStr"/>
     </row>
@@ -9908,8 +10296,10 @@
       <c r="P178" s="2" t="inlineStr"/>
       <c r="Q178" s="2" t="inlineStr"/>
       <c r="R178" s="2" t="inlineStr"/>
-      <c r="S178" s="2" t="n">
-        <v>0</v>
+      <c r="S178" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T178" s="2" t="inlineStr"/>
     </row>
@@ -9964,8 +10354,10 @@
       <c r="P179" s="2" t="inlineStr"/>
       <c r="Q179" s="2" t="inlineStr"/>
       <c r="R179" s="2" t="inlineStr"/>
-      <c r="S179" s="2" t="n">
-        <v>0</v>
+      <c r="S179" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T179" s="2" t="inlineStr"/>
     </row>
@@ -10016,8 +10408,10 @@
       <c r="P180" s="2" t="inlineStr"/>
       <c r="Q180" s="2" t="inlineStr"/>
       <c r="R180" s="2" t="inlineStr"/>
-      <c r="S180" s="2" t="n">
-        <v>0</v>
+      <c r="S180" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T180" s="2" t="inlineStr"/>
     </row>
@@ -10068,8 +10462,10 @@
       <c r="P181" s="2" t="inlineStr"/>
       <c r="Q181" s="2" t="inlineStr"/>
       <c r="R181" s="2" t="inlineStr"/>
-      <c r="S181" s="2" t="n">
-        <v>0</v>
+      <c r="S181" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T181" s="2" t="inlineStr"/>
     </row>
@@ -10120,8 +10516,10 @@
       <c r="P182" s="2" t="inlineStr"/>
       <c r="Q182" s="2" t="inlineStr"/>
       <c r="R182" s="2" t="inlineStr"/>
-      <c r="S182" s="2" t="n">
-        <v>0</v>
+      <c r="S182" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T182" s="2" t="inlineStr"/>
     </row>
@@ -10168,8 +10566,10 @@
       <c r="P183" s="2" t="inlineStr"/>
       <c r="Q183" s="2" t="inlineStr"/>
       <c r="R183" s="2" t="inlineStr"/>
-      <c r="S183" s="2" t="n">
-        <v>0</v>
+      <c r="S183" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T183" s="2" t="inlineStr"/>
     </row>
@@ -10220,8 +10620,10 @@
       <c r="P184" s="2" t="inlineStr"/>
       <c r="Q184" s="2" t="inlineStr"/>
       <c r="R184" s="2" t="inlineStr"/>
-      <c r="S184" s="2" t="n">
-        <v>0</v>
+      <c r="S184" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T184" s="2" t="inlineStr"/>
     </row>
@@ -10272,8 +10674,10 @@
       <c r="P185" s="2" t="inlineStr"/>
       <c r="Q185" s="2" t="inlineStr"/>
       <c r="R185" s="2" t="inlineStr"/>
-      <c r="S185" s="2" t="n">
-        <v>0</v>
+      <c r="S185" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T185" s="2" t="inlineStr"/>
     </row>
@@ -10328,8 +10732,10 @@
       <c r="P186" s="2" t="inlineStr"/>
       <c r="Q186" s="2" t="inlineStr"/>
       <c r="R186" s="2" t="inlineStr"/>
-      <c r="S186" s="2" t="n">
-        <v>0</v>
+      <c r="S186" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T186" s="2" t="inlineStr"/>
     </row>
@@ -10361,7 +10767,11 @@
           <t>BCT6.2 Social comparison</t>
         </is>
       </c>
-      <c r="H187" s="2" t="inlineStr"/>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>social comparison</t>
+        </is>
+      </c>
       <c r="I187" s="2" t="inlineStr"/>
       <c r="J187" s="2" t="inlineStr"/>
       <c r="K187" s="2" t="inlineStr">
@@ -10379,9 +10789,15 @@
       <c r="O187" s="2" t="inlineStr"/>
       <c r="P187" s="2" t="inlineStr"/>
       <c r="Q187" s="2" t="inlineStr"/>
-      <c r="R187" s="2" t="inlineStr"/>
-      <c r="S187" s="2" t="n">
-        <v>0</v>
+      <c r="R187" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S187" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T187" s="2" t="inlineStr"/>
     </row>
@@ -10428,8 +10844,10 @@
       <c r="P188" s="2" t="inlineStr"/>
       <c r="Q188" s="2" t="inlineStr"/>
       <c r="R188" s="2" t="inlineStr"/>
-      <c r="S188" s="2" t="n">
-        <v>0</v>
+      <c r="S188" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T188" s="2" t="inlineStr"/>
     </row>
@@ -10492,8 +10910,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S189" s="2" t="n">
-        <v>0</v>
+      <c r="S189" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T189" s="2" t="inlineStr"/>
     </row>
@@ -10540,8 +10960,10 @@
       <c r="P190" s="2" t="inlineStr"/>
       <c r="Q190" s="2" t="inlineStr"/>
       <c r="R190" s="2" t="inlineStr"/>
-      <c r="S190" s="2" t="n">
-        <v>0</v>
+      <c r="S190" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T190" s="2" t="inlineStr"/>
     </row>
@@ -10588,8 +11010,10 @@
       <c r="P191" s="2" t="inlineStr"/>
       <c r="Q191" s="2" t="inlineStr"/>
       <c r="R191" s="2" t="inlineStr"/>
-      <c r="S191" s="2" t="n">
-        <v>0</v>
+      <c r="S191" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T191" s="2" t="inlineStr"/>
     </row>
@@ -10640,8 +11064,10 @@
       <c r="P192" s="2" t="inlineStr"/>
       <c r="Q192" s="2" t="inlineStr"/>
       <c r="R192" s="2" t="inlineStr"/>
-      <c r="S192" s="2" t="n">
-        <v>0</v>
+      <c r="S192" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T192" s="2" t="inlineStr"/>
     </row>
@@ -10700,8 +11126,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S193" s="2" t="n">
-        <v>0</v>
+      <c r="S193" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T193" s="2" t="inlineStr"/>
     </row>
@@ -10752,8 +11180,10 @@
       <c r="P194" s="2" t="inlineStr"/>
       <c r="Q194" s="2" t="inlineStr"/>
       <c r="R194" s="2" t="inlineStr"/>
-      <c r="S194" s="2" t="n">
-        <v>0</v>
+      <c r="S194" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T194" s="2" t="inlineStr"/>
     </row>
@@ -10804,8 +11234,10 @@
       <c r="P195" s="2" t="inlineStr"/>
       <c r="Q195" s="2" t="inlineStr"/>
       <c r="R195" s="2" t="inlineStr"/>
-      <c r="S195" s="2" t="n">
-        <v>0</v>
+      <c r="S195" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T195" s="2" t="inlineStr"/>
     </row>
@@ -10864,8 +11296,10 @@
       <c r="P196" s="2" t="inlineStr"/>
       <c r="Q196" s="2" t="inlineStr"/>
       <c r="R196" s="2" t="inlineStr"/>
-      <c r="S196" s="2" t="n">
-        <v>0</v>
+      <c r="S196" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T196" s="2" t="inlineStr"/>
     </row>
@@ -10920,8 +11354,10 @@
       <c r="P197" s="2" t="inlineStr"/>
       <c r="Q197" s="2" t="inlineStr"/>
       <c r="R197" s="2" t="inlineStr"/>
-      <c r="S197" s="2" t="n">
-        <v>0</v>
+      <c r="S197" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T197" s="2" t="inlineStr"/>
     </row>
@@ -10972,8 +11408,10 @@
       <c r="P198" s="2" t="inlineStr"/>
       <c r="Q198" s="2" t="inlineStr"/>
       <c r="R198" s="2" t="inlineStr"/>
-      <c r="S198" s="2" t="n">
-        <v>0</v>
+      <c r="S198" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T198" s="2" t="inlineStr"/>
     </row>
@@ -11024,8 +11462,10 @@
       <c r="P199" s="2" t="inlineStr"/>
       <c r="Q199" s="2" t="inlineStr"/>
       <c r="R199" s="2" t="inlineStr"/>
-      <c r="S199" s="2" t="n">
-        <v>0</v>
+      <c r="S199" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T199" s="2" t="inlineStr"/>
     </row>
@@ -11076,8 +11516,10 @@
       <c r="P200" s="2" t="inlineStr"/>
       <c r="Q200" s="2" t="inlineStr"/>
       <c r="R200" s="2" t="inlineStr"/>
-      <c r="S200" s="2" t="n">
-        <v>0</v>
+      <c r="S200" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T200" s="2" t="inlineStr"/>
     </row>
@@ -11128,8 +11570,10 @@
       <c r="P201" s="2" t="inlineStr"/>
       <c r="Q201" s="2" t="inlineStr"/>
       <c r="R201" s="2" t="inlineStr"/>
-      <c r="S201" s="2" t="n">
-        <v>0</v>
+      <c r="S201" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T201" s="2" t="inlineStr"/>
     </row>
@@ -11184,8 +11628,10 @@
       <c r="P202" s="2" t="inlineStr"/>
       <c r="Q202" s="2" t="inlineStr"/>
       <c r="R202" s="2" t="inlineStr"/>
-      <c r="S202" s="2" t="n">
-        <v>0</v>
+      <c r="S202" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T202" s="2" t="inlineStr"/>
     </row>
@@ -11240,8 +11686,10 @@
       <c r="P203" s="2" t="inlineStr"/>
       <c r="Q203" s="2" t="inlineStr"/>
       <c r="R203" s="2" t="inlineStr"/>
-      <c r="S203" s="2" t="n">
-        <v>0</v>
+      <c r="S203" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T203" s="2" t="inlineStr"/>
     </row>
@@ -11296,8 +11744,10 @@
       <c r="P204" s="2" t="inlineStr"/>
       <c r="Q204" s="2" t="inlineStr"/>
       <c r="R204" s="2" t="inlineStr"/>
-      <c r="S204" s="2" t="n">
-        <v>0</v>
+      <c r="S204" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T204" s="2" t="inlineStr"/>
     </row>
@@ -11348,8 +11798,10 @@
       <c r="P205" s="2" t="inlineStr"/>
       <c r="Q205" s="2" t="inlineStr"/>
       <c r="R205" s="2" t="inlineStr"/>
-      <c r="S205" s="2" t="n">
-        <v>0</v>
+      <c r="S205" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T205" s="2" t="inlineStr"/>
     </row>
@@ -11387,7 +11839,11 @@
         </is>
       </c>
       <c r="I206" s="2" t="inlineStr"/>
-      <c r="J206" s="2" t="inlineStr"/>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Provide a reward for consuming low sugar food instead of high sugar food</t>
+        </is>
+      </c>
       <c r="K206" s="2" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
@@ -11403,9 +11859,15 @@
       <c r="O206" s="2" t="inlineStr"/>
       <c r="P206" s="2" t="inlineStr"/>
       <c r="Q206" s="2" t="inlineStr"/>
-      <c r="R206" s="2" t="inlineStr"/>
-      <c r="S206" s="2" t="n">
-        <v>0</v>
+      <c r="R206" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S206" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T206" s="2" t="inlineStr"/>
     </row>
@@ -11427,7 +11889,7 @@
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A provide positive consequence for behaviour BCT where the consequence is provided for approximation to the behaviour, gradually rewarding only performance closer to the behaviour. </t>
+          <t>A provide positive consequence for behaviour BCT where the consequence is provided as the performance gradually gets closer to the behaviour.</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -11443,7 +11905,11 @@
         </is>
       </c>
       <c r="I207" s="2" t="inlineStr"/>
-      <c r="J207" s="2" t="inlineStr"/>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Reward a person who has recently had a stroke who is learning to use cutlery again</t>
+        </is>
+      </c>
       <c r="K207" s="2" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
@@ -11459,9 +11925,15 @@
       <c r="O207" s="2" t="inlineStr"/>
       <c r="P207" s="2" t="inlineStr"/>
       <c r="Q207" s="2" t="inlineStr"/>
-      <c r="R207" s="2" t="inlineStr"/>
-      <c r="S207" s="2" t="n">
-        <v>0</v>
+      <c r="R207" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S207" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T207" s="2" t="inlineStr"/>
     </row>
@@ -11520,8 +11992,10 @@
       <c r="P208" s="2" t="inlineStr"/>
       <c r="Q208" s="2" t="inlineStr"/>
       <c r="R208" s="2" t="inlineStr"/>
-      <c r="S208" s="2" t="n">
-        <v>0</v>
+      <c r="S208" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T208" s="2" t="inlineStr"/>
     </row>
@@ -11543,7 +12017,7 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A provide positive consequence for behaviour BCT where the consequence is provided for performing the behaviour that is the final step of a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
+          <t>A provide positive consequence for behaviour BCT where the consequence is provided for performing the final behaviour in a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -11575,9 +12049,15 @@
       <c r="O209" s="2" t="inlineStr"/>
       <c r="P209" s="2" t="inlineStr"/>
       <c r="Q209" s="2" t="inlineStr"/>
-      <c r="R209" s="2" t="inlineStr"/>
-      <c r="S209" s="2" t="n">
-        <v>0</v>
+      <c r="R209" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S209" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T209" s="2" t="inlineStr"/>
     </row>
@@ -11615,7 +12095,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="inlineStr"/>
-      <c r="J210" s="2" t="inlineStr"/>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>Provide a reward when a person folds their arms or sits on their hands instead of touching their face.</t>
+        </is>
+      </c>
       <c r="K210" s="2" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
@@ -11631,9 +12115,15 @@
       <c r="O210" s="2" t="inlineStr"/>
       <c r="P210" s="2" t="inlineStr"/>
       <c r="Q210" s="2" t="inlineStr"/>
-      <c r="R210" s="2" t="inlineStr"/>
-      <c r="S210" s="2" t="n">
-        <v>0</v>
+      <c r="R210" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S210" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T210" s="2" t="inlineStr"/>
     </row>
@@ -11692,8 +12182,10 @@
       <c r="P211" s="2" t="inlineStr"/>
       <c r="Q211" s="2" t="inlineStr"/>
       <c r="R211" s="2" t="inlineStr"/>
-      <c r="S211" s="2" t="n">
-        <v>0</v>
+      <c r="S211" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T211" s="2" t="inlineStr"/>
     </row>
@@ -11748,8 +12240,10 @@
       <c r="P212" s="2" t="inlineStr"/>
       <c r="Q212" s="2" t="inlineStr"/>
       <c r="R212" s="2" t="inlineStr"/>
-      <c r="S212" s="2" t="n">
-        <v>0</v>
+      <c r="S212" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T212" s="2" t="inlineStr"/>
     </row>
@@ -11800,8 +12294,10 @@
       <c r="P213" s="2" t="inlineStr"/>
       <c r="Q213" s="2" t="inlineStr"/>
       <c r="R213" s="2" t="inlineStr"/>
-      <c r="S213" s="2" t="n">
-        <v>0</v>
+      <c r="S213" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T213" s="2" t="inlineStr"/>
     </row>
@@ -11852,8 +12348,10 @@
       <c r="P214" s="2" t="inlineStr"/>
       <c r="Q214" s="2" t="inlineStr"/>
       <c r="R214" s="2" t="inlineStr"/>
-      <c r="S214" s="2" t="n">
-        <v>0</v>
+      <c r="S214" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T214" s="2" t="inlineStr"/>
     </row>
@@ -11887,7 +12385,7 @@
       </c>
       <c r="H215" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcement</t>
+          <t>material reward</t>
         </is>
       </c>
       <c r="I215" s="2" t="inlineStr"/>
@@ -11907,9 +12405,15 @@
       <c r="O215" s="2" t="inlineStr"/>
       <c r="P215" s="2" t="inlineStr"/>
       <c r="Q215" s="2" t="inlineStr"/>
-      <c r="R215" s="2" t="inlineStr"/>
-      <c r="S215" s="2" t="n">
-        <v>0</v>
+      <c r="R215" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S215" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T215" s="2" t="inlineStr"/>
     </row>
@@ -11960,8 +12464,10 @@
       <c r="P216" s="2" t="inlineStr"/>
       <c r="Q216" s="2" t="inlineStr"/>
       <c r="R216" s="2" t="inlineStr"/>
-      <c r="S216" s="2" t="n">
-        <v>0</v>
+      <c r="S216" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T216" s="2" t="inlineStr"/>
     </row>
@@ -12012,8 +12518,10 @@
       <c r="P217" s="2" t="inlineStr"/>
       <c r="Q217" s="2" t="inlineStr"/>
       <c r="R217" s="2" t="inlineStr"/>
-      <c r="S217" s="2" t="n">
-        <v>0</v>
+      <c r="S217" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T217" s="2" t="inlineStr"/>
     </row>
@@ -12064,8 +12572,10 @@
       <c r="P218" s="2" t="inlineStr"/>
       <c r="Q218" s="2" t="inlineStr"/>
       <c r="R218" s="2" t="inlineStr"/>
-      <c r="S218" s="2" t="n">
-        <v>0</v>
+      <c r="S218" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T218" s="2" t="inlineStr"/>
     </row>
@@ -12116,8 +12626,10 @@
       <c r="P219" s="2" t="inlineStr"/>
       <c r="Q219" s="2" t="inlineStr"/>
       <c r="R219" s="2" t="inlineStr"/>
-      <c r="S219" s="2" t="n">
-        <v>0</v>
+      <c r="S219" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T219" s="2" t="inlineStr"/>
     </row>
@@ -12172,8 +12684,10 @@
       <c r="P220" s="2" t="inlineStr"/>
       <c r="Q220" s="2" t="inlineStr"/>
       <c r="R220" s="2" t="inlineStr"/>
-      <c r="S220" s="2" t="n">
-        <v>0</v>
+      <c r="S220" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T220" s="2" t="inlineStr"/>
     </row>
@@ -12228,8 +12742,10 @@
       <c r="P221" s="2" t="inlineStr"/>
       <c r="Q221" s="2" t="inlineStr"/>
       <c r="R221" s="2" t="inlineStr"/>
-      <c r="S221" s="2" t="n">
-        <v>0</v>
+      <c r="S221" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T221" s="2" t="inlineStr"/>
     </row>
@@ -12263,7 +12779,7 @@
       </c>
       <c r="H222" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcement, social reward</t>
+          <t>social reward</t>
         </is>
       </c>
       <c r="I222" s="2" t="inlineStr">
@@ -12287,9 +12803,15 @@
       <c r="O222" s="2" t="inlineStr"/>
       <c r="P222" s="2" t="inlineStr"/>
       <c r="Q222" s="2" t="inlineStr"/>
-      <c r="R222" s="2" t="inlineStr"/>
-      <c r="S222" s="2" t="n">
-        <v>0</v>
+      <c r="R222" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S222" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T222" s="2" t="inlineStr"/>
     </row>
@@ -12344,8 +12866,10 @@
       <c r="P223" s="2" t="inlineStr"/>
       <c r="Q223" s="2" t="inlineStr"/>
       <c r="R223" s="2" t="inlineStr"/>
-      <c r="S223" s="2" t="n">
-        <v>0</v>
+      <c r="S223" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T223" s="2" t="inlineStr"/>
     </row>
@@ -12400,8 +12924,10 @@
       <c r="P224" s="2" t="inlineStr"/>
       <c r="Q224" s="2" t="inlineStr"/>
       <c r="R224" s="2" t="inlineStr"/>
-      <c r="S224" s="2" t="n">
-        <v>0</v>
+      <c r="S224" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T224" s="2" t="inlineStr"/>
     </row>
@@ -12456,8 +12982,10 @@
       <c r="P225" s="2" t="inlineStr"/>
       <c r="Q225" s="2" t="inlineStr"/>
       <c r="R225" s="2" t="inlineStr"/>
-      <c r="S225" s="2" t="n">
-        <v>0</v>
+      <c r="S225" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T225" s="2" t="inlineStr"/>
     </row>
@@ -12512,8 +13040,10 @@
       <c r="P226" s="2" t="inlineStr"/>
       <c r="Q226" s="2" t="inlineStr"/>
       <c r="R226" s="2" t="inlineStr"/>
-      <c r="S226" s="2" t="n">
-        <v>0</v>
+      <c r="S226" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T226" s="2" t="inlineStr"/>
     </row>
@@ -12564,8 +13094,10 @@
       <c r="P227" s="2" t="inlineStr"/>
       <c r="Q227" s="2" t="inlineStr"/>
       <c r="R227" s="2" t="inlineStr"/>
-      <c r="S227" s="2" t="n">
-        <v>0</v>
+      <c r="S227" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T227" s="2" t="inlineStr"/>
     </row>
@@ -12616,8 +13148,10 @@
       <c r="P228" s="2" t="inlineStr"/>
       <c r="Q228" s="2" t="inlineStr"/>
       <c r="R228" s="2" t="inlineStr"/>
-      <c r="S228" s="2" t="n">
-        <v>0</v>
+      <c r="S228" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T228" s="2" t="inlineStr"/>
     </row>
@@ -12668,8 +13202,10 @@
       <c r="P229" s="2" t="inlineStr"/>
       <c r="Q229" s="2" t="inlineStr"/>
       <c r="R229" s="2" t="inlineStr"/>
-      <c r="S229" s="2" t="n">
-        <v>0</v>
+      <c r="S229" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T229" s="2" t="inlineStr"/>
     </row>
@@ -12720,8 +13256,10 @@
       <c r="P230" s="2" t="inlineStr"/>
       <c r="Q230" s="2" t="inlineStr"/>
       <c r="R230" s="2" t="inlineStr"/>
-      <c r="S230" s="2" t="n">
-        <v>0</v>
+      <c r="S230" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T230" s="2" t="inlineStr"/>
     </row>
@@ -12776,8 +13314,10 @@
       <c r="P231" s="2" t="inlineStr"/>
       <c r="Q231" s="2" t="inlineStr"/>
       <c r="R231" s="2" t="inlineStr"/>
-      <c r="S231" s="2" t="n">
-        <v>0</v>
+      <c r="S231" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T231" s="2" t="inlineStr"/>
     </row>
@@ -12832,8 +13372,10 @@
       <c r="P232" s="2" t="inlineStr"/>
       <c r="Q232" s="2" t="inlineStr"/>
       <c r="R232" s="2" t="inlineStr"/>
-      <c r="S232" s="2" t="n">
-        <v>0</v>
+      <c r="S232" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T232" s="2" t="inlineStr"/>
     </row>
@@ -12888,8 +13430,10 @@
       <c r="P233" s="2" t="inlineStr"/>
       <c r="Q233" s="2" t="inlineStr"/>
       <c r="R233" s="2" t="inlineStr"/>
-      <c r="S233" s="2" t="n">
-        <v>0</v>
+      <c r="S233" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T233" s="2" t="inlineStr"/>
     </row>
@@ -12940,8 +13484,10 @@
       <c r="P234" s="2" t="inlineStr"/>
       <c r="Q234" s="2" t="inlineStr"/>
       <c r="R234" s="2" t="inlineStr"/>
-      <c r="S234" s="2" t="n">
-        <v>0</v>
+      <c r="S234" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T234" s="2" t="inlineStr"/>
     </row>
@@ -12992,8 +13538,10 @@
       <c r="P235" s="2" t="inlineStr"/>
       <c r="Q235" s="2" t="inlineStr"/>
       <c r="R235" s="2" t="inlineStr"/>
-      <c r="S235" s="2" t="n">
-        <v>0</v>
+      <c r="S235" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T235" s="2" t="inlineStr"/>
     </row>
@@ -13044,8 +13592,10 @@
       <c r="P236" s="2" t="inlineStr"/>
       <c r="Q236" s="2" t="inlineStr"/>
       <c r="R236" s="2" t="inlineStr"/>
-      <c r="S236" s="2" t="n">
-        <v>0</v>
+      <c r="S236" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T236" s="2" t="inlineStr"/>
     </row>
@@ -13100,8 +13650,10 @@
       <c r="P237" s="2" t="inlineStr"/>
       <c r="Q237" s="2" t="inlineStr"/>
       <c r="R237" s="2" t="inlineStr"/>
-      <c r="S237" s="2" t="n">
-        <v>0</v>
+      <c r="S237" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T237" s="2" t="inlineStr"/>
     </row>
@@ -13156,8 +13708,10 @@
       <c r="P238" s="2" t="inlineStr"/>
       <c r="Q238" s="2" t="inlineStr"/>
       <c r="R238" s="2" t="inlineStr"/>
-      <c r="S238" s="2" t="n">
-        <v>0</v>
+      <c r="S238" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T238" s="2" t="inlineStr"/>
     </row>
@@ -13216,8 +13770,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S239" s="2" t="n">
-        <v>0</v>
+      <c r="S239" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T239" s="2" t="inlineStr"/>
     </row>
@@ -13280,8 +13836,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S240" s="2" t="n">
-        <v>0</v>
+      <c r="S240" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T240" s="2" t="inlineStr"/>
     </row>
@@ -13340,8 +13898,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S241" s="2" t="n">
-        <v>0</v>
+      <c r="S241" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T241" s="2" t="inlineStr"/>
     </row>
@@ -13400,8 +13960,10 @@
       <c r="P242" s="2" t="inlineStr"/>
       <c r="Q242" s="2" t="inlineStr"/>
       <c r="R242" s="2" t="inlineStr"/>
-      <c r="S242" s="2" t="n">
-        <v>0</v>
+      <c r="S242" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T242" s="2" t="inlineStr"/>
     </row>
@@ -13452,8 +14014,10 @@
       <c r="P243" s="2" t="inlineStr"/>
       <c r="Q243" s="2" t="inlineStr"/>
       <c r="R243" s="2" t="inlineStr"/>
-      <c r="S243" s="2" t="n">
-        <v>0</v>
+      <c r="S243" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T243" s="2" t="inlineStr"/>
     </row>
@@ -13508,8 +14072,10 @@
       <c r="P244" s="2" t="inlineStr"/>
       <c r="Q244" s="2" t="inlineStr"/>
       <c r="R244" s="2" t="inlineStr"/>
-      <c r="S244" s="2" t="n">
-        <v>0</v>
+      <c r="S244" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T244" s="2" t="inlineStr"/>
     </row>
@@ -13568,8 +14134,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S245" s="2" t="n">
-        <v>0</v>
+      <c r="S245" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T245" s="2" t="inlineStr"/>
     </row>
@@ -13616,8 +14184,10 @@
       <c r="P246" s="2" t="inlineStr"/>
       <c r="Q246" s="2" t="inlineStr"/>
       <c r="R246" s="2" t="inlineStr"/>
-      <c r="S246" s="2" t="n">
-        <v>0</v>
+      <c r="S246" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T246" s="2" t="inlineStr"/>
     </row>
@@ -13672,8 +14242,10 @@
       <c r="P247" s="2" t="inlineStr"/>
       <c r="Q247" s="2" t="inlineStr"/>
       <c r="R247" s="2" t="inlineStr"/>
-      <c r="S247" s="2" t="n">
-        <v>0</v>
+      <c r="S247" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T247" s="2" t="inlineStr"/>
     </row>
@@ -13720,8 +14292,10 @@
       <c r="P248" s="2" t="inlineStr"/>
       <c r="Q248" s="2" t="inlineStr"/>
       <c r="R248" s="2" t="inlineStr"/>
-      <c r="S248" s="2" t="n">
-        <v>0</v>
+      <c r="S248" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T248" s="2" t="inlineStr"/>
     </row>
@@ -13768,8 +14342,10 @@
       <c r="P249" s="2" t="inlineStr"/>
       <c r="Q249" s="2" t="inlineStr"/>
       <c r="R249" s="2" t="inlineStr"/>
-      <c r="S249" s="2" t="n">
-        <v>0</v>
+      <c r="S249" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T249" s="2" t="inlineStr"/>
     </row>
@@ -13828,8 +14404,10 @@
       <c r="P250" s="2" t="inlineStr"/>
       <c r="Q250" s="2" t="inlineStr"/>
       <c r="R250" s="2" t="inlineStr"/>
-      <c r="S250" s="2" t="n">
-        <v>0</v>
+      <c r="S250" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T250" s="2" t="inlineStr"/>
     </row>
@@ -13884,8 +14462,10 @@
       <c r="P251" s="2" t="inlineStr"/>
       <c r="Q251" s="2" t="inlineStr"/>
       <c r="R251" s="2" t="inlineStr"/>
-      <c r="S251" s="2" t="n">
-        <v>0</v>
+      <c r="S251" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T251" s="2" t="inlineStr"/>
     </row>
@@ -13936,8 +14516,10 @@
       <c r="P252" s="2" t="inlineStr"/>
       <c r="Q252" s="2" t="inlineStr"/>
       <c r="R252" s="2" t="inlineStr"/>
-      <c r="S252" s="2" t="n">
-        <v>0</v>
+      <c r="S252" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T252" s="2" t="inlineStr"/>
     </row>
@@ -13988,8 +14570,10 @@
       <c r="P253" s="2" t="inlineStr"/>
       <c r="Q253" s="2" t="inlineStr"/>
       <c r="R253" s="2" t="inlineStr"/>
-      <c r="S253" s="2" t="n">
-        <v>0</v>
+      <c r="S253" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T253" s="2" t="inlineStr"/>
     </row>
@@ -14044,8 +14628,10 @@
       <c r="P254" s="2" t="inlineStr"/>
       <c r="Q254" s="2" t="inlineStr"/>
       <c r="R254" s="2" t="inlineStr"/>
-      <c r="S254" s="2" t="n">
-        <v>0</v>
+      <c r="S254" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T254" s="2" t="inlineStr"/>
     </row>
@@ -14100,8 +14686,10 @@
       <c r="P255" s="2" t="inlineStr"/>
       <c r="Q255" s="2" t="inlineStr"/>
       <c r="R255" s="2" t="inlineStr"/>
-      <c r="S255" s="2" t="n">
-        <v>0</v>
+      <c r="S255" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T255" s="2" t="inlineStr"/>
     </row>
@@ -14160,8 +14748,10 @@
       <c r="P256" s="2" t="inlineStr"/>
       <c r="Q256" s="2" t="inlineStr"/>
       <c r="R256" s="2" t="inlineStr"/>
-      <c r="S256" s="2" t="n">
-        <v>0</v>
+      <c r="S256" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T256" s="2" t="inlineStr"/>
     </row>
@@ -14216,8 +14806,10 @@
       <c r="P257" s="2" t="inlineStr"/>
       <c r="Q257" s="2" t="inlineStr"/>
       <c r="R257" s="2" t="inlineStr"/>
-      <c r="S257" s="2" t="n">
-        <v>0</v>
+      <c r="S257" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T257" s="2" t="inlineStr"/>
     </row>
@@ -14268,8 +14860,10 @@
       <c r="P258" s="2" t="inlineStr"/>
       <c r="Q258" s="2" t="inlineStr"/>
       <c r="R258" s="2" t="inlineStr"/>
-      <c r="S258" s="2" t="n">
-        <v>0</v>
+      <c r="S258" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T258" s="2" t="inlineStr"/>
     </row>
@@ -14320,8 +14914,10 @@
       <c r="P259" s="2" t="inlineStr"/>
       <c r="Q259" s="2" t="inlineStr"/>
       <c r="R259" s="2" t="inlineStr"/>
-      <c r="S259" s="2" t="n">
-        <v>0</v>
+      <c r="S259" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T259" s="2" t="inlineStr"/>
     </row>
@@ -14376,8 +14972,10 @@
       <c r="P260" s="2" t="inlineStr"/>
       <c r="Q260" s="2" t="inlineStr"/>
       <c r="R260" s="2" t="inlineStr"/>
-      <c r="S260" s="2" t="n">
-        <v>0</v>
+      <c r="S260" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T260" s="2" t="inlineStr"/>
     </row>
@@ -14432,8 +15030,10 @@
       <c r="P261" s="2" t="inlineStr"/>
       <c r="Q261" s="2" t="inlineStr"/>
       <c r="R261" s="2" t="inlineStr"/>
-      <c r="S261" s="2" t="n">
-        <v>0</v>
+      <c r="S261" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T261" s="2" t="inlineStr"/>
     </row>
@@ -14480,8 +15080,10 @@
       <c r="P262" s="2" t="inlineStr"/>
       <c r="Q262" s="2" t="inlineStr"/>
       <c r="R262" s="2" t="inlineStr"/>
-      <c r="S262" s="2" t="n">
-        <v>0</v>
+      <c r="S262" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T262" s="2" t="inlineStr"/>
     </row>
@@ -14532,8 +15134,10 @@
       <c r="P263" s="2" t="inlineStr"/>
       <c r="Q263" s="2" t="inlineStr"/>
       <c r="R263" s="2" t="inlineStr"/>
-      <c r="S263" s="2" t="n">
-        <v>0</v>
+      <c r="S263" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T263" s="2" t="inlineStr"/>
     </row>
@@ -14588,8 +15192,10 @@
       <c r="P264" s="2" t="inlineStr"/>
       <c r="Q264" s="2" t="inlineStr"/>
       <c r="R264" s="2" t="inlineStr"/>
-      <c r="S264" s="2" t="n">
-        <v>0</v>
+      <c r="S264" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T264" s="2" t="inlineStr"/>
     </row>
@@ -14644,8 +15250,10 @@
       <c r="P265" s="2" t="inlineStr"/>
       <c r="Q265" s="2" t="inlineStr"/>
       <c r="R265" s="2" t="inlineStr"/>
-      <c r="S265" s="2" t="n">
-        <v>0</v>
+      <c r="S265" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T265" s="2" t="inlineStr"/>
     </row>
@@ -14696,8 +15304,10 @@
       <c r="P266" s="2" t="inlineStr"/>
       <c r="Q266" s="2" t="inlineStr"/>
       <c r="R266" s="2" t="inlineStr"/>
-      <c r="S266" s="2" t="n">
-        <v>0</v>
+      <c r="S266" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T266" s="2" t="inlineStr"/>
     </row>
@@ -14752,8 +15362,10 @@
       <c r="P267" s="2" t="inlineStr"/>
       <c r="Q267" s="2" t="inlineStr"/>
       <c r="R267" s="2" t="inlineStr"/>
-      <c r="S267" s="2" t="n">
-        <v>0</v>
+      <c r="S267" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T267" s="2" t="inlineStr"/>
     </row>
@@ -14812,8 +15424,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S268" s="2" t="n">
-        <v>0</v>
+      <c r="S268" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T268" s="2" t="inlineStr"/>
     </row>
@@ -14864,8 +15478,10 @@
       <c r="P269" s="2" t="inlineStr"/>
       <c r="Q269" s="2" t="inlineStr"/>
       <c r="R269" s="2" t="inlineStr"/>
-      <c r="S269" s="2" t="n">
-        <v>0</v>
+      <c r="S269" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T269" s="2" t="inlineStr"/>
     </row>
@@ -14920,8 +15536,10 @@
       <c r="P270" s="2" t="inlineStr"/>
       <c r="Q270" s="2" t="inlineStr"/>
       <c r="R270" s="2" t="inlineStr"/>
-      <c r="S270" s="2" t="n">
-        <v>0</v>
+      <c r="S270" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T270" s="2" t="inlineStr"/>
     </row>
@@ -14980,8 +15598,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S271" s="2" t="n">
-        <v>0</v>
+      <c r="S271" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T271" s="2" t="inlineStr"/>
     </row>
@@ -15032,8 +15652,10 @@
       <c r="P272" s="2" t="inlineStr"/>
       <c r="Q272" s="2" t="inlineStr"/>
       <c r="R272" s="2" t="inlineStr"/>
-      <c r="S272" s="2" t="n">
-        <v>0</v>
+      <c r="S272" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T272" s="2" t="inlineStr"/>
     </row>
@@ -15084,8 +15706,10 @@
       <c r="P273" s="2" t="inlineStr"/>
       <c r="Q273" s="2" t="inlineStr"/>
       <c r="R273" s="2" t="inlineStr"/>
-      <c r="S273" s="2" t="n">
-        <v>0</v>
+      <c r="S273" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T273" s="2" t="inlineStr"/>
     </row>
@@ -15140,8 +15764,10 @@
       <c r="P274" s="2" t="inlineStr"/>
       <c r="Q274" s="2" t="inlineStr"/>
       <c r="R274" s="2" t="inlineStr"/>
-      <c r="S274" s="2" t="n">
-        <v>0</v>
+      <c r="S274" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T274" s="2" t="inlineStr"/>
     </row>
@@ -15192,8 +15818,10 @@
       <c r="P275" s="2" t="inlineStr"/>
       <c r="Q275" s="2" t="inlineStr"/>
       <c r="R275" s="2" t="inlineStr"/>
-      <c r="S275" s="2" t="n">
-        <v>0</v>
+      <c r="S275" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T275" s="2" t="inlineStr"/>
     </row>
@@ -15244,8 +15872,10 @@
       <c r="P276" s="2" t="inlineStr"/>
       <c r="Q276" s="2" t="inlineStr"/>
       <c r="R276" s="2" t="inlineStr"/>
-      <c r="S276" s="2" t="n">
-        <v>0</v>
+      <c r="S276" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T276" s="2" t="inlineStr"/>
     </row>
@@ -15300,8 +15930,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S277" s="2" t="n">
-        <v>0</v>
+      <c r="S277" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T277" s="2" t="inlineStr"/>
     </row>
@@ -15348,8 +15980,10 @@
       <c r="P278" s="2" t="inlineStr"/>
       <c r="Q278" s="2" t="inlineStr"/>
       <c r="R278" s="2" t="inlineStr"/>
-      <c r="S278" s="2" t="n">
-        <v>0</v>
+      <c r="S278" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T278" s="2" t="inlineStr"/>
     </row>
@@ -15408,8 +16042,10 @@
       <c r="P279" s="2" t="inlineStr"/>
       <c r="Q279" s="2" t="inlineStr"/>
       <c r="R279" s="2" t="inlineStr"/>
-      <c r="S279" s="2" t="n">
-        <v>0</v>
+      <c r="S279" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T279" s="2" t="inlineStr"/>
     </row>
@@ -15456,8 +16092,10 @@
       <c r="P280" s="2" t="inlineStr"/>
       <c r="Q280" s="2" t="inlineStr"/>
       <c r="R280" s="2" t="inlineStr"/>
-      <c r="S280" s="2" t="n">
-        <v>0</v>
+      <c r="S280" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T280" s="2" t="inlineStr"/>
     </row>
@@ -15489,7 +16127,11 @@
           <t>BCT4.5 Advise to change behaviour</t>
         </is>
       </c>
-      <c r="H281" s="2" t="inlineStr"/>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>instruct, command</t>
+        </is>
+      </c>
       <c r="I281" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An example of the "Tell to change behaviour BCT" is saying "Do this behaviour" whereas an example of the "suggest to change behaviour BCT" would be saying to someone: "I think you should do this behaviour." </t>
@@ -15511,9 +16153,15 @@
       <c r="O281" s="2" t="inlineStr"/>
       <c r="P281" s="2" t="inlineStr"/>
       <c r="Q281" s="2" t="inlineStr"/>
-      <c r="R281" s="2" t="inlineStr"/>
-      <c r="S281" s="2" t="n">
-        <v>0</v>
+      <c r="R281" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="S281" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T281" s="2" t="inlineStr"/>
     </row>
@@ -15564,8 +16212,10 @@
       <c r="P282" s="2" t="inlineStr"/>
       <c r="Q282" s="2" t="inlineStr"/>
       <c r="R282" s="2" t="inlineStr"/>
-      <c r="S282" s="2" t="n">
-        <v>0</v>
+      <c r="S282" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T282" s="2" t="inlineStr"/>
     </row>
@@ -15624,8 +16274,10 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S283" s="2" t="n">
-        <v>0</v>
+      <c r="S283" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="T283" s="2" t="inlineStr"/>
     </row>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -7484,31 +7484,39 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007187</t>
+          <t>BCIO:007189</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
+          <t>promise aversive consequence for behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
           <t>promise consequence for behaviour BCT</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>behavioural consequence BCT</t>
-        </is>
-      </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that promises a future consequence contingent on performing or not performing the behaviour.</t>
+          <t>A promise consequence for behaviour BCT where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
       <c r="F128" s="2" t="inlineStr"/>
-      <c r="G128" s="2" t="inlineStr"/>
-      <c r="H128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>BCT10.11 Future punishment</t>
+        </is>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>threat</t>
+        </is>
+      </c>
       <c r="I128" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">"promises" here means assuring someone that one will do something or that something will happen.  </t>
+          <t>To qualify as aversive, the consequence should be aversively valued by the person receiving it.</t>
         </is>
       </c>
       <c r="J128" s="2" t="inlineStr"/>
@@ -7527,7 +7535,11 @@
       <c r="O128" s="2" t="inlineStr"/>
       <c r="P128" s="2" t="inlineStr"/>
       <c r="Q128" s="2" t="inlineStr"/>
-      <c r="R128" s="2" t="inlineStr"/>
+      <c r="R128" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S128" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7538,33 +7550,33 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007200</t>
+          <t>BCIO:007195</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
+          <t>promise aversive consequence for outcome of behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
           <t>promise consequence for outcome of behaviour BCT</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>outcome consequence BCT</t>
-        </is>
-      </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An outcome consequence BCT that promises a future consequence contingent on an outcome of performing or not performing the behaviour. </t>
+          <t>A promise consequence for outcome of behaviour BCT where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr"/>
-      <c r="H129" s="2" t="inlineStr"/>
-      <c r="I129" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"promises" here means assuring someone that one will do something or that something will happen.  </t>
-        </is>
-      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>threat</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="inlineStr"/>
       <c r="J129" s="2" t="inlineStr"/>
       <c r="K129" s="2" t="inlineStr">
         <is>
@@ -7581,7 +7593,11 @@
       <c r="O129" s="2" t="inlineStr"/>
       <c r="P129" s="2" t="inlineStr"/>
       <c r="Q129" s="2" t="inlineStr"/>
-      <c r="R129" s="2" t="inlineStr"/>
+      <c r="R129" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S129" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7592,41 +7608,33 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007189</t>
+          <t>BCIO:007191</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for behaviour BCT</t>
+          <t>promise aversive consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>promise consequence for behaviour BCT</t>
+          <t>promise aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>A promise consequence for behaviour BCT where the consequence is negative.</t>
+          <t>A promise aversive consequence for behaviour BCT that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>BCT10.11 Future punishment</t>
-        </is>
-      </c>
+      <c r="G130" s="2" t="inlineStr"/>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>threat</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>To qualify as negative, the consequence should be negatively valued by the person receiving it.</t>
-        </is>
-      </c>
+          <t>threat for situation specific behaviour</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="inlineStr"/>
       <c r="J130" s="2" t="inlineStr"/>
       <c r="K130" s="2" t="inlineStr">
         <is>
@@ -7643,7 +7651,11 @@
       <c r="O130" s="2" t="inlineStr"/>
       <c r="P130" s="2" t="inlineStr"/>
       <c r="Q130" s="2" t="inlineStr"/>
-      <c r="R130" s="2" t="inlineStr"/>
+      <c r="R130" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S130" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7654,22 +7666,22 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007195</t>
+          <t>BCIO:007192</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for outcome of behaviour BCT</t>
+          <t>promise aversive material consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>promise consequence for outcome of behaviour BCT</t>
+          <t>promise aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A promise consequence for outcome of behaviour BCT where the consequence is negative.</t>
+          <t>A promise aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
@@ -7677,7 +7689,7 @@
       <c r="G131" s="2" t="inlineStr"/>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>material threat</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr"/>
@@ -7697,7 +7709,11 @@
       <c r="O131" s="2" t="inlineStr"/>
       <c r="P131" s="2" t="inlineStr"/>
       <c r="Q131" s="2" t="inlineStr"/>
-      <c r="R131" s="2" t="inlineStr"/>
+      <c r="R131" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S131" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7708,32 +7724,28 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007191</t>
+          <t>BCIO:007194</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for situation specific behaviour BCT</t>
+          <t>promise aversive material consequence for outcome of behaviour</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for behaviour BCT</t>
+          <t>promise aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A promise negative consequence for behaviour BCT that promises the consequence will be provided for the behaviour in one situation but not in another.</t>
+          <t>A promise aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr"/>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>threat for situation specific behaviour</t>
-        </is>
-      </c>
+      <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr"/>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr">
@@ -7751,7 +7763,11 @@
       <c r="O132" s="2" t="inlineStr"/>
       <c r="P132" s="2" t="inlineStr"/>
       <c r="Q132" s="2" t="inlineStr"/>
-      <c r="R132" s="2" t="inlineStr"/>
+      <c r="R132" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S132" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7762,22 +7778,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007192</t>
+          <t>BCIO:007193</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>promise negative material consequence for behaviour BCT</t>
+          <t>promise aversive material consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for behaviour BCT</t>
+          <t>promise aversive consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A promise negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A promise aversive consequence for situation specific behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
@@ -7785,7 +7801,7 @@
       <c r="G133" s="2" t="inlineStr"/>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>material threat</t>
+          <t>material threat for situation specific behaviour</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr"/>
@@ -7805,7 +7821,11 @@
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr"/>
       <c r="Q133" s="2" t="inlineStr"/>
-      <c r="R133" s="2" t="inlineStr"/>
+      <c r="R133" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S133" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7816,29 +7836,37 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007194</t>
+          <t>BCIO:007197</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>promise negative material consequence for outcome of behaviour</t>
+          <t>promise aversive social consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for outcome of behaviour BCT</t>
+          <t>promise aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A promise negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A promise aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr"/>
-      <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr"/>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>social threat</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+        </is>
+      </c>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr">
         <is>
@@ -7855,7 +7883,11 @@
       <c r="O134" s="2" t="inlineStr"/>
       <c r="P134" s="2" t="inlineStr"/>
       <c r="Q134" s="2" t="inlineStr"/>
-      <c r="R134" s="2" t="inlineStr"/>
+      <c r="R134" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S134" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7866,33 +7898,33 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007193</t>
+          <t>BCIO:007199</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>promise negative material consequence for situation specific behaviour BCT</t>
+          <t>promise aversive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for situation specific behaviour BCT</t>
+          <t>promise aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A promise negative consequence for situation specific behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t xml:space="preserve">A promise aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>material threat for situation specific behaviour</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="inlineStr"/>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+        </is>
+      </c>
       <c r="J135" s="2" t="inlineStr"/>
       <c r="K135" s="2" t="inlineStr">
         <is>
@@ -7909,7 +7941,11 @@
       <c r="O135" s="2" t="inlineStr"/>
       <c r="P135" s="2" t="inlineStr"/>
       <c r="Q135" s="2" t="inlineStr"/>
-      <c r="R135" s="2" t="inlineStr"/>
+      <c r="R135" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S135" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7920,22 +7956,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007197</t>
+          <t>BCIO:007198</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>promise negative social consequence for behaviour BCT</t>
+          <t>promise aversive social consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for behaviour BCT</t>
+          <t>promise aversive consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A promise negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A promise aversive consequence for situation specific behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -7943,7 +7979,7 @@
       <c r="G136" s="2" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>social threat</t>
+          <t>social threat for situation specific behaviour</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -7967,7 +8003,11 @@
       <c r="O136" s="2" t="inlineStr"/>
       <c r="P136" s="2" t="inlineStr"/>
       <c r="Q136" s="2" t="inlineStr"/>
-      <c r="R136" s="2" t="inlineStr"/>
+      <c r="R136" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S136" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7978,22 +8018,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007199</t>
+          <t>BCIO:007187</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>promise negative social consequence for outcome of behaviour BCT</t>
+          <t>promise consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for outcome of behaviour BCT</t>
+          <t>behavioural consequence BCT</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A promise negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process. </t>
+          <t>A behavioural consequence BCT that promises a future consequence contingent on performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -8002,7 +8042,7 @@
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr">
         <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+          <t xml:space="preserve">"promises" here means assuring someone that one will do something or that something will happen.  </t>
         </is>
       </c>
       <c r="J137" s="2" t="inlineStr"/>
@@ -8032,35 +8072,31 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007198</t>
+          <t>BCIO:007200</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>promise negative social consequence for situation specific behaviour BCT</t>
+          <t>promise consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for situation specific behaviour BCT</t>
+          <t>outcome consequence BCT</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A promise negative consequence for situation specific behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t xml:space="preserve">An outcome consequence BCT that promises a future consequence contingent on an outcome of performing or not performing the behaviour. </t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>social threat for situation specific behaviour</t>
-        </is>
-      </c>
+      <c r="H138" s="2" t="inlineStr"/>
       <c r="I138" s="2" t="inlineStr">
         <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+          <t xml:space="preserve">"promises" here means assuring someone that one will do something or that something will happen.  </t>
         </is>
       </c>
       <c r="J138" s="2" t="inlineStr"/>
@@ -9269,17 +9305,17 @@
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>promise reduced frequency of negative consequence for behaviour BCT</t>
+          <t>promise reduced frequency of aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>promise negative consequence for behaviour BCT</t>
+          <t>promise aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A promise negative consequence for behaviour BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
+          <t>A promise aversive consequence for behaviour BCT that promises to provide the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -9307,7 +9343,11 @@
       <c r="O160" s="2" t="inlineStr"/>
       <c r="P160" s="2" t="inlineStr"/>
       <c r="Q160" s="2" t="inlineStr"/>
-      <c r="R160" s="2" t="inlineStr"/>
+      <c r="R160" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S160" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9323,17 +9363,17 @@
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>promise reduced frequency of negative material consequence for behaviour BCT</t>
+          <t>promise reduced frequency of aversive material consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>promise reduced frequency of negative consequence for behaviour BCT</t>
+          <t>promise reduced frequency of aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A promise reduced frequency of negative consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A promise reduced frequency of aversive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -9361,7 +9401,11 @@
       <c r="O161" s="2" t="inlineStr"/>
       <c r="P161" s="2" t="inlineStr"/>
       <c r="Q161" s="2" t="inlineStr"/>
-      <c r="R161" s="2" t="inlineStr"/>
+      <c r="R161" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S161" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9377,17 +9421,17 @@
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>promise reduced frequency of negative social consequence for behaviour BCT</t>
+          <t>promise reduced frequency of aversive social consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>promise reduced frequency of negative consequence for behaviour BCT</t>
+          <t>promise reduced frequency of aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>A promise reduced frequency of negative consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A promise reduced frequency of aversive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
@@ -9419,7 +9463,11 @@
       <c r="O162" s="2" t="inlineStr"/>
       <c r="P162" s="2" t="inlineStr"/>
       <c r="Q162" s="2" t="inlineStr"/>
-      <c r="R162" s="2" t="inlineStr"/>
+      <c r="R162" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S162" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9596,28 +9644,32 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007188</t>
+          <t>BCIO:007190</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
+          <t>promise to remove aversive consequence for behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
           <t>promise to remove consequence for behaviour BCT</t>
         </is>
       </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>behavioural consequence BCT</t>
-        </is>
-      </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that promises future removal of a consequence contingent on performing or not performing the behaviour.</t>
+          <t>A promise to remove consequence for behaviour BCT where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr"/>
-      <c r="H166" s="2" t="inlineStr"/>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>incentive to remove punishment</t>
+        </is>
+      </c>
       <c r="I166" s="2" t="inlineStr"/>
       <c r="J166" s="2" t="inlineStr"/>
       <c r="K166" s="2" t="inlineStr">
@@ -9635,7 +9687,11 @@
       <c r="O166" s="2" t="inlineStr"/>
       <c r="P166" s="2" t="inlineStr"/>
       <c r="Q166" s="2" t="inlineStr"/>
-      <c r="R166" s="2" t="inlineStr"/>
+      <c r="R166" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S166" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9646,28 +9702,32 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007201</t>
+          <t>BCIO:007196</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
+          <t>promise to remove aversive consequence for outcome of behaviour BCT</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
           <t>promise to remove consequence for outcome of behaviour BCT</t>
         </is>
       </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>outcome consequence BCT</t>
-        </is>
-      </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>An outcome consequence BCT that promises future removal of a consequence contingent on an outcome of performing or not performing the behaviour.</t>
+          <t>A promise to remove consequence for outcome of behaviour BCT where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr"/>
-      <c r="H167" s="2" t="inlineStr"/>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>incentive to remove punishment</t>
+        </is>
+      </c>
       <c r="I167" s="2" t="inlineStr"/>
       <c r="J167" s="2" t="inlineStr"/>
       <c r="K167" s="2" t="inlineStr">
@@ -9685,7 +9745,11 @@
       <c r="O167" s="2" t="inlineStr"/>
       <c r="P167" s="2" t="inlineStr"/>
       <c r="Q167" s="2" t="inlineStr"/>
-      <c r="R167" s="2" t="inlineStr"/>
+      <c r="R167" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S167" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9696,22 +9760,22 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007190</t>
+          <t>BCIO:007231</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative consequence for behaviour BCT</t>
+          <t>promise to remove aversive material consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>promise to remove consequence for behaviour BCT</t>
+          <t>promise to remove aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove consequence for behaviour BCT where the consequence is negative.</t>
+          <t>A promise to remove aversive consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -9719,7 +9783,7 @@
       <c r="G168" s="2" t="inlineStr"/>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>incentive to remove punishment</t>
+          <t>incentive to remove material punishment</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr"/>
@@ -9739,7 +9803,11 @@
       <c r="O168" s="2" t="inlineStr"/>
       <c r="P168" s="2" t="inlineStr"/>
       <c r="Q168" s="2" t="inlineStr"/>
-      <c r="R168" s="2" t="inlineStr"/>
+      <c r="R168" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S168" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9750,22 +9818,22 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007196</t>
+          <t>BCIO:007232</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative consequence for outcome of behaviour BCT</t>
+          <t>promise to remove aversive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>promise to remove consequence for outcome of behaviour BCT</t>
+          <t>promise to remove aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove consequence for outcome of behaviour BCT where the consequence is negative.</t>
+          <t>A promise to remove aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -9773,7 +9841,7 @@
       <c r="G169" s="2" t="inlineStr"/>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>incentive to remove punishment</t>
+          <t>incentive to remove material punishment</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr"/>
@@ -9793,7 +9861,11 @@
       <c r="O169" s="2" t="inlineStr"/>
       <c r="P169" s="2" t="inlineStr"/>
       <c r="Q169" s="2" t="inlineStr"/>
-      <c r="R169" s="2" t="inlineStr"/>
+      <c r="R169" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S169" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9804,22 +9876,22 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007231</t>
+          <t>BCIO:007233</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative material consequence for behaviour BCT</t>
+          <t>promise to remove aversive social consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative consequence for behaviour BCT</t>
+          <t>promise to remove aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove negative consequence for behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>A promise to remove aversive consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
@@ -9827,10 +9899,14 @@
       <c r="G170" s="2" t="inlineStr"/>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>incentive to remove material punishment</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="inlineStr"/>
+          <t>incentive to remove social punishment</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+        </is>
+      </c>
       <c r="J170" s="2" t="inlineStr"/>
       <c r="K170" s="2" t="inlineStr">
         <is>
@@ -9847,7 +9923,11 @@
       <c r="O170" s="2" t="inlineStr"/>
       <c r="P170" s="2" t="inlineStr"/>
       <c r="Q170" s="2" t="inlineStr"/>
-      <c r="R170" s="2" t="inlineStr"/>
+      <c r="R170" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S170" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9858,22 +9938,22 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007232</t>
+          <t>BCIO:007234</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative material consequence for outcome of behaviour BCT</t>
+          <t>promise to remove aversive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative consequence for outcome of behaviour BCT</t>
+          <t>promise to remove aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A promise to remove aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -9881,10 +9961,14 @@
       <c r="G171" s="2" t="inlineStr"/>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>incentive to remove material punishment</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="inlineStr"/>
+          <t>incentive to remove social punishment</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+        </is>
+      </c>
       <c r="J171" s="2" t="inlineStr"/>
       <c r="K171" s="2" t="inlineStr">
         <is>
@@ -9901,7 +9985,11 @@
       <c r="O171" s="2" t="inlineStr"/>
       <c r="P171" s="2" t="inlineStr"/>
       <c r="Q171" s="2" t="inlineStr"/>
-      <c r="R171" s="2" t="inlineStr"/>
+      <c r="R171" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S171" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9912,37 +10000,29 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007233</t>
+          <t>BCIO:007188</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative social consequence for behaviour BCT</t>
+          <t>promise to remove consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative consequence for behaviour BCT</t>
+          <t>behavioural consequence BCT</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove negative consequence for behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process</t>
+          <t>A behavioural consequence BCT that promises future removal of a consequence contingent on performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr"/>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>incentive to remove social punishment</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
-        </is>
-      </c>
+      <c r="H172" s="2" t="inlineStr"/>
+      <c r="I172" s="2" t="inlineStr"/>
       <c r="J172" s="2" t="inlineStr"/>
       <c r="K172" s="2" t="inlineStr">
         <is>
@@ -9970,37 +10050,29 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007234</t>
+          <t>BCIO:007201</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative social consequence for outcome of behaviour BCT</t>
+          <t>promise to remove consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>promise to remove negative consequence for outcome of behaviour BCT</t>
+          <t>outcome consequence BCT</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>A promise to remove negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>An outcome consequence BCT that promises future removal of a consequence contingent on an outcome of performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr"/>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>incentive to remove social punishment</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
-        </is>
-      </c>
+      <c r="H173" s="2" t="inlineStr"/>
+      <c r="I173" s="2" t="inlineStr"/>
       <c r="J173" s="2" t="inlineStr"/>
       <c r="K173" s="2" t="inlineStr">
         <is>
@@ -10854,42 +10926,42 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007026</t>
+          <t>BCIO:007241</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">provide biofeedback BCT </t>
+          <t>provide aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>provide feedback BCT</t>
+          <t>provide consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>A provide feedback BCT that provides information about the functioning or state of the person's body, based on information collected by an external monitoring device.</t>
+          <t>A provide consequence for behaviour BCT where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
       <c r="G189" s="2" t="inlineStr">
         <is>
-          <t>BCT2.6 Biofeedback</t>
+          <t>BCT14.2 Punishment</t>
         </is>
       </c>
       <c r="H189" s="2" t="inlineStr">
         <is>
-          <t>biofeedback</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="inlineStr"/>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>Using a pedometer to keep track of number of steps taken in a day.</t>
-        </is>
-      </c>
+          <t>punishment</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>To qualify as aversive, the consequence should be aversively valued by the person receiving it.</t>
+        </is>
+      </c>
+      <c r="J189" s="2" t="inlineStr"/>
       <c r="K189" s="2" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
@@ -10920,29 +10992,37 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007240</t>
+          <t>BCIO:007246</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>provide consequence for behaviour BCT</t>
+          <t>provide aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence BCT</t>
+          <t>provide consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that provides a consequence for the behaviour.</t>
+          <t>A provide consequence for outcome of behaviour BCT where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr"/>
-      <c r="H190" s="2" t="inlineStr"/>
-      <c r="I190" s="2" t="inlineStr"/>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>punishment</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>To qualify as aversive, the consequence should be aversively valued by the person receiving it.</t>
+        </is>
+      </c>
       <c r="J190" s="2" t="inlineStr"/>
       <c r="K190" s="2" t="inlineStr">
         <is>
@@ -10959,7 +11039,11 @@
       <c r="O190" s="2" t="inlineStr"/>
       <c r="P190" s="2" t="inlineStr"/>
       <c r="Q190" s="2" t="inlineStr"/>
-      <c r="R190" s="2" t="inlineStr"/>
+      <c r="R190" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S190" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10970,28 +11054,32 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007250</t>
+          <t>BCIO:007242</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>provide consequence for outcome of behaviour BCT</t>
+          <t>provide aversive consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>outcome consequence BCT</t>
+          <t>provide aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>An outcome consequence BCT that provides a consequence for an outcome resulting from performing or not performing the behaviour.</t>
+          <t>A provide aversive consequence for behaviour BCT that provides the consequence for the behaviour in one situation but not in another.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr"/>
-      <c r="H191" s="2" t="inlineStr"/>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>punishment for situation specific behaviour</t>
+        </is>
+      </c>
       <c r="I191" s="2" t="inlineStr"/>
       <c r="J191" s="2" t="inlineStr"/>
       <c r="K191" s="2" t="inlineStr">
@@ -11009,7 +11097,11 @@
       <c r="O191" s="2" t="inlineStr"/>
       <c r="P191" s="2" t="inlineStr"/>
       <c r="Q191" s="2" t="inlineStr"/>
-      <c r="R191" s="2" t="inlineStr"/>
+      <c r="R191" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S191" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11020,32 +11112,32 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007155</t>
+          <t>BCIO:007243</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">provide distraction BCT </t>
+          <t>provide aversive material consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>restructure the physical environment BCT</t>
+          <t>provide aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A restructure the physical environment BCT that organises an alternative focus for attention for the person to avoid internal or external states or events associated with an unwanted behaviour.</t>
+          <t>A provide aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
-      <c r="G192" s="2" t="inlineStr">
-        <is>
-          <t>BCT12.4 Distraction</t>
-        </is>
-      </c>
-      <c r="H192" s="2" t="inlineStr"/>
+      <c r="G192" s="2" t="inlineStr"/>
+      <c r="H192" s="2" t="inlineStr">
+        <is>
+          <t>material punishment</t>
+        </is>
+      </c>
       <c r="I192" s="2" t="inlineStr"/>
       <c r="J192" s="2" t="inlineStr"/>
       <c r="K192" s="2" t="inlineStr">
@@ -11063,7 +11155,11 @@
       <c r="O192" s="2" t="inlineStr"/>
       <c r="P192" s="2" t="inlineStr"/>
       <c r="Q192" s="2" t="inlineStr"/>
-      <c r="R192" s="2" t="inlineStr"/>
+      <c r="R192" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S192" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11074,22 +11170,22 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007022</t>
+          <t>BCIO:007245</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>provide feedback BCT</t>
+          <t>provide aversive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>monitoring BCT</t>
+          <t>provide aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>A monitoring BCT in which feedback about the behaviour is provided.</t>
+          <t>A provide aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -11097,14 +11193,10 @@
       <c r="G193" s="2" t="inlineStr"/>
       <c r="H193" s="2" t="inlineStr">
         <is>
-          <t>feedback</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feedback is provision of data about some aspect of behaviour without an evaluation (positive or negative). Where feedback includes reward or punishment, see behavioural consequence BCT, outcome consequence BCT and their child classes. </t>
-        </is>
-      </c>
+          <t>material punishment</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="inlineStr"/>
       <c r="J193" s="2" t="inlineStr"/>
       <c r="K193" s="2" t="inlineStr">
         <is>
@@ -11136,32 +11228,32 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007023</t>
+          <t>BCIO:007244</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">provide feedback on behaviour BCT </t>
+          <t>provide aversive material consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>provide feedback BCT</t>
+          <t>provide aversive consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A provide feedback BCT that provides information about the person's previous performance of the behaviour.</t>
+          <t>A provide aversive consequence for situation specific behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>BCT2.2 Feedback on behaviour</t>
-        </is>
-      </c>
-      <c r="H194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>material punishment for situation specific behaviour</t>
+        </is>
+      </c>
       <c r="I194" s="2" t="inlineStr"/>
       <c r="J194" s="2" t="inlineStr"/>
       <c r="K194" s="2" t="inlineStr">
@@ -11179,7 +11271,11 @@
       <c r="O194" s="2" t="inlineStr"/>
       <c r="P194" s="2" t="inlineStr"/>
       <c r="Q194" s="2" t="inlineStr"/>
-      <c r="R194" s="2" t="inlineStr"/>
+      <c r="R194" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S194" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11190,33 +11286,37 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007027</t>
+          <t>BCIO:007247</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">provide feedback on outcome of behaviour BCT </t>
+          <t>provide aversive social consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>provide feedback BCT</t>
+          <t>provide aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A provide feedback BCT that provides information about an outcome of the person's previous performance of the behaviour.</t>
+          <t>A provide aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr"/>
-      <c r="G195" s="2" t="inlineStr">
-        <is>
-          <t>BCT2.7 Feedback on outcome(s) of behaviour</t>
-        </is>
-      </c>
-      <c r="H195" s="2" t="inlineStr"/>
-      <c r="I195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr"/>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>social punishment</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+        </is>
+      </c>
       <c r="J195" s="2" t="inlineStr"/>
       <c r="K195" s="2" t="inlineStr">
         <is>
@@ -11233,7 +11333,11 @@
       <c r="O195" s="2" t="inlineStr"/>
       <c r="P195" s="2" t="inlineStr"/>
       <c r="Q195" s="2" t="inlineStr"/>
-      <c r="R195" s="2" t="inlineStr"/>
+      <c r="R195" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S195" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11244,39 +11348,35 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007241</t>
+          <t>BCIO:007249</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for behaviour BCT</t>
+          <t>provide aversive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>provide consequence for behaviour BCT</t>
+          <t>provide aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A provide consequence for behaviour BCT where the consequence is negative.</t>
+          <t>A provide aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
       <c r="F196" s="2" t="inlineStr"/>
-      <c r="G196" s="2" t="inlineStr">
-        <is>
-          <t>BCT14.2 Punishment</t>
-        </is>
-      </c>
+      <c r="G196" s="2" t="inlineStr"/>
       <c r="H196" s="2" t="inlineStr">
         <is>
-          <t>punishment</t>
+          <t>social punishment</t>
         </is>
       </c>
       <c r="I196" s="2" t="inlineStr">
         <is>
-          <t>To qualify as negative, the consequence should be negatively valued by the person receiving it.</t>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
         </is>
       </c>
       <c r="J196" s="2" t="inlineStr"/>
@@ -11295,7 +11395,11 @@
       <c r="O196" s="2" t="inlineStr"/>
       <c r="P196" s="2" t="inlineStr"/>
       <c r="Q196" s="2" t="inlineStr"/>
-      <c r="R196" s="2" t="inlineStr"/>
+      <c r="R196" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S196" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11306,22 +11410,22 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007246</t>
+          <t>BCIO:007248</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for outcome of behaviour BCT</t>
+          <t>provide aversive social consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>provide consequence for outcome of behaviour BCT</t>
+          <t>provide aversive consequence for situation specific behaviour BCT</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A provide consequence for outcome of behaviour BCT where the consequence is negative.</t>
+          <t>A provide aversive consequence for situation specific behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -11329,12 +11433,12 @@
       <c r="G197" s="2" t="inlineStr"/>
       <c r="H197" s="2" t="inlineStr">
         <is>
-          <t>punishment</t>
+          <t>social punishment for situation specific behaviour</t>
         </is>
       </c>
       <c r="I197" s="2" t="inlineStr">
         <is>
-          <t>To qualify as negative, the consequence should be negatively valued by the person receiving it.</t>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
         </is>
       </c>
       <c r="J197" s="2" t="inlineStr"/>
@@ -11353,7 +11457,11 @@
       <c r="O197" s="2" t="inlineStr"/>
       <c r="P197" s="2" t="inlineStr"/>
       <c r="Q197" s="2" t="inlineStr"/>
-      <c r="R197" s="2" t="inlineStr"/>
+      <c r="R197" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S197" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11364,34 +11472,42 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007242</t>
+          <t>BCIO:007026</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for situation specific behaviour BCT</t>
+          <t xml:space="preserve">provide biofeedback BCT </t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for behaviour BCT</t>
+          <t>provide feedback BCT</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for behaviour BCT that provides the consequence for the behaviour in one situation but not in another.</t>
+          <t>A provide feedback BCT that provides information about the functioning or state of the person's body, based on information collected by an external monitoring device.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
-      <c r="G198" s="2" t="inlineStr"/>
+      <c r="G198" s="2" t="inlineStr">
+        <is>
+          <t>BCT2.6 Biofeedback</t>
+        </is>
+      </c>
       <c r="H198" s="2" t="inlineStr">
         <is>
-          <t>punishment for situation specific behaviour</t>
+          <t>biofeedback</t>
         </is>
       </c>
       <c r="I198" s="2" t="inlineStr"/>
-      <c r="J198" s="2" t="inlineStr"/>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>Using a pedometer to keep track of number of steps taken in a day.</t>
+        </is>
+      </c>
       <c r="K198" s="2" t="inlineStr">
         <is>
           <t>behaviour change technique</t>
@@ -11407,7 +11523,11 @@
       <c r="O198" s="2" t="inlineStr"/>
       <c r="P198" s="2" t="inlineStr"/>
       <c r="Q198" s="2" t="inlineStr"/>
-      <c r="R198" s="2" t="inlineStr"/>
+      <c r="R198" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S198" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11418,32 +11538,28 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007243</t>
+          <t>BCIO:007240</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>provide negative material consequence for behaviour BCT</t>
+          <t>provide consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for behaviour BCT</t>
+          <t>behavioural consequence BCT</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A behavioural consequence BCT that provides a consequence for the behaviour.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr"/>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>material punishment</t>
-        </is>
-      </c>
+      <c r="H199" s="2" t="inlineStr"/>
       <c r="I199" s="2" t="inlineStr"/>
       <c r="J199" s="2" t="inlineStr"/>
       <c r="K199" s="2" t="inlineStr">
@@ -11472,32 +11588,28 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007245</t>
+          <t>BCIO:007250</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>provide negative material consequence for outcome of behaviour BCT</t>
+          <t>provide consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for outcome of behaviour BCT</t>
+          <t>outcome consequence BCT</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>An outcome consequence BCT that provides a consequence for an outcome resulting from performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr"/>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr"/>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>material punishment</t>
-        </is>
-      </c>
+      <c r="H200" s="2" t="inlineStr"/>
       <c r="I200" s="2" t="inlineStr"/>
       <c r="J200" s="2" t="inlineStr"/>
       <c r="K200" s="2" t="inlineStr">
@@ -11526,32 +11638,32 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007244</t>
+          <t>BCIO:007155</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>provide negative material consequence for situation specific behaviour BCT</t>
+          <t xml:space="preserve">provide distraction BCT </t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for situation specific behaviour BCT</t>
+          <t>restructure the physical environment BCT</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequencefor situation specific behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A restructure the physical environment BCT that organises an alternative focus for attention for the person to avoid internal or external states or events associated with an unwanted behaviour.</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
-      <c r="G201" s="2" t="inlineStr"/>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>material punishment for situation specific behaviour</t>
-        </is>
-      </c>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>BCT12.4 Distraction</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr"/>
       <c r="I201" s="2" t="inlineStr"/>
       <c r="J201" s="2" t="inlineStr"/>
       <c r="K201" s="2" t="inlineStr">
@@ -11580,22 +11692,22 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007247</t>
+          <t>BCIO:007022</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>provide negative social consequence for behaviour BCT</t>
+          <t>provide feedback BCT</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for behaviour BCT</t>
+          <t>monitoring BCT</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A monitoring BCT in which feedback about the behaviour is provided.</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -11603,12 +11715,12 @@
       <c r="G202" s="2" t="inlineStr"/>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>social punishment</t>
+          <t>feedback</t>
         </is>
       </c>
       <c r="I202" s="2" t="inlineStr">
         <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+          <t xml:space="preserve">Feedback is provision of data about some aspect of behaviour without an evaluation (positive or negative). Where feedback includes reward or punishment, see behavioural consequence BCT, outcome consequence BCT and their child classes. </t>
         </is>
       </c>
       <c r="J202" s="2" t="inlineStr"/>
@@ -11627,7 +11739,11 @@
       <c r="O202" s="2" t="inlineStr"/>
       <c r="P202" s="2" t="inlineStr"/>
       <c r="Q202" s="2" t="inlineStr"/>
-      <c r="R202" s="2" t="inlineStr"/>
+      <c r="R202" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S202" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11638,37 +11754,33 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007249</t>
+          <t>BCIO:007023</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>provide negative social consequence for outcome of behaviour BCT</t>
+          <t xml:space="preserve">provide feedback on behaviour BCT </t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for outcome of behaviour BCT</t>
+          <t>provide feedback BCT</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A provide feedback BCT that provides information about the person's previous performance of the behaviour.</t>
         </is>
       </c>
       <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
-      <c r="G203" s="2" t="inlineStr"/>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>social punishment</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
-        </is>
-      </c>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t>BCT2.2 Feedback on behaviour</t>
+        </is>
+      </c>
+      <c r="H203" s="2" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr"/>
       <c r="J203" s="2" t="inlineStr"/>
       <c r="K203" s="2" t="inlineStr">
         <is>
@@ -11696,37 +11808,33 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007248</t>
+          <t>BCIO:007027</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>provide negative social consequence for situation specific behaviour BCT</t>
+          <t xml:space="preserve">provide feedback on outcome of behaviour BCT </t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for situation specific behaviour BCT</t>
+          <t>provide feedback BCT</t>
         </is>
       </c>
       <c r="D204" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for situation specific behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A provide feedback BCT that provides information about an outcome of the person's previous performance of the behaviour.</t>
         </is>
       </c>
       <c r="E204" s="2" t="inlineStr"/>
       <c r="F204" s="2" t="inlineStr"/>
-      <c r="G204" s="2" t="inlineStr"/>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>social punishment for situation specific behaviour</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
-        </is>
-      </c>
+      <c r="G204" s="2" t="inlineStr">
+        <is>
+          <t>BCT2.7 Feedback on outcome(s) of behaviour</t>
+        </is>
+      </c>
+      <c r="H204" s="2" t="inlineStr"/>
+      <c r="I204" s="2" t="inlineStr"/>
       <c r="J204" s="2" t="inlineStr"/>
       <c r="K204" s="2" t="inlineStr">
         <is>
@@ -13055,17 +13163,17 @@
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative consequence for behaviour BCT</t>
+          <t>provide reduced frequency of aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for behaviour BCT</t>
+          <t>provide aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
+          <t>A provide aversive consequence for behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
@@ -13093,7 +13201,11 @@
       <c r="O227" s="2" t="inlineStr"/>
       <c r="P227" s="2" t="inlineStr"/>
       <c r="Q227" s="2" t="inlineStr"/>
-      <c r="R227" s="2" t="inlineStr"/>
+      <c r="R227" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S227" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13109,17 +13221,17 @@
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative consequence for outcome of behaviour BCT</t>
+          <t>provide reduced frequency of aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>provide negative consequence for outcome of behaviour BCT</t>
+          <t>provide aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D228" s="2" t="inlineStr">
         <is>
-          <t>A provide negative consequence for outcome of behaviour BCT  that provides the consequence at increasingly less frequent intervals.</t>
+          <t>A provide aversive consequence for outcome of behaviour BCT that provides the consequence at increasingly less frequent intervals.</t>
         </is>
       </c>
       <c r="E228" s="2" t="inlineStr"/>
@@ -13147,7 +13259,11 @@
       <c r="O228" s="2" t="inlineStr"/>
       <c r="P228" s="2" t="inlineStr"/>
       <c r="Q228" s="2" t="inlineStr"/>
-      <c r="R228" s="2" t="inlineStr"/>
+      <c r="R228" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S228" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13163,17 +13279,17 @@
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative material consequence for behaviour BCT</t>
+          <t>provide reduced frequency of aversive material consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative consequence for behaviour BCT</t>
+          <t>provide reduced frequency of aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A provide reduced frequency of aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -13201,7 +13317,11 @@
       <c r="O229" s="2" t="inlineStr"/>
       <c r="P229" s="2" t="inlineStr"/>
       <c r="Q229" s="2" t="inlineStr"/>
-      <c r="R229" s="2" t="inlineStr"/>
+      <c r="R229" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S229" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13217,17 +13337,17 @@
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative material consequence for outcome of behaviour BCT</t>
+          <t>provide reduced frequency of aversive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative consequence for outcome of behaviour BCT</t>
+          <t>provide reduced frequency of aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of negative consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A provide reduced frequency of aversive consequence for outcome of behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
@@ -13255,7 +13375,11 @@
       <c r="O230" s="2" t="inlineStr"/>
       <c r="P230" s="2" t="inlineStr"/>
       <c r="Q230" s="2" t="inlineStr"/>
-      <c r="R230" s="2" t="inlineStr"/>
+      <c r="R230" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S230" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13271,17 +13395,17 @@
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative social consequence for behaviour BCT</t>
+          <t>provide reduced frequency of aversive social consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative consequence for behaviour BCT</t>
+          <t>provide reduced frequency of aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A provide reduced frequency of aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr"/>
@@ -13313,7 +13437,11 @@
       <c r="O231" s="2" t="inlineStr"/>
       <c r="P231" s="2" t="inlineStr"/>
       <c r="Q231" s="2" t="inlineStr"/>
-      <c r="R231" s="2" t="inlineStr"/>
+      <c r="R231" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S231" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -13329,17 +13457,17 @@
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative social consequence for outcome of behaviour BCT</t>
+          <t>provide reduced frequency of aversive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>provide reduced frequency of negative consequence for outcome of behaviour BCT</t>
+          <t>provide reduced frequency of aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D232" s="2" t="inlineStr">
         <is>
-          <t>A provide reduced frequency of negative consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A provide reduced frequency of aversive consequence for outcome of behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E232" s="2" t="inlineStr"/>
@@ -13371,7 +13499,11 @@
       <c r="O232" s="2" t="inlineStr"/>
       <c r="P232" s="2" t="inlineStr"/>
       <c r="Q232" s="2" t="inlineStr"/>
-      <c r="R232" s="2" t="inlineStr"/>
+      <c r="R232" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S232" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14194,37 +14326,41 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050331</t>
+          <t>BCIO:007286</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>remove aversive stimulus BCT</t>
+          <t>remove aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>alter external stimulus BCT</t>
+          <t>remove consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>An alter external stimulus BCT that involves removing an aversive stimulus to bring about behaviour change.</t>
+          <t>A remove consequence for behaviour BCT where the consequence is aversive.</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr"/>
       <c r="F247" s="2" t="inlineStr"/>
       <c r="G247" s="2" t="inlineStr">
         <is>
-          <t>BCT7.5 Remove aversive stimulus</t>
+          <t>BCT14.10 Remove punishment</t>
         </is>
       </c>
       <c r="H247" s="2" t="inlineStr">
         <is>
-          <t>escape learning</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="inlineStr"/>
+          <t>negative reinforcement, remove punishment</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="inlineStr">
+        <is>
+          <t>To qualify as aversive, the consequence should have been aversively valued by the person receiving it.</t>
+        </is>
+      </c>
       <c r="J247" s="2" t="inlineStr"/>
       <c r="K247" s="2" t="inlineStr">
         <is>
@@ -14241,7 +14377,11 @@
       <c r="O247" s="2" t="inlineStr"/>
       <c r="P247" s="2" t="inlineStr"/>
       <c r="Q247" s="2" t="inlineStr"/>
-      <c r="R247" s="2" t="inlineStr"/>
+      <c r="R247" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S247" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14252,29 +14392,37 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007285</t>
+          <t>BCIO:007289</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>remove consequence for behaviour BCT</t>
+          <t>remove aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>behavioural consequence BCT</t>
+          <t>remove consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>A behavioural consequence BCT that removes a previously provided consequence for performing the behaviour.</t>
+          <t>A remove consequence for outcome of behaviour BCT in which the consequence is aversive.</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr"/>
       <c r="F248" s="2" t="inlineStr"/>
       <c r="G248" s="2" t="inlineStr"/>
-      <c r="H248" s="2" t="inlineStr"/>
-      <c r="I248" s="2" t="inlineStr"/>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>negative reinforcement, remove punishment</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="inlineStr">
+        <is>
+          <t>To qualify as aversive, the consequence should have been aversively valued by the person receiving it.</t>
+        </is>
+      </c>
       <c r="J248" s="2" t="inlineStr"/>
       <c r="K248" s="2" t="inlineStr">
         <is>
@@ -14291,7 +14439,11 @@
       <c r="O248" s="2" t="inlineStr"/>
       <c r="P248" s="2" t="inlineStr"/>
       <c r="Q248" s="2" t="inlineStr"/>
-      <c r="R248" s="2" t="inlineStr"/>
+      <c r="R248" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S248" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14302,28 +14454,32 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007292</t>
+          <t>BCIO:007287</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>remove consequence for outcome of behaviour BCT</t>
+          <t>remove aversive material consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>outcome consequence BCT</t>
+          <t>remove aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>An outcome consequence BCT that removes a previously provided consequence for an outcome resulting from performing or not performing the behaviour.</t>
+          <t>A remove aversive consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr"/>
       <c r="F249" s="2" t="inlineStr"/>
       <c r="G249" s="2" t="inlineStr"/>
-      <c r="H249" s="2" t="inlineStr"/>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>remove material punishment</t>
+        </is>
+      </c>
       <c r="I249" s="2" t="inlineStr"/>
       <c r="J249" s="2" t="inlineStr"/>
       <c r="K249" s="2" t="inlineStr">
@@ -14341,7 +14497,11 @@
       <c r="O249" s="2" t="inlineStr"/>
       <c r="P249" s="2" t="inlineStr"/>
       <c r="Q249" s="2" t="inlineStr"/>
-      <c r="R249" s="2" t="inlineStr"/>
+      <c r="R249" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S249" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14352,41 +14512,33 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007286</t>
+          <t>BCIO:007288</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>remove negative consequence for behaviour BCT</t>
+          <t>remove aversive material consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>remove consequence for behaviour BCT</t>
+          <t>remove aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>A remove consequence for behaviour BCT where the consequence is negative.</t>
+          <t>A remove aversive consequence for outcome of behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr"/>
       <c r="F250" s="2" t="inlineStr"/>
-      <c r="G250" s="2" t="inlineStr">
-        <is>
-          <t>BCT14.10 Remove punishment</t>
-        </is>
-      </c>
+      <c r="G250" s="2" t="inlineStr"/>
       <c r="H250" s="2" t="inlineStr">
         <is>
-          <t>negative reinforcement, remove punishment</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="inlineStr">
-        <is>
-          <t>To qualify as negative, the consequence should have been negatively valued by the person receiving it.</t>
-        </is>
-      </c>
+          <t>remove material punishment</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="inlineStr"/>
       <c r="J250" s="2" t="inlineStr"/>
       <c r="K250" s="2" t="inlineStr">
         <is>
@@ -14403,7 +14555,11 @@
       <c r="O250" s="2" t="inlineStr"/>
       <c r="P250" s="2" t="inlineStr"/>
       <c r="Q250" s="2" t="inlineStr"/>
-      <c r="R250" s="2" t="inlineStr"/>
+      <c r="R250" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S250" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14414,22 +14570,22 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007289</t>
+          <t>BCIO:007290</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>remove negative consequence for outcome of behaviour BCT</t>
+          <t>remove aversive social consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>remove consequence for outcome of behaviour BCT</t>
+          <t>remove aversive consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>A remove consequence for outcome of behaviour BCT in which the consequence is negative.</t>
+          <t>A remove aversive consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr"/>
@@ -14437,12 +14593,12 @@
       <c r="G251" s="2" t="inlineStr"/>
       <c r="H251" s="2" t="inlineStr">
         <is>
-          <t>negative reinforcement, remove punishment</t>
+          <t>remove social punishment</t>
         </is>
       </c>
       <c r="I251" s="2" t="inlineStr">
         <is>
-          <t>To qualify as negative, the consequence should have been negatively valued by the person receiving it.</t>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
         </is>
       </c>
       <c r="J251" s="2" t="inlineStr"/>
@@ -14461,7 +14617,11 @@
       <c r="O251" s="2" t="inlineStr"/>
       <c r="P251" s="2" t="inlineStr"/>
       <c r="Q251" s="2" t="inlineStr"/>
-      <c r="R251" s="2" t="inlineStr"/>
+      <c r="R251" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S251" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14472,22 +14632,22 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007287</t>
+          <t>BCIO:007291</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>remove negative material consequence for behaviour BCT</t>
+          <t>remove aversive social consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>remove negative consequence for behaviour BCT</t>
+          <t>remove aversive consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>A remove negative consequence for behaviour BCT where the consequence is money, vouchers or other valued objects.</t>
+          <t>A remove aversive consequence for outcome of behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr"/>
@@ -14495,10 +14655,14 @@
       <c r="G252" s="2" t="inlineStr"/>
       <c r="H252" s="2" t="inlineStr">
         <is>
-          <t>remove material punishment</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="inlineStr"/>
+          <t>remove social punishment</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="inlineStr">
+        <is>
+          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
+        </is>
+      </c>
       <c r="J252" s="2" t="inlineStr"/>
       <c r="K252" s="2" t="inlineStr">
         <is>
@@ -14515,7 +14679,11 @@
       <c r="O252" s="2" t="inlineStr"/>
       <c r="P252" s="2" t="inlineStr"/>
       <c r="Q252" s="2" t="inlineStr"/>
-      <c r="R252" s="2" t="inlineStr"/>
+      <c r="R252" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S252" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14526,30 +14694,34 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007288</t>
+          <t>BCIO:050331</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>remove negative material consequence for outcome of behaviour BCT</t>
+          <t>remove aversive stimulus BCT</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>remove negative consequence for outcome of behaviour BCT</t>
+          <t>alter external stimulus BCT</t>
         </is>
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>A remove negative consequence for outcome of behaviour BCT in which the consequence is money, vouchers or other valued objects.</t>
+          <t>An alter external stimulus BCT that involves removing an aversive stimulus to bring about behaviour change.</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr"/>
       <c r="F253" s="2" t="inlineStr"/>
-      <c r="G253" s="2" t="inlineStr"/>
+      <c r="G253" s="2" t="inlineStr">
+        <is>
+          <t>BCT7.5 Remove aversive stimulus</t>
+        </is>
+      </c>
       <c r="H253" s="2" t="inlineStr">
         <is>
-          <t>remove material punishment</t>
+          <t>escape learning</t>
         </is>
       </c>
       <c r="I253" s="2" t="inlineStr"/>
@@ -14580,37 +14752,29 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007290</t>
+          <t>BCIO:007285</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>remove negative social consequence for behaviour BCT</t>
+          <t>remove consequence for behaviour BCT</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>remove negative consequence for behaviour BCT</t>
+          <t>behavioural consequence BCT</t>
         </is>
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>A remove negative consequence for behaviour BCT where the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>A behavioural consequence BCT that removes a previously provided consequence for performing the behaviour.</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr"/>
       <c r="F254" s="2" t="inlineStr"/>
       <c r="G254" s="2" t="inlineStr"/>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>remove social punishment</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
-        </is>
-      </c>
+      <c r="H254" s="2" t="inlineStr"/>
+      <c r="I254" s="2" t="inlineStr"/>
       <c r="J254" s="2" t="inlineStr"/>
       <c r="K254" s="2" t="inlineStr">
         <is>
@@ -14638,37 +14802,29 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>BCIO:007291</t>
+          <t>BCIO:007292</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>remove negative social consequence for outcome of behaviour BCT</t>
+          <t>remove consequence for outcome of behaviour BCT</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>remove negative consequence for outcome of behaviour BCT</t>
+          <t>outcome consequence BCT</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>A remove negative consequence for outcome of behaviour BCT in which the consequence is an interpersonal process or a proxy interpersonal process.</t>
+          <t>An outcome consequence BCT that removes a previously provided consequence for an outcome resulting from performing or not performing the behaviour.</t>
         </is>
       </c>
       <c r="E255" s="2" t="inlineStr"/>
       <c r="F255" s="2" t="inlineStr"/>
       <c r="G255" s="2" t="inlineStr"/>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>remove social punishment</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="inlineStr">
-        <is>
-          <t>A proxy interpersonal process is where the person interacts with a chatbot, digital assistant, or similar computer program designed to simulate and process human communication</t>
-        </is>
-      </c>
+      <c r="H255" s="2" t="inlineStr"/>
+      <c r="I255" s="2" t="inlineStr"/>
       <c r="J255" s="2" t="inlineStr"/>
       <c r="K255" s="2" t="inlineStr">
         <is>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -8141,7 +8141,7 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour that is different from an unwanted behaviour.</t>
+          <t>A promise positive consequence for behaviour BCT that promises the consequence will be provided for the behaviour that is different from the unwanted behaviour.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -8169,7 +8169,11 @@
       <c r="O139" s="2" t="inlineStr"/>
       <c r="P139" s="2" t="inlineStr"/>
       <c r="Q139" s="2" t="inlineStr"/>
-      <c r="R139" s="2" t="inlineStr"/>
+      <c r="R139" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S139" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8195,7 +8199,7 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT where the consequence is provided for approximation to the behaviour, gradually rewarding only performance closer to the behaviour.</t>
+          <t>A promise positive consequence for behaviour BCT where the consequence is provided as the performance gradually gets closer to the behaviour.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -8223,7 +8227,11 @@
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr"/>
       <c r="Q140" s="2" t="inlineStr"/>
-      <c r="R140" s="2" t="inlineStr"/>
+      <c r="R140" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S140" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8261,7 +8269,7 @@
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcement, incentive</t>
+          <t>incentive</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
@@ -8285,7 +8293,11 @@
       <c r="O141" s="2" t="inlineStr"/>
       <c r="P141" s="2" t="inlineStr"/>
       <c r="Q141" s="2" t="inlineStr"/>
-      <c r="R141" s="2" t="inlineStr"/>
+      <c r="R141" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S141" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8311,7 +8323,7 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A promise positive consequence for behaviour BCT in which the consequence will be provided for performing the behaviour that is the final step of a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
+          <t>A promise positive consequence for behaviour BCT in which the consequence will be provided for performing the final behaviour in a sequence of behaviours, followed by adding behaviours that occur earlier in the sequence.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
@@ -8339,7 +8351,11 @@
       <c r="O142" s="2" t="inlineStr"/>
       <c r="P142" s="2" t="inlineStr"/>
       <c r="Q142" s="2" t="inlineStr"/>
-      <c r="R142" s="2" t="inlineStr"/>
+      <c r="R142" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S142" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8431,7 +8447,7 @@
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcement, incentive</t>
+          <t>incentive</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr"/>
@@ -8451,7 +8467,11 @@
       <c r="O144" s="2" t="inlineStr"/>
       <c r="P144" s="2" t="inlineStr"/>
       <c r="Q144" s="2" t="inlineStr"/>
-      <c r="R144" s="2" t="inlineStr"/>
+      <c r="R144" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S144" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8651,7 +8671,7 @@
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcement, material incentive</t>
+          <t>material incentive</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr"/>
@@ -8671,7 +8691,11 @@
       <c r="O148" s="2" t="inlineStr"/>
       <c r="P148" s="2" t="inlineStr"/>
       <c r="Q148" s="2" t="inlineStr"/>
-      <c r="R148" s="2" t="inlineStr"/>
+      <c r="R148" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S148" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -9037,7 +9061,7 @@
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>positive reinforcement, social incentive</t>
+          <t>social incentive</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -9061,7 +9085,11 @@
       <c r="O155" s="2" t="inlineStr"/>
       <c r="P155" s="2" t="inlineStr"/>
       <c r="Q155" s="2" t="inlineStr"/>
-      <c r="R155" s="2" t="inlineStr"/>
+      <c r="R155" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S155" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -1386,7 +1386,11 @@
           <t>BCT12.4 Distraction</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>attention shift</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="inlineStr"/>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr">
@@ -1404,7 +1408,11 @@
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
       <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2614,7 +2622,7 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>self-affirmation</t>
+          <t>self-affirmation, personal affirmation</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr"/>
@@ -2634,7 +2642,11 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr"/>
       <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr"/>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2786,7 +2798,11 @@
           <t>BCT1.3 Goal setting (outcome)</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>objective setting</t>
+        </is>
+      </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
           <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
@@ -2808,7 +2824,11 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr"/>
       <c r="Q44" s="2" t="inlineStr"/>
-      <c r="R44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3220,7 +3240,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>Classical/Pavlovian conditioning</t>
+          <t>Classical conditioning, Pavlovian conditioning</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr"/>
@@ -3278,7 +3298,7 @@
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>Classical conditioning</t>
+          <t>Classical conditioning, Pavlovian conditioning</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr"/>
@@ -3333,10 +3353,14 @@
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>BCT7.4 Remove access to the reward; BCT14.1 Behaviour cost; BCT14.3 Remove reward</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>extinction</t>
+          <t>extinction, elimination of reinforcement</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr"/>
@@ -3780,7 +3804,7 @@
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>decisional balance, pros and cons</t>
+          <t>decisional balance, weighing pros and cons</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr"/>
@@ -3896,7 +3920,7 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>habit reversal</t>
+          <t>habit reversal, breaking a habit, habit elimination</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -3920,7 +3944,11 @@
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr"/>
       <c r="Q64" s="2" t="inlineStr"/>
-      <c r="R64" s="2" t="inlineStr"/>
+      <c r="R64" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S64" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3958,7 +3986,7 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>habit formation</t>
+          <t>habit formation, habit development</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -3982,7 +4010,11 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr"/>
       <c r="Q65" s="2" t="inlineStr"/>
-      <c r="R65" s="2" t="inlineStr"/>
+      <c r="R65" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5006,7 +5038,11 @@
           <t>BCT8.6 Generalisation of a target behaviour</t>
         </is>
       </c>
-      <c r="H83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>universalisation of behaviour</t>
+        </is>
+      </c>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr">
@@ -5024,7 +5060,11 @@
       <c r="O83" s="2" t="inlineStr"/>
       <c r="P83" s="2" t="inlineStr"/>
       <c r="Q83" s="2" t="inlineStr"/>
-      <c r="R83" s="2" t="inlineStr"/>
+      <c r="R83" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S83" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5170,7 +5210,7 @@
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>relapse prevention, coping planning</t>
+          <t>relapse prevention, coping planning, problem solving</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr"/>
@@ -5190,7 +5230,11 @@
       <c r="O86" s="2" t="inlineStr"/>
       <c r="P86" s="2" t="inlineStr"/>
       <c r="Q86" s="2" t="inlineStr"/>
-      <c r="R86" s="2" t="inlineStr"/>
+      <c r="R86" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S86" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -5832,7 +5876,11 @@
           <t>BCT5.2 Salience of consequences</t>
         </is>
       </c>
-      <c r="H98" s="2" t="inlineStr"/>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>significance of outcomes, importance of consequences, relevance of results</t>
+        </is>
+      </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
           <t>Consider also coding one of "inform about health consequences", "inform about emotional consequences",  "inform about social consequences", or their child classes</t>
@@ -5854,7 +5902,11 @@
       <c r="O98" s="2" t="inlineStr"/>
       <c r="P98" s="2" t="inlineStr"/>
       <c r="Q98" s="2" t="inlineStr"/>
-      <c r="R98" s="2" t="inlineStr"/>
+      <c r="R98" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S98" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6051,7 +6103,7 @@
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>trigger recognition</t>
+          <t>trigger recognition, understanding of antecedents</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr"/>
@@ -6111,7 +6163,11 @@
           <t xml:space="preserve"> BCT5.6 Information about emotional consequences</t>
         </is>
       </c>
-      <c r="H103" s="2" t="inlineStr"/>
+      <c r="H103" s="2" t="inlineStr">
+        <is>
+          <t>affective outcomes, emotional effects, consequences on emotions</t>
+        </is>
+      </c>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr">
@@ -6169,7 +6225,11 @@
           <t>BCT5.3 Information about social and environmental consequences</t>
         </is>
       </c>
-      <c r="H104" s="2" t="inlineStr"/>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>environmental effects, ecological impacts</t>
+        </is>
+      </c>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr">
@@ -6227,7 +6287,11 @@
           <t>BCT5.1 Information about health consequences</t>
         </is>
       </c>
-      <c r="H105" s="2" t="inlineStr"/>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>consequences for well-being, health effects, wellness outcomes</t>
+        </is>
+      </c>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr">
@@ -6717,7 +6781,11 @@
           <t>BCT5.3 Information about social and environmental consequences</t>
         </is>
       </c>
-      <c r="H114" s="2" t="inlineStr"/>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>social effects, community repercussions</t>
+        </is>
+      </c>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr">
@@ -7059,7 +7127,7 @@
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>observation</t>
+          <t>observation, performance monitoring</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -7237,7 +7305,7 @@
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>overcorrection</t>
+          <t>overcorrection, remedial overcompensation</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr"/>
@@ -7257,7 +7325,11 @@
       <c r="O123" s="2" t="inlineStr"/>
       <c r="P123" s="2" t="inlineStr"/>
       <c r="Q123" s="2" t="inlineStr"/>
-      <c r="R123" s="2" t="inlineStr"/>
+      <c r="R123" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S123" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7401,7 +7473,11 @@
           <t>BCT8.1 Behavioural practice/rehearsal</t>
         </is>
       </c>
-      <c r="H126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>skill practise, action rehearsal</t>
+        </is>
+      </c>
       <c r="I126" s="2" t="inlineStr"/>
       <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr">
@@ -7419,7 +7495,11 @@
       <c r="O126" s="2" t="inlineStr"/>
       <c r="P126" s="2" t="inlineStr"/>
       <c r="Q126" s="2" t="inlineStr"/>
-      <c r="R126" s="2" t="inlineStr"/>
+      <c r="R126" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S126" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -7511,7 +7591,7 @@
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>threat, warning, disincentive</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
@@ -7573,7 +7653,7 @@
       <c r="G129" s="2" t="inlineStr"/>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>threat, warning, disincentive</t>
         </is>
       </c>
       <c r="I129" s="2" t="inlineStr"/>
@@ -10543,7 +10623,11 @@
           <t>BCT9.3 Comparative imagining of future outcomes</t>
         </is>
       </c>
-      <c r="H181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>imagining future results</t>
+        </is>
+      </c>
       <c r="I181" s="2" t="inlineStr"/>
       <c r="J181" s="2" t="inlineStr"/>
       <c r="K181" s="2" t="inlineStr">
@@ -10561,7 +10645,11 @@
       <c r="O181" s="2" t="inlineStr"/>
       <c r="P181" s="2" t="inlineStr"/>
       <c r="Q181" s="2" t="inlineStr"/>
-      <c r="R181" s="2" t="inlineStr"/>
+      <c r="R181" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S181" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10647,7 +10735,11 @@
       <c r="E183" s="2" t="inlineStr"/>
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr"/>
-      <c r="H183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>self-perception</t>
+        </is>
+      </c>
       <c r="I183" s="2" t="inlineStr"/>
       <c r="J183" s="2" t="inlineStr"/>
       <c r="K183" s="2" t="inlineStr">
@@ -10665,7 +10757,11 @@
       <c r="O183" s="2" t="inlineStr"/>
       <c r="P183" s="2" t="inlineStr"/>
       <c r="Q183" s="2" t="inlineStr"/>
-      <c r="R183" s="2" t="inlineStr"/>
+      <c r="R183" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S183" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11691,7 +11787,11 @@
           <t>BCT12.4 Distraction</t>
         </is>
       </c>
-      <c r="H201" s="2" t="inlineStr"/>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>attention shift</t>
+        </is>
+      </c>
       <c r="I201" s="2" t="inlineStr"/>
       <c r="J201" s="2" t="inlineStr"/>
       <c r="K201" s="2" t="inlineStr">
@@ -11709,7 +11809,11 @@
       <c r="O201" s="2" t="inlineStr"/>
       <c r="P201" s="2" t="inlineStr"/>
       <c r="Q201" s="2" t="inlineStr"/>
-      <c r="R201" s="2" t="inlineStr"/>
+      <c r="R201" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S201" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -11743,7 +11847,7 @@
       <c r="G202" s="2" t="inlineStr"/>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>feedback</t>
+          <t>feedback, behavioural feedback</t>
         </is>
       </c>
       <c r="I202" s="2" t="inlineStr">
@@ -12521,7 +12625,7 @@
       </c>
       <c r="H215" s="2" t="inlineStr">
         <is>
-          <t>material reward</t>
+          <t>material reward, tangible reinforcement</t>
         </is>
       </c>
       <c r="I215" s="2" t="inlineStr"/>
@@ -12687,7 +12791,7 @@
       <c r="G218" s="2" t="inlineStr"/>
       <c r="H218" s="2" t="inlineStr">
         <is>
-          <t>material reward</t>
+          <t>material reward, tangible reinforcement</t>
         </is>
       </c>
       <c r="I218" s="2" t="inlineStr"/>
@@ -12707,7 +12811,11 @@
       <c r="O218" s="2" t="inlineStr"/>
       <c r="P218" s="2" t="inlineStr"/>
       <c r="Q218" s="2" t="inlineStr"/>
-      <c r="R218" s="2" t="inlineStr"/>
+      <c r="R218" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S218" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15299,7 +15407,11 @@
           <t>BCT12.1 Restructuring the physical environment</t>
         </is>
       </c>
-      <c r="H263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>physical space reorganisation, environmental modification</t>
+        </is>
+      </c>
       <c r="I263" s="2" t="inlineStr"/>
       <c r="J263" s="2" t="inlineStr"/>
       <c r="K263" s="2" t="inlineStr">
@@ -15317,7 +15429,11 @@
       <c r="O263" s="2" t="inlineStr"/>
       <c r="P263" s="2" t="inlineStr"/>
       <c r="Q263" s="2" t="inlineStr"/>
-      <c r="R263" s="2" t="inlineStr"/>
+      <c r="R263" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S263" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15353,7 +15469,11 @@
           <t>BCT12.2 Restructuring the social environment</t>
         </is>
       </c>
-      <c r="H264" s="2" t="inlineStr"/>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>interpersonal environment restructuring, social context modification</t>
+        </is>
+      </c>
       <c r="I264" s="2" t="inlineStr"/>
       <c r="J264" s="2" t="inlineStr">
         <is>
@@ -15375,7 +15495,11 @@
       <c r="O264" s="2" t="inlineStr"/>
       <c r="P264" s="2" t="inlineStr"/>
       <c r="Q264" s="2" t="inlineStr"/>
-      <c r="R264" s="2" t="inlineStr"/>
+      <c r="R264" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S264" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16037,7 +16161,11 @@
           <t>BCT8.2 Behaviour substitution</t>
         </is>
       </c>
-      <c r="H276" s="2" t="inlineStr"/>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>behaviour replacement, alternative response</t>
+        </is>
+      </c>
       <c r="I276" s="2" t="inlineStr"/>
       <c r="J276" s="2" t="inlineStr"/>
       <c r="K276" s="2" t="inlineStr">
@@ -16055,7 +16183,11 @@
       <c r="O276" s="2" t="inlineStr"/>
       <c r="P276" s="2" t="inlineStr"/>
       <c r="Q276" s="2" t="inlineStr"/>
-      <c r="R276" s="2" t="inlineStr"/>
+      <c r="R276" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S276" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -563,7 +563,11 @@
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Evidence of action planning does not necessarily imply goal setting, only code latter if sufficient evidence.</t>
+        </is>
+      </c>
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -580,7 +584,11 @@
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2563,7 +2571,11 @@
           <t>commitment</t>
         </is>
       </c>
-      <c r="I40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>If defined in terms of the behaviour to be achieved also code 'set behaviour goal BCT'.</t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -3421,7 +3433,11 @@
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>If discomfort is created only code 'draw attention to incompatible beliefs BCT' and not this class. If goals are modified, also code 'review behaviour goal BCT' and/or 'review outcome goal BCT'; if feedback provided, also code 'provide feedback BCT' or one of its child classes.</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr">
         <is>
@@ -3438,7 +3454,11 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr"/>
       <c r="Q55" s="2" t="inlineStr"/>
-      <c r="R55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4057,7 +4077,7 @@
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>the person witnessing the agreement can be the intervention source or another person who is present at the time</t>
+          <t>The person witnessing the agreement can be the intervention source or another person who is present at the time. Also code 'set behaviour goal BCT'.</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
@@ -5213,7 +5233,11 @@
           <t>relapse prevention, coping planning, problem solving</t>
         </is>
       </c>
-      <c r="I86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barrier identification without strategies to increase facilitators is not sufficient. </t>
+        </is>
+      </c>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr">
         <is>
@@ -7132,7 +7156,7 @@
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>The monitoring agent can be a human or a technical device.</t>
+          <t>The monitoring agent can be a human or a technical device. If observation is part of a data collection procedure rather than a strategy aimed at changing behaviour, do not code; if feedback given, code only 'provide feedback on behaviour BCT' and not this class; if observing outcomes code 'observe outcome of behaviour without feedback BCT'.</t>
         </is>
       </c>
       <c r="J120" s="2" t="inlineStr"/>
@@ -7194,7 +7218,7 @@
       <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>The monitoring agent can be a human or a technical device.</t>
+          <t>The monitoring agent can be a human or a technical device. If recording is part of a data collection procedure rather than a strategy aimed at changing behaviour, do not code; if feedback given, code only 'provide feedback on outcome of behaviour BCT' and not this class; if observing behaviour code 'observe behaviour without feedback BCT'.</t>
         </is>
       </c>
       <c r="J121" s="2" t="inlineStr"/>
@@ -11852,7 +11876,7 @@
       </c>
       <c r="I202" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feedback is provision of data about some aspect of behaviour without an evaluation (positive or negative). Where feedback includes reward or punishment, see behavioural consequence BCT, outcome consequence BCT and their child classes. </t>
+          <t>Feedback is provision of data about some aspect of behaviour without an evaluation (positive or negative). Where feedback includes reward or punishment, see behavioural consequence BCT, outcome consequence BCT and their child classes. If there is no clear evidence that feedback was given, code 'observe behaviour without feedback BCT' or 'record behaviour without feedback BCT'.</t>
         </is>
       </c>
       <c r="J202" s="2" t="inlineStr"/>
@@ -14080,7 +14104,7 @@
       </c>
       <c r="I240" s="2" t="inlineStr">
         <is>
-          <t>The monitoring agent can be a human or a technical device.</t>
+          <t>The monitoring agent can be a human or a technical device. If recording is part of a data collection procedure rather than a strategy aimed at changing behaviour, do not code; if feedback given, code only 'provide feedback on behaviour BCT' and not this class; if recording outcomes code 'record outcome of behaviour without feedback BCT'.</t>
         </is>
       </c>
       <c r="J240" s="2" t="inlineStr"/>
@@ -14142,7 +14166,7 @@
       <c r="H241" s="2" t="inlineStr"/>
       <c r="I241" s="2" t="inlineStr">
         <is>
-          <t>The monitoring agent can be a human or a technical device.</t>
+          <t>The monitoring agent can be a human or a technical device. If recording is part of a data collection procedure rather than a strategy aimed at changing behaviour, do not code; if feedback given, code only 'provide feedback on outcome of behaviour BCT' and not this class; if recording behaviour code 'record behaviour without feedback BCT'.</t>
         </is>
       </c>
       <c r="J241" s="2" t="inlineStr"/>
@@ -15538,7 +15562,7 @@
       <c r="H265" s="2" t="inlineStr"/>
       <c r="I265" s="2" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. If goal specified in terms of behaviour, code this class; if goal unspecified, code 'review outcome goal BCT'; if discrepancy created consider also 'attend to discrepancy between current behaviour and goal BCT'; if modifying the plan to achieve the goal consider also 'review behaviour goal plan BCT'.</t>
         </is>
       </c>
       <c r="J265" s="2" t="inlineStr"/>
@@ -15557,7 +15581,11 @@
       <c r="O265" s="2" t="inlineStr"/>
       <c r="P265" s="2" t="inlineStr"/>
       <c r="Q265" s="2" t="inlineStr"/>
-      <c r="R265" s="2" t="inlineStr"/>
+      <c r="R265" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S265" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15650,7 +15678,7 @@
       <c r="H267" s="2" t="inlineStr"/>
       <c r="I267" s="2" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving.</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. If goal specified in terms of behaviour, code 'review behaviour goal BCT'; if goal unspecified, code this class; if discrepancy created consider also 'attend to discrepancy between current behaviour and goal BCT'.</t>
         </is>
       </c>
       <c r="J267" s="2" t="inlineStr"/>
@@ -15669,7 +15697,11 @@
       <c r="O267" s="2" t="inlineStr"/>
       <c r="P267" s="2" t="inlineStr"/>
       <c r="Q267" s="2" t="inlineStr"/>
-      <c r="R267" s="2" t="inlineStr"/>
+      <c r="R267" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S267" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15710,7 +15742,11 @@
           <t>self-monitoring</t>
         </is>
       </c>
-      <c r="I268" s="2" t="inlineStr"/>
+      <c r="I268" s="2" t="inlineStr">
+        <is>
+          <t>If monitoring is part of a data collection procedure rather than a strategy aimed at changing behaviour, do not code; if self-monitoring of outcome of behaviour, code 'self-monitor outcome of behaviour BCT'.</t>
+        </is>
+      </c>
       <c r="J268" s="2" t="inlineStr"/>
       <c r="K268" s="2" t="inlineStr">
         <is>
@@ -15768,7 +15804,11 @@
         </is>
       </c>
       <c r="H269" s="2" t="inlineStr"/>
-      <c r="I269" s="2" t="inlineStr"/>
+      <c r="I269" s="2" t="inlineStr">
+        <is>
+          <t>If monitoring is part of a data collection procedure rather than a strategy aimed at changing behaviour, do not code; if self-monitoring behaviour, code 'self-monitor behaviour BCT'.</t>
+        </is>
+      </c>
       <c r="J269" s="2" t="inlineStr"/>
       <c r="K269" s="2" t="inlineStr">
         <is>
@@ -15785,7 +15825,11 @@
       <c r="O269" s="2" t="inlineStr"/>
       <c r="P269" s="2" t="inlineStr"/>
       <c r="Q269" s="2" t="inlineStr"/>
-      <c r="R269" s="2" t="inlineStr"/>
+      <c r="R269" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S269" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15824,7 +15868,7 @@
       <c r="H270" s="2" t="inlineStr"/>
       <c r="I270" s="2" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person.</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person. Only code if there is sufficient evidence that the goal is set as part of intervention; if goal is a behavioural outcome, code 'set outcome goal BCT'; if goal unspecified code 'goal setting BCT'; if the goal defines a specific context, frequency, duration or intensity for the behaviour, also code 'action planning BCT'.</t>
         </is>
       </c>
       <c r="J270" s="2" t="inlineStr"/>
@@ -15843,7 +15887,11 @@
       <c r="O270" s="2" t="inlineStr"/>
       <c r="P270" s="2" t="inlineStr"/>
       <c r="Q270" s="2" t="inlineStr"/>
-      <c r="R270" s="2" t="inlineStr"/>
+      <c r="R270" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S270" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16052,7 +16100,7 @@
       <c r="H274" s="2" t="inlineStr"/>
       <c r="I274" s="2" t="inlineStr">
         <is>
-          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person.</t>
+          <t>A goal is a cognitive representation of an end state towards which one is striving. The goal could be set for the self or another person. Only code guidelines if set as a goal in an intervention context; if goal is a behaviour, code 'set behaviour goal BCT'; if goal unspecified code 'goal setting BCT'.</t>
         </is>
       </c>
       <c r="J274" s="2" t="inlineStr"/>
@@ -16071,7 +16119,11 @@
       <c r="O274" s="2" t="inlineStr"/>
       <c r="P274" s="2" t="inlineStr"/>
       <c r="Q274" s="2" t="inlineStr"/>
-      <c r="R274" s="2" t="inlineStr"/>
+      <c r="R274" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S274" s="2" t="inlineStr">
         <is>
           <t>0</t>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -675,7 +675,11 @@
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Provision of information (e.g. written, verbal, visual) in a booklet or leaflet is insufficient. If this is accompanied by social support, also code 'social support BCT' or one of its child classes. If the environment is changed beyond the addition of objects, also code 'directly restructure the physical environment BCT' and/or 'indirectly restructure the physical environment BCT'.</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -692,7 +696,11 @@
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr"/>
       <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1673,7 +1681,11 @@
           <t>stress management</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>If includes analysing the behavioural problem, also code 'goal strategising BCT'</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1690,7 +1702,11 @@
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr"/>
       <c r="Q23" s="2" t="inlineStr"/>
-      <c r="R23" s="2" t="inlineStr"/>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -2511,7 +2527,7 @@
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Where an "advise to seek support BCT" is used together with an "arrange support BCT," this constitutes connecting to social support as used in social prescribing</t>
+          <t>Where an "advise to seek support BCT" is used together with an "arrange support BCT," this constitutes connecting to social support as used in social prescribing. Attending a group class and/or mention of ‘follow-up’ does not necessarily apply this BCT, support must be explicitly mentioned</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
@@ -2530,7 +2546,11 @@
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
       <c r="Q39" s="2" t="inlineStr"/>
-      <c r="R39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3195,7 +3215,7 @@
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Where an "arrange support BCT" is used together with an "advise to seek support BCT", this constitutes "connecting to support" as used in social prescribing</t>
+          <t>Where an "arrange support BCT" is used together with an "advise to seek support BCT", this constitutes "connecting to support" as used in social prescribing. Attending a group class and/or mention of ‘follow-up’ does not necessarily apply this BCT, support must be explicitly mentioned</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
@@ -3214,7 +3234,11 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr"/>
       <c r="Q51" s="2" t="inlineStr"/>
-      <c r="R51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -3255,7 +3279,11 @@
           <t>Classical conditioning, Pavlovian conditioning</t>
         </is>
       </c>
-      <c r="I52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>When this BCT involves reward or punishment, consider 'behavioural consequence BCT' and its child classes</t>
+        </is>
+      </c>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3945,7 +3973,7 @@
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>For the purposes of this BCT, preceding behaviour can be considered part of the context</t>
+          <t>For the purposes of this BCT, preceding behaviour can be considered part of the context. Also code 'substitute behaviour BCT'</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr"/>
@@ -4011,7 +4039,7 @@
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>For the purposes of this BCT, preceding behaviour can be considered part of the context</t>
+          <t>For the purposes of this BCT, preceding behaviour can be considered part of the context. Also code 'practise behaviour BCT'</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr"/>
@@ -4136,8 +4164,16 @@
           <t>BCT7.1 Prompts/cues</t>
         </is>
       </c>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>cues</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>When a stimulus is linked to a specific action in an if-then plan including one or more of frequency, duration or intensity also code 'action planning BCT'</t>
+        </is>
+      </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr">
         <is>
@@ -4154,7 +4190,11 @@
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr"/>
       <c r="Q67" s="2" t="inlineStr"/>
-      <c r="R67" s="2" t="inlineStr"/>
+      <c r="R67" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S67" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -4497,7 +4537,11 @@
           <t>social support</t>
         </is>
       </c>
-      <c r="I73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>Attending a group class and/or mention of ‘follow-up’ does not necessarily apply this BCT, support must be explicitly mentioned</t>
+        </is>
+      </c>
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr">
         <is>
@@ -4559,7 +4603,11 @@
           <t>modelling, observational learning</t>
         </is>
       </c>
-      <c r="I74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>If advised to practice, also code 'practise behaviour BCT'; If provided with instructions on how to perform, also code 'instruct how to perform behaviour BCT'.</t>
+        </is>
+      </c>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr">
         <is>
@@ -6072,7 +6120,11 @@
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
-      <c r="I101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr">
+        <is>
+          <t>If suggests adoption of a perspective or new perspective in order to change cognitions also code 'suggest different perspective on behaviour BCT' or one of its child classes</t>
+        </is>
+      </c>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr">
         <is>
@@ -6089,7 +6141,11 @@
       <c r="O101" s="2" t="inlineStr"/>
       <c r="P101" s="2" t="inlineStr"/>
       <c r="Q101" s="2" t="inlineStr"/>
-      <c r="R101" s="2" t="inlineStr"/>
+      <c r="R101" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S101" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -6192,7 +6248,11 @@
           <t>affective outcomes, emotional effects, consequences on emotions</t>
         </is>
       </c>
-      <c r="I103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be for any target, not just the recipient(s) of the intervention; emphasising importance of consequences is not sufficient. Consequences can be related to emotional health disorders (e.g. depression, anxiety) and/or states of mind (e.g. low mood, stress).</t>
+        </is>
+      </c>
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr">
         <is>
@@ -6254,7 +6314,11 @@
           <t>environmental effects, ecological impacts</t>
         </is>
       </c>
-      <c r="I104" s="2" t="inlineStr"/>
+      <c r="I104" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be for any target, not just the recipient(s) of the intervention; emphasising importance of consequences is not sufficient.</t>
+        </is>
+      </c>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr">
         <is>
@@ -6316,7 +6380,11 @@
           <t>consequences for well-being, health effects, wellness outcomes</t>
         </is>
       </c>
-      <c r="I105" s="2" t="inlineStr"/>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be for any target, not just the recipient(s) of the intervention; emphasising importance of consequences is not sufficient.</t>
+        </is>
+      </c>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr">
         <is>
@@ -6810,7 +6878,11 @@
           <t>social effects, community repercussions</t>
         </is>
       </c>
-      <c r="I114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be for any target, not just the recipient(s) of the intervention; emphasising importance of consequences is not sufficient.</t>
+        </is>
+      </c>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr">
         <is>
@@ -6872,7 +6944,11 @@
           <t>skills training, instruction</t>
         </is>
       </c>
-      <c r="I115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>When the person attends classes such as exercise or cookery, code 'instruct how to perform behaviour BCT', 'practise behaviour BCT', and 'demonstrate the behaviour BCT'.</t>
+        </is>
+      </c>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr">
         <is>
@@ -7499,10 +7575,14 @@
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>skill practise, action rehearsal</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="inlineStr"/>
+          <t>skill practise, rehearsal</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>If aiming to associate performance with the context, also code 'context-specific repetition of behaviour BCT'</t>
+        </is>
+      </c>
       <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr">
         <is>
@@ -7560,7 +7640,11 @@
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>Code this BCT if influence generally agreed on as credible e.g., health professionals, celebrities or words used to indicate expertise or leader in field and if the communication has the aim of persuading</t>
+        </is>
+      </c>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr">
         <is>
@@ -7577,7 +7661,11 @@
       <c r="O127" s="2" t="inlineStr"/>
       <c r="P127" s="2" t="inlineStr"/>
       <c r="Q127" s="2" t="inlineStr"/>
-      <c r="R127" s="2" t="inlineStr"/>
+      <c r="R127" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S127" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -8378,7 +8466,7 @@
       </c>
       <c r="I141" s="2" t="inlineStr">
         <is>
-          <t>To qualify as positive, the consequence should be positively valued by the person receiving it.</t>
+          <t>To qualify as positive, the consequence should be positively valued by the person receiving it. If consequence is delivered, also code 'provide positive consequence for behaviour BCT' or one of its child classes.</t>
         </is>
       </c>
       <c r="J141" s="2" t="inlineStr"/>
@@ -10594,7 +10682,11 @@
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr"/>
-      <c r="I180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>If pharmacological support to reduce negative emotions (i.e. anxiety) then also code 'advise how to reduce negative emotions BCT'</t>
+        </is>
+      </c>
       <c r="J180" s="2" t="inlineStr"/>
       <c r="K180" s="2" t="inlineStr">
         <is>
@@ -10611,7 +10703,11 @@
       <c r="O180" s="2" t="inlineStr"/>
       <c r="P180" s="2" t="inlineStr"/>
       <c r="Q180" s="2" t="inlineStr"/>
-      <c r="R180" s="2" t="inlineStr"/>
+      <c r="R180" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S180" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10821,8 +10917,16 @@
           <t>BCT7.1 Prompts/cues</t>
         </is>
       </c>
-      <c r="H184" s="2" t="inlineStr"/>
-      <c r="I184" s="2" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>prompts</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>When a stimulus is linked to a specific action in an if-then plan including one or more of frequency, duration or intensity also code 'action planning BCT'</t>
+        </is>
+      </c>
       <c r="J184" s="2" t="inlineStr"/>
       <c r="K184" s="2" t="inlineStr">
         <is>
@@ -10839,7 +10943,11 @@
       <c r="O184" s="2" t="inlineStr"/>
       <c r="P184" s="2" t="inlineStr"/>
       <c r="Q184" s="2" t="inlineStr"/>
-      <c r="R184" s="2" t="inlineStr"/>
+      <c r="R184" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S184" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -10992,7 +11100,11 @@
           <t>social comparison</t>
         </is>
       </c>
-      <c r="I187" s="2" t="inlineStr"/>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Being in a group setting does not necessarily mean that social comparison is actually taking place </t>
+        </is>
+      </c>
       <c r="J187" s="2" t="inlineStr"/>
       <c r="K187" s="2" t="inlineStr">
         <is>
@@ -12236,7 +12348,7 @@
       </c>
       <c r="I208" s="2" t="inlineStr">
         <is>
-          <t>To qualify as positive, the consequence should be positively valued by the person receiving it.</t>
+          <t>To qualify as positive, the consequence should be positively valued by the person receiving it. If informed of consequence in advance of rewarded behaviour, also code 'promise positive consequence for behaviour BCT' or one of its child classses.</t>
         </is>
       </c>
       <c r="J208" s="2" t="inlineStr"/>
@@ -12255,7 +12367,11 @@
       <c r="O208" s="2" t="inlineStr"/>
       <c r="P208" s="2" t="inlineStr"/>
       <c r="Q208" s="2" t="inlineStr"/>
-      <c r="R208" s="2" t="inlineStr"/>
+      <c r="R208" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S208" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -14344,7 +14460,7 @@
       <c r="H244" s="2" t="inlineStr"/>
       <c r="I244" s="2" t="inlineStr">
         <is>
-          <t>The reduction in exposure can be gradual, as in the technique of "fading" or not so gradual. This BCT is concerned with reducing the person's exposure to the cue, while the cue frequency may remain unchanged. In contrast, "reduce cue frequency BCT" is concerned with a reduction in the number of times with which the cue is presented.</t>
+          <t>The reduction in exposure can be gradual, as in the technique of "fading" or not so gradual. This BCT is concerned with reducing the person's exposure to the cue, while the cue frequency may remain unchanged. In contrast, "reduce cue frequency BCT" is concerned with a reduction in the number of times with which the cue is presented. This BCT may also involve 'restructure the physical environment BCT' and/or 'restructure the social environment BCT'.</t>
         </is>
       </c>
       <c r="J244" s="2" t="inlineStr"/>
@@ -14363,7 +14479,11 @@
       <c r="O244" s="2" t="inlineStr"/>
       <c r="P244" s="2" t="inlineStr"/>
       <c r="Q244" s="2" t="inlineStr"/>
-      <c r="R244" s="2" t="inlineStr"/>
+      <c r="R244" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S244" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -15436,7 +15556,11 @@
           <t>physical space reorganisation, environmental modification</t>
         </is>
       </c>
-      <c r="I263" s="2" t="inlineStr"/>
+      <c r="I263" s="2" t="inlineStr">
+        <is>
+          <t>This may also involve 'reduce exposure to cues for the behaviour BCT'</t>
+        </is>
+      </c>
       <c r="J263" s="2" t="inlineStr"/>
       <c r="K263" s="2" t="inlineStr">
         <is>
@@ -15498,7 +15622,11 @@
           <t>interpersonal environment restructuring, social context modification</t>
         </is>
       </c>
-      <c r="I264" s="2" t="inlineStr"/>
+      <c r="I264" s="2" t="inlineStr">
+        <is>
+          <t>This may also involve 'reduce exposure to cues for the behaviour BCT'</t>
+        </is>
+      </c>
       <c r="J264" s="2" t="inlineStr">
         <is>
           <t>Instructing people in a smoking cessation group to sit in a circle rather than in rows; Instructing schoolchildren to form a single file queue rather than mingle in a crowd.</t>
@@ -16160,7 +16288,11 @@
         </is>
       </c>
       <c r="H275" s="2" t="inlineStr"/>
-      <c r="I275" s="2" t="inlineStr"/>
+      <c r="I275" s="2" t="inlineStr">
+        <is>
+          <t>Attending a group class and/or mention of ‘follow-up’ does not necessarily apply this BCT, support must be explicitly mentioned.</t>
+        </is>
+      </c>
       <c r="J275" s="2" t="inlineStr"/>
       <c r="K275" s="2" t="inlineStr">
         <is>
@@ -16177,7 +16309,11 @@
       <c r="O275" s="2" t="inlineStr"/>
       <c r="P275" s="2" t="inlineStr"/>
       <c r="Q275" s="2" t="inlineStr"/>
-      <c r="R275" s="2" t="inlineStr"/>
+      <c r="R275" s="2" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
       <c r="S275" s="2" t="inlineStr">
         <is>
           <t>0</t>
@@ -16218,7 +16354,11 @@
           <t>behaviour replacement, alternative response</t>
         </is>
       </c>
-      <c r="I276" s="2" t="inlineStr"/>
+      <c r="I276" s="2" t="inlineStr">
+        <is>
+          <t>If this occurs regularly, also code 'context-specific repetition of alternative behaviour BCT'</t>
+        </is>
+      </c>
       <c r="J276" s="2" t="inlineStr"/>
       <c r="K276" s="2" t="inlineStr">
         <is>

--- a/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
+++ b/BehaviourChangeTechniques/inputs/BCIO_BehaviourChangeTechniques.xlsx
@@ -3701,7 +3701,9 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S59" s="3" t="inlineStr"/>
+      <c r="S59" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="T59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
@@ -3755,7 +3757,9 @@
           <t>lz</t>
         </is>
       </c>
-      <c r="S60" s="3" t="inlineStr"/>
+      <c r="S60" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="T60" s="3" t="inlineStr"/>
     </row>
     <row r="61">
@@ -6589,7 +6593,7 @@
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inform about negative environmental consequences BCT </t>
+          <t>inform about negative environmental consequences BCT</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -6625,7 +6629,7 @@
       <c r="Q109" s="2" t="inlineStr"/>
       <c r="R109" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; RW</t>
         </is>
       </c>
       <c r="S109" s="2" t="inlineStr">
@@ -6643,7 +6647,7 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inform about negative health consequences BCT </t>
+          <t>inform about negative health consequences BCT</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -6679,7 +6683,7 @@
       <c r="Q110" s="2" t="inlineStr"/>
       <c r="R110" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; RW</t>
         </is>
       </c>
       <c r="S110" s="2" t="inlineStr">
@@ -6697,7 +6701,7 @@
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inform about negative social consequences BCT </t>
+          <t>inform about negative social consequences BCT</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -6733,7 +6737,7 @@
       <c r="Q111" s="2" t="inlineStr"/>
       <c r="R111" s="2" t="inlineStr">
         <is>
-          <t>lz</t>
+          <t>lz; RW</t>
         </is>
       </c>
       <c r="S111" s="2" t="inlineStr">
